--- a/template/ObjectPermission.xlsx
+++ b/template/ObjectPermission.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="17">
   <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
@@ -76,12 +76,75 @@
     <t>オブジェクト</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント対象</t>
+    <rPh sb="6" eb="8">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日</t>
+    <rPh sb="0" eb="5">
+      <t>サイシュウコウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新者</t>
+    <rPh sb="0" eb="5">
+      <t>サイシュウコウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト権限一覧</t>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +202,28 @@
       <name val="Meiryo UI"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -166,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -250,52 +335,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -401,8 +441,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -492,8 +583,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,67 +618,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="97">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -624,6 +738,10 @@
     <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -669,6 +787,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1000,10 +1122,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI186"/>
+  <dimension ref="A1:AK187"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D12"/>
+      <selection activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1017,158 +1139,185 @@
     <col min="9" max="9" width="7.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="2" customWidth="1"/>
     <col min="11" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="35" width="8.6640625" style="2" customWidth="1"/>
+    <col min="15" max="36" width="8.6640625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-    </row>
-    <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-    </row>
-    <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-    </row>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+    <row r="1" spans="1:37" ht="23" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+    </row>
+    <row r="2" spans="1:37" ht="23" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+    </row>
+    <row r="3" spans="1:37" ht="23" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+    </row>
+    <row r="4" spans="1:37" ht="23" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+    </row>
+    <row r="5" spans="1:37" ht="12" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1204,17 +1353,19 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:35" ht="139" customHeight="1" thickBot="1">
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="25"/>
+    </row>
+    <row r="6" spans="1:37" ht="139" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1245,15 +1396,17 @@
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
-    </row>
-    <row r="7" spans="1:35" ht="13" customHeight="1">
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="26"/>
+    </row>
+    <row r="7" spans="1:37" ht="13" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1283,16 +1436,18 @@
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
-      <c r="AI7" s="12"/>
-    </row>
-    <row r="8" spans="1:35" ht="12" customHeight="1">
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="26"/>
+    </row>
+    <row r="8" spans="1:37" ht="12" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1322,16 +1477,18 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="13"/>
-    </row>
-    <row r="9" spans="1:35" ht="12" customHeight="1">
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="26"/>
+    </row>
+    <row r="9" spans="1:37" ht="12" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1361,16 +1518,18 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="13"/>
-    </row>
-    <row r="10" spans="1:35" ht="12" customHeight="1">
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="26"/>
+    </row>
+    <row r="10" spans="1:37" ht="12" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1400,27 +1559,29 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="13"/>
-    </row>
-    <row r="11" spans="1:35" ht="12" customHeight="1">
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="26"/>
+    </row>
+    <row r="11" spans="1:37" ht="12" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1439,55 +1600,59 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="13"/>
-    </row>
-    <row r="12" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="26"/>
+    </row>
+    <row r="12" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="14" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="16"/>
-    </row>
-    <row r="13" spans="1:35" ht="13" customHeight="1">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="26"/>
+    </row>
+    <row r="13" spans="1:37" ht="13" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1517,16 +1682,18 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="12"/>
-    </row>
-    <row r="14" spans="1:35" ht="12" customHeight="1">
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="26"/>
+    </row>
+    <row r="14" spans="1:37" ht="12" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1556,16 +1723,18 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="13"/>
-    </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1">
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="26"/>
+    </row>
+    <row r="15" spans="1:37" ht="12" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1595,16 +1764,18 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="13"/>
-    </row>
-    <row r="16" spans="1:35" ht="12" customHeight="1">
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="26"/>
+    </row>
+    <row r="16" spans="1:37" ht="12" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1634,27 +1805,29 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="13"/>
-    </row>
-    <row r="17" spans="1:35" ht="12" customHeight="1">
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="26"/>
+    </row>
+    <row r="17" spans="1:37" ht="12" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="17" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1673,55 +1846,59 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="13"/>
-    </row>
-    <row r="18" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="26"/>
+    </row>
+    <row r="18" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="14" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="16"/>
-    </row>
-    <row r="19" spans="1:35" ht="13" customHeight="1">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="26"/>
+    </row>
+    <row r="19" spans="1:37" ht="13" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1751,16 +1928,18 @@
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
-      <c r="AI19" s="12"/>
-    </row>
-    <row r="20" spans="1:35" ht="12" customHeight="1">
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="26"/>
+    </row>
+    <row r="20" spans="1:37" ht="12" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1790,16 +1969,18 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="13"/>
-    </row>
-    <row r="21" spans="1:35" ht="12" customHeight="1">
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="26"/>
+    </row>
+    <row r="21" spans="1:37" ht="12" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="7" t="s">
         <v>2</v>
       </c>
@@ -1829,16 +2010,18 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="13"/>
-    </row>
-    <row r="22" spans="1:35" ht="12" customHeight="1">
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="26"/>
+    </row>
+    <row r="22" spans="1:37" ht="12" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1868,27 +2051,29 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="13"/>
-    </row>
-    <row r="23" spans="1:35" ht="12" customHeight="1">
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="26"/>
+    </row>
+    <row r="23" spans="1:37" ht="12" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="17" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1907,55 +2092,59 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="13"/>
-    </row>
-    <row r="24" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="26"/>
+    </row>
+    <row r="24" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="14" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="16"/>
-    </row>
-    <row r="25" spans="1:35" ht="13" customHeight="1">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="26"/>
+    </row>
+    <row r="25" spans="1:37" ht="13" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="10" t="s">
         <v>0</v>
       </c>
@@ -1985,16 +2174,18 @@
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
-      <c r="AI25" s="12"/>
-    </row>
-    <row r="26" spans="1:35" ht="12" customHeight="1">
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="26"/>
+    </row>
+    <row r="26" spans="1:37" ht="12" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="7" t="s">
         <v>1</v>
       </c>
@@ -2024,16 +2215,18 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="13"/>
-    </row>
-    <row r="27" spans="1:35" ht="12" customHeight="1">
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="26"/>
+    </row>
+    <row r="27" spans="1:37" ht="12" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2063,16 +2256,18 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="13"/>
-    </row>
-    <row r="28" spans="1:35" ht="12" customHeight="1">
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="26"/>
+    </row>
+    <row r="28" spans="1:37" ht="12" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="7" t="s">
         <v>3</v>
       </c>
@@ -2102,27 +2297,29 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="13"/>
-    </row>
-    <row r="29" spans="1:35" ht="12" customHeight="1">
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="26"/>
+    </row>
+    <row r="29" spans="1:37" ht="12" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="17" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2141,55 +2338,59 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="13"/>
-    </row>
-    <row r="30" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="26"/>
+    </row>
+    <row r="30" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="14" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="16"/>
-    </row>
-    <row r="31" spans="1:35" ht="13" customHeight="1">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="26"/>
+    </row>
+    <row r="31" spans="1:37" ht="13" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="10" t="s">
         <v>0</v>
       </c>
@@ -2219,16 +2420,18 @@
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
       <c r="AH31" s="11"/>
-      <c r="AI31" s="12"/>
-    </row>
-    <row r="32" spans="1:35" ht="12" customHeight="1">
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="26"/>
+    </row>
+    <row r="32" spans="1:37" ht="12" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="7" t="s">
         <v>1</v>
       </c>
@@ -2258,16 +2461,18 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="13"/>
-    </row>
-    <row r="33" spans="1:35" ht="12" customHeight="1">
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="26"/>
+    </row>
+    <row r="33" spans="1:37" ht="12" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="7" t="s">
         <v>2</v>
       </c>
@@ -2297,16 +2502,18 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="13"/>
-    </row>
-    <row r="34" spans="1:35" ht="12" customHeight="1">
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="26"/>
+    </row>
+    <row r="34" spans="1:37" ht="12" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="7" t="s">
         <v>3</v>
       </c>
@@ -2336,27 +2543,29 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="13"/>
-    </row>
-    <row r="35" spans="1:35" ht="12" customHeight="1">
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="26"/>
+    </row>
+    <row r="35" spans="1:37" ht="12" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="17" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2375,55 +2584,59 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="13"/>
-    </row>
-    <row r="36" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="26"/>
+    </row>
+    <row r="36" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="14" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="16"/>
-    </row>
-    <row r="37" spans="1:35" ht="13" customHeight="1">
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="26"/>
+    </row>
+    <row r="37" spans="1:37" ht="13" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="10" t="s">
         <v>0</v>
       </c>
@@ -2453,16 +2666,18 @@
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
-      <c r="AI37" s="12"/>
-    </row>
-    <row r="38" spans="1:35" ht="12" customHeight="1">
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="26"/>
+    </row>
+    <row r="38" spans="1:37" ht="12" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="7" t="s">
         <v>1</v>
       </c>
@@ -2492,16 +2707,18 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
-      <c r="AI38" s="13"/>
-    </row>
-    <row r="39" spans="1:35" ht="12" customHeight="1">
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="26"/>
+    </row>
+    <row r="39" spans="1:37" ht="12" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="7" t="s">
         <v>2</v>
       </c>
@@ -2531,16 +2748,18 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
-      <c r="AI39" s="13"/>
-    </row>
-    <row r="40" spans="1:35" ht="12" customHeight="1">
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="26"/>
+    </row>
+    <row r="40" spans="1:37" ht="12" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="7" t="s">
         <v>3</v>
       </c>
@@ -2570,27 +2789,29 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
-      <c r="AI40" s="13"/>
-    </row>
-    <row r="41" spans="1:35" ht="12" customHeight="1">
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="26"/>
+    </row>
+    <row r="41" spans="1:37" ht="12" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="17" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -2609,55 +2830,59 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
-      <c r="AI41" s="13"/>
-    </row>
-    <row r="42" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="26"/>
+    </row>
+    <row r="42" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="14" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="16"/>
-    </row>
-    <row r="43" spans="1:35" ht="13" customHeight="1">
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="26"/>
+    </row>
+    <row r="43" spans="1:37" ht="13" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="10" t="s">
         <v>0</v>
       </c>
@@ -2687,16 +2912,18 @@
       <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
-      <c r="AI43" s="12"/>
-    </row>
-    <row r="44" spans="1:35" ht="12" customHeight="1">
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="26"/>
+    </row>
+    <row r="44" spans="1:37" ht="12" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="7" t="s">
         <v>1</v>
       </c>
@@ -2726,16 +2953,18 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
-      <c r="AI44" s="13"/>
-    </row>
-    <row r="45" spans="1:35" ht="12" customHeight="1">
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="26"/>
+    </row>
+    <row r="45" spans="1:37" ht="12" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="7" t="s">
         <v>2</v>
       </c>
@@ -2765,16 +2994,18 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
-      <c r="AI45" s="13"/>
-    </row>
-    <row r="46" spans="1:35" ht="12" customHeight="1">
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="26"/>
+    </row>
+    <row r="46" spans="1:37" ht="12" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="7" t="s">
         <v>3</v>
       </c>
@@ -2804,27 +3035,29 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="13"/>
-    </row>
-    <row r="47" spans="1:35" ht="12" customHeight="1">
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="26"/>
+    </row>
+    <row r="47" spans="1:37" ht="12" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="17" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -2843,55 +3076,59 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
-      <c r="AI47" s="13"/>
-    </row>
-    <row r="48" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="26"/>
+    </row>
+    <row r="48" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="14" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="15"/>
-      <c r="AG48" s="15"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="16"/>
-    </row>
-    <row r="49" spans="1:35" ht="13" customHeight="1">
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="26"/>
+    </row>
+    <row r="49" spans="1:37" ht="13" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
       <c r="H49" s="10" t="s">
         <v>0</v>
       </c>
@@ -2921,16 +3158,18 @@
       <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
       <c r="AH49" s="11"/>
-      <c r="AI49" s="12"/>
-    </row>
-    <row r="50" spans="1:35" ht="12" customHeight="1">
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="26"/>
+    </row>
+    <row r="50" spans="1:37" ht="12" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="7" t="s">
         <v>1</v>
       </c>
@@ -2960,16 +3199,18 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
-      <c r="AI50" s="13"/>
-    </row>
-    <row r="51" spans="1:35" ht="12" customHeight="1">
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="26"/>
+    </row>
+    <row r="51" spans="1:37" ht="12" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="7" t="s">
         <v>2</v>
       </c>
@@ -2999,16 +3240,18 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
-      <c r="AI51" s="13"/>
-    </row>
-    <row r="52" spans="1:35" ht="12" customHeight="1">
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="26"/>
+    </row>
+    <row r="52" spans="1:37" ht="12" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="7" t="s">
         <v>3</v>
       </c>
@@ -3038,27 +3281,29 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
-      <c r="AI52" s="13"/>
-    </row>
-    <row r="53" spans="1:35" ht="12" customHeight="1">
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="26"/>
+    </row>
+    <row r="53" spans="1:37" ht="12" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="17" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -3077,55 +3322,59 @@
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
-      <c r="AI53" s="13"/>
-    </row>
-    <row r="54" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="26"/>
+    </row>
+    <row r="54" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="14" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-      <c r="AG54" s="15"/>
-      <c r="AH54" s="15"/>
-      <c r="AI54" s="16"/>
-    </row>
-    <row r="55" spans="1:35" ht="13" customHeight="1">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="26"/>
+    </row>
+    <row r="55" spans="1:37" ht="13" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="10" t="s">
         <v>0</v>
       </c>
@@ -3155,16 +3404,18 @@
       <c r="AF55" s="11"/>
       <c r="AG55" s="11"/>
       <c r="AH55" s="11"/>
-      <c r="AI55" s="12"/>
-    </row>
-    <row r="56" spans="1:35" ht="12" customHeight="1">
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="26"/>
+    </row>
+    <row r="56" spans="1:37" ht="12" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="7" t="s">
         <v>1</v>
       </c>
@@ -3194,16 +3445,18 @@
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
-      <c r="AI56" s="13"/>
-    </row>
-    <row r="57" spans="1:35" ht="12" customHeight="1">
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="26"/>
+    </row>
+    <row r="57" spans="1:37" ht="12" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="7" t="s">
         <v>2</v>
       </c>
@@ -3233,16 +3486,18 @@
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
-      <c r="AI57" s="13"/>
-    </row>
-    <row r="58" spans="1:35" ht="12" customHeight="1">
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="26"/>
+    </row>
+    <row r="58" spans="1:37" ht="12" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="7" t="s">
         <v>3</v>
       </c>
@@ -3272,27 +3527,29 @@
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
-      <c r="AI58" s="13"/>
-    </row>
-    <row r="59" spans="1:35" ht="12" customHeight="1">
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="26"/>
+    </row>
+    <row r="59" spans="1:37" ht="12" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="17" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -3311,55 +3568,59 @@
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
-      <c r="AI59" s="13"/>
-    </row>
-    <row r="60" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="26"/>
+    </row>
+    <row r="60" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="14" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="15"/>
-      <c r="AF60" s="15"/>
-      <c r="AG60" s="15"/>
-      <c r="AH60" s="15"/>
-      <c r="AI60" s="16"/>
-    </row>
-    <row r="61" spans="1:35" ht="13" customHeight="1">
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13"/>
+      <c r="AI60" s="13"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="26"/>
+    </row>
+    <row r="61" spans="1:37" ht="13" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="10" t="s">
         <v>0</v>
       </c>
@@ -3389,16 +3650,18 @@
       <c r="AF61" s="11"/>
       <c r="AG61" s="11"/>
       <c r="AH61" s="11"/>
-      <c r="AI61" s="12"/>
-    </row>
-    <row r="62" spans="1:35" ht="12" customHeight="1">
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="26"/>
+    </row>
+    <row r="62" spans="1:37" ht="12" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="7" t="s">
         <v>1</v>
       </c>
@@ -3428,16 +3691,18 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
-      <c r="AI62" s="13"/>
-    </row>
-    <row r="63" spans="1:35" ht="12" customHeight="1">
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="26"/>
+    </row>
+    <row r="63" spans="1:37" ht="12" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="7" t="s">
         <v>2</v>
       </c>
@@ -3467,16 +3732,18 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
-      <c r="AI63" s="13"/>
-    </row>
-    <row r="64" spans="1:35" ht="12" customHeight="1">
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="26"/>
+    </row>
+    <row r="64" spans="1:37" ht="12" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="7" t="s">
         <v>3</v>
       </c>
@@ -3506,27 +3773,29 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
-      <c r="AI64" s="13"/>
-    </row>
-    <row r="65" spans="1:35" ht="12" customHeight="1">
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="26"/>
+    </row>
+    <row r="65" spans="1:37" ht="12" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="17" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -3545,55 +3814,59 @@
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
-      <c r="AI65" s="13"/>
-    </row>
-    <row r="66" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="26"/>
+    </row>
+    <row r="66" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="14" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="15"/>
-      <c r="AD66" s="15"/>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="15"/>
-      <c r="AG66" s="15"/>
-      <c r="AH66" s="15"/>
-      <c r="AI66" s="16"/>
-    </row>
-    <row r="67" spans="1:35" ht="13" customHeight="1">
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="13"/>
+      <c r="AG66" s="13"/>
+      <c r="AH66" s="13"/>
+      <c r="AI66" s="13"/>
+      <c r="AJ66" s="13"/>
+      <c r="AK66" s="26"/>
+    </row>
+    <row r="67" spans="1:37" ht="13" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
       <c r="H67" s="10" t="s">
         <v>0</v>
       </c>
@@ -3623,16 +3896,18 @@
       <c r="AF67" s="11"/>
       <c r="AG67" s="11"/>
       <c r="AH67" s="11"/>
-      <c r="AI67" s="12"/>
-    </row>
-    <row r="68" spans="1:35" ht="12" customHeight="1">
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="26"/>
+    </row>
+    <row r="68" spans="1:37" ht="12" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="7" t="s">
         <v>1</v>
       </c>
@@ -3662,16 +3937,18 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
-      <c r="AI68" s="13"/>
-    </row>
-    <row r="69" spans="1:35" ht="12" customHeight="1">
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="26"/>
+    </row>
+    <row r="69" spans="1:37" ht="12" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="7" t="s">
         <v>2</v>
       </c>
@@ -3701,16 +3978,18 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="13"/>
-    </row>
-    <row r="70" spans="1:35" ht="12" customHeight="1">
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="26"/>
+    </row>
+    <row r="70" spans="1:37" ht="12" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="7" t="s">
         <v>3</v>
       </c>
@@ -3740,27 +4019,29 @@
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="13"/>
-    </row>
-    <row r="71" spans="1:35" ht="12" customHeight="1">
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="26"/>
+    </row>
+    <row r="71" spans="1:37" ht="12" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="17" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -3779,55 +4060,59 @@
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
-      <c r="AI71" s="13"/>
-    </row>
-    <row r="72" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="26"/>
+    </row>
+    <row r="72" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="14" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="15"/>
-      <c r="AH72" s="15"/>
-      <c r="AI72" s="16"/>
-    </row>
-    <row r="73" spans="1:35" ht="13" customHeight="1">
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="13"/>
+      <c r="AG72" s="13"/>
+      <c r="AH72" s="13"/>
+      <c r="AI72" s="13"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="26"/>
+    </row>
+    <row r="73" spans="1:37" ht="13" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
       <c r="H73" s="10" t="s">
         <v>0</v>
       </c>
@@ -3857,16 +4142,18 @@
       <c r="AF73" s="11"/>
       <c r="AG73" s="11"/>
       <c r="AH73" s="11"/>
-      <c r="AI73" s="12"/>
-    </row>
-    <row r="74" spans="1:35" ht="12" customHeight="1">
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="26"/>
+    </row>
+    <row r="74" spans="1:37" ht="12" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="7" t="s">
         <v>1</v>
       </c>
@@ -3896,16 +4183,18 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="13"/>
-    </row>
-    <row r="75" spans="1:35" ht="12" customHeight="1">
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="26"/>
+    </row>
+    <row r="75" spans="1:37" ht="12" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="7" t="s">
         <v>2</v>
       </c>
@@ -3935,16 +4224,18 @@
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="13"/>
-    </row>
-    <row r="76" spans="1:35" ht="12" customHeight="1">
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="26"/>
+    </row>
+    <row r="76" spans="1:37" ht="12" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="7" t="s">
         <v>3</v>
       </c>
@@ -3974,27 +4265,29 @@
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="13"/>
-    </row>
-    <row r="77" spans="1:35" ht="12" customHeight="1">
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="26"/>
+    </row>
+    <row r="77" spans="1:37" ht="12" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="17" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -4013,55 +4306,59 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="13"/>
-    </row>
-    <row r="78" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="26"/>
+    </row>
+    <row r="78" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="14" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="15"/>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="16"/>
-    </row>
-    <row r="79" spans="1:35" ht="13" customHeight="1">
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
+      <c r="AC78" s="13"/>
+      <c r="AD78" s="13"/>
+      <c r="AE78" s="13"/>
+      <c r="AF78" s="13"/>
+      <c r="AG78" s="13"/>
+      <c r="AH78" s="13"/>
+      <c r="AI78" s="13"/>
+      <c r="AJ78" s="13"/>
+      <c r="AK78" s="26"/>
+    </row>
+    <row r="79" spans="1:37" ht="13" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
       <c r="H79" s="10" t="s">
         <v>0</v>
       </c>
@@ -4091,16 +4388,18 @@
       <c r="AF79" s="11"/>
       <c r="AG79" s="11"/>
       <c r="AH79" s="11"/>
-      <c r="AI79" s="12"/>
-    </row>
-    <row r="80" spans="1:35" ht="12" customHeight="1">
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="26"/>
+    </row>
+    <row r="80" spans="1:37" ht="12" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="7" t="s">
         <v>1</v>
       </c>
@@ -4130,16 +4429,18 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="13"/>
-    </row>
-    <row r="81" spans="1:35" ht="12" customHeight="1">
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="26"/>
+    </row>
+    <row r="81" spans="1:37" ht="12" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="7" t="s">
         <v>2</v>
       </c>
@@ -4169,16 +4470,18 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
-      <c r="AI81" s="13"/>
-    </row>
-    <row r="82" spans="1:35" ht="12" customHeight="1">
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="26"/>
+    </row>
+    <row r="82" spans="1:37" ht="12" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="7" t="s">
         <v>3</v>
       </c>
@@ -4208,27 +4511,29 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
-      <c r="AI82" s="13"/>
-    </row>
-    <row r="83" spans="1:35" ht="12" customHeight="1">
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="26"/>
+    </row>
+    <row r="83" spans="1:37" ht="12" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="17" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -4247,55 +4552,59 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
-      <c r="AI83" s="13"/>
-    </row>
-    <row r="84" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="26"/>
+    </row>
+    <row r="84" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="14" t="s">
+      <c r="B84" s="24"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
-      <c r="AA84" s="15"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="15"/>
-      <c r="AD84" s="15"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="16"/>
-    </row>
-    <row r="85" spans="1:35" ht="13" customHeight="1">
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="26"/>
+    </row>
+    <row r="85" spans="1:37" ht="13" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
       <c r="H85" s="10" t="s">
         <v>0</v>
       </c>
@@ -4325,16 +4634,18 @@
       <c r="AF85" s="11"/>
       <c r="AG85" s="11"/>
       <c r="AH85" s="11"/>
-      <c r="AI85" s="12"/>
-    </row>
-    <row r="86" spans="1:35" ht="12" customHeight="1">
+      <c r="AI85" s="11"/>
+      <c r="AJ85" s="11"/>
+      <c r="AK85" s="26"/>
+    </row>
+    <row r="86" spans="1:37" ht="12" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="7" t="s">
         <v>1</v>
       </c>
@@ -4364,16 +4675,18 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
-      <c r="AI86" s="13"/>
-    </row>
-    <row r="87" spans="1:35" ht="12" customHeight="1">
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="26"/>
+    </row>
+    <row r="87" spans="1:37" ht="12" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="7" t="s">
         <v>2</v>
       </c>
@@ -4403,16 +4716,18 @@
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
-      <c r="AI87" s="13"/>
-    </row>
-    <row r="88" spans="1:35" ht="12" customHeight="1">
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="26"/>
+    </row>
+    <row r="88" spans="1:37" ht="12" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="7" t="s">
         <v>3</v>
       </c>
@@ -4442,27 +4757,29 @@
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
-      <c r="AI88" s="13"/>
-    </row>
-    <row r="89" spans="1:35" ht="12" customHeight="1">
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="26"/>
+    </row>
+    <row r="89" spans="1:37" ht="12" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="17" t="s">
+      <c r="B89" s="23"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -4481,55 +4798,59 @@
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
-      <c r="AI89" s="13"/>
-    </row>
-    <row r="90" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="26"/>
+    </row>
+    <row r="90" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="14" t="s">
+      <c r="B90" s="24"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
-      <c r="AA90" s="15"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="15"/>
-      <c r="AD90" s="15"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="16"/>
-    </row>
-    <row r="91" spans="1:35" ht="13" customHeight="1">
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="26"/>
+    </row>
+    <row r="91" spans="1:37" ht="13" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
       <c r="H91" s="10" t="s">
         <v>0</v>
       </c>
@@ -4559,16 +4880,18 @@
       <c r="AF91" s="11"/>
       <c r="AG91" s="11"/>
       <c r="AH91" s="11"/>
-      <c r="AI91" s="12"/>
-    </row>
-    <row r="92" spans="1:35" ht="12" customHeight="1">
+      <c r="AI91" s="11"/>
+      <c r="AJ91" s="11"/>
+      <c r="AK91" s="26"/>
+    </row>
+    <row r="92" spans="1:37" ht="12" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="7" t="s">
         <v>1</v>
       </c>
@@ -4598,16 +4921,18 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
-      <c r="AI92" s="13"/>
-    </row>
-    <row r="93" spans="1:35" ht="12" customHeight="1">
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="26"/>
+    </row>
+    <row r="93" spans="1:37" ht="12" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="7" t="s">
         <v>2</v>
       </c>
@@ -4637,16 +4962,18 @@
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
-      <c r="AI93" s="13"/>
-    </row>
-    <row r="94" spans="1:35" ht="12" customHeight="1">
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="26"/>
+    </row>
+    <row r="94" spans="1:37" ht="12" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="7" t="s">
         <v>3</v>
       </c>
@@ -4676,27 +5003,29 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
-      <c r="AI94" s="13"/>
-    </row>
-    <row r="95" spans="1:35" ht="12" customHeight="1">
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="26"/>
+    </row>
+    <row r="95" spans="1:37" ht="12" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="17" t="s">
+      <c r="B95" s="23"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -4715,55 +5044,59 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
-      <c r="AI95" s="13"/>
-    </row>
-    <row r="96" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="26"/>
+    </row>
+    <row r="96" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="14" t="s">
+      <c r="B96" s="24"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
-      <c r="T96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="V96" s="15"/>
-      <c r="W96" s="15"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="15"/>
-      <c r="AA96" s="15"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="15"/>
-      <c r="AD96" s="15"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="16"/>
-    </row>
-    <row r="97" spans="1:35" ht="13" customHeight="1">
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
+      <c r="X96" s="13"/>
+      <c r="Y96" s="13"/>
+      <c r="Z96" s="13"/>
+      <c r="AA96" s="13"/>
+      <c r="AB96" s="13"/>
+      <c r="AC96" s="13"/>
+      <c r="AD96" s="13"/>
+      <c r="AE96" s="13"/>
+      <c r="AF96" s="13"/>
+      <c r="AG96" s="13"/>
+      <c r="AH96" s="13"/>
+      <c r="AI96" s="13"/>
+      <c r="AJ96" s="13"/>
+      <c r="AK96" s="26"/>
+    </row>
+    <row r="97" spans="1:37" ht="13" customHeight="1">
       <c r="A97" s="6"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
       <c r="H97" s="10" t="s">
         <v>0</v>
       </c>
@@ -4793,16 +5126,18 @@
       <c r="AF97" s="11"/>
       <c r="AG97" s="11"/>
       <c r="AH97" s="11"/>
-      <c r="AI97" s="12"/>
-    </row>
-    <row r="98" spans="1:35" ht="12" customHeight="1">
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="11"/>
+      <c r="AK97" s="26"/>
+    </row>
+    <row r="98" spans="1:37" ht="12" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="7" t="s">
         <v>1</v>
       </c>
@@ -4832,16 +5167,18 @@
       <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
-      <c r="AI98" s="13"/>
-    </row>
-    <row r="99" spans="1:35" ht="12" customHeight="1">
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="26"/>
+    </row>
+    <row r="99" spans="1:37" ht="12" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="7" t="s">
         <v>2</v>
       </c>
@@ -4871,16 +5208,18 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
-      <c r="AI99" s="13"/>
-    </row>
-    <row r="100" spans="1:35" ht="12" customHeight="1">
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="26"/>
+    </row>
+    <row r="100" spans="1:37" ht="12" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="7" t="s">
         <v>3</v>
       </c>
@@ -4910,27 +5249,29 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
-      <c r="AI100" s="13"/>
-    </row>
-    <row r="101" spans="1:35" ht="12" customHeight="1">
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="26"/>
+    </row>
+    <row r="101" spans="1:37" ht="12" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="17" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -4949,55 +5290,59 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
-      <c r="AI101" s="13"/>
-    </row>
-    <row r="102" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="26"/>
+    </row>
+    <row r="102" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="14" t="s">
+      <c r="B102" s="24"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
-      <c r="AA102" s="15"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="15"/>
-      <c r="AD102" s="15"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15"/>
-      <c r="AH102" s="15"/>
-      <c r="AI102" s="16"/>
-    </row>
-    <row r="103" spans="1:35" ht="13" customHeight="1">
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="13"/>
+      <c r="AA102" s="13"/>
+      <c r="AB102" s="13"/>
+      <c r="AC102" s="13"/>
+      <c r="AD102" s="13"/>
+      <c r="AE102" s="13"/>
+      <c r="AF102" s="13"/>
+      <c r="AG102" s="13"/>
+      <c r="AH102" s="13"/>
+      <c r="AI102" s="13"/>
+      <c r="AJ102" s="13"/>
+      <c r="AK102" s="26"/>
+    </row>
+    <row r="103" spans="1:37" ht="13" customHeight="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
       <c r="H103" s="10" t="s">
         <v>0</v>
       </c>
@@ -5027,16 +5372,18 @@
       <c r="AF103" s="11"/>
       <c r="AG103" s="11"/>
       <c r="AH103" s="11"/>
-      <c r="AI103" s="12"/>
-    </row>
-    <row r="104" spans="1:35" ht="12" customHeight="1">
+      <c r="AI103" s="11"/>
+      <c r="AJ103" s="11"/>
+      <c r="AK103" s="26"/>
+    </row>
+    <row r="104" spans="1:37" ht="12" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
       <c r="H104" s="7" t="s">
         <v>1</v>
       </c>
@@ -5066,16 +5413,18 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
-      <c r="AI104" s="13"/>
-    </row>
-    <row r="105" spans="1:35" ht="12" customHeight="1">
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="26"/>
+    </row>
+    <row r="105" spans="1:37" ht="12" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="7" t="s">
         <v>2</v>
       </c>
@@ -5105,16 +5454,18 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
-      <c r="AI105" s="13"/>
-    </row>
-    <row r="106" spans="1:35" ht="12" customHeight="1">
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="26"/>
+    </row>
+    <row r="106" spans="1:37" ht="12" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
       <c r="H106" s="7" t="s">
         <v>3</v>
       </c>
@@ -5144,27 +5495,29 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
-      <c r="AI106" s="13"/>
-    </row>
-    <row r="107" spans="1:35" ht="12" customHeight="1">
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="26"/>
+    </row>
+    <row r="107" spans="1:37" ht="12" customHeight="1">
       <c r="A107" s="6"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="17" t="s">
+      <c r="B107" s="23"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -5183,55 +5536,59 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
-      <c r="AI107" s="13"/>
-    </row>
-    <row r="108" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="26"/>
+    </row>
+    <row r="108" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A108" s="6"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="14" t="s">
+      <c r="B108" s="24"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
-      <c r="U108" s="15"/>
-      <c r="V108" s="15"/>
-      <c r="W108" s="15"/>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="15"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="15"/>
-      <c r="AD108" s="15"/>
-      <c r="AE108" s="15"/>
-      <c r="AF108" s="15"/>
-      <c r="AG108" s="15"/>
-      <c r="AH108" s="15"/>
-      <c r="AI108" s="16"/>
-    </row>
-    <row r="109" spans="1:35" ht="13" customHeight="1">
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="13"/>
+      <c r="X108" s="13"/>
+      <c r="Y108" s="13"/>
+      <c r="Z108" s="13"/>
+      <c r="AA108" s="13"/>
+      <c r="AB108" s="13"/>
+      <c r="AC108" s="13"/>
+      <c r="AD108" s="13"/>
+      <c r="AE108" s="13"/>
+      <c r="AF108" s="13"/>
+      <c r="AG108" s="13"/>
+      <c r="AH108" s="13"/>
+      <c r="AI108" s="13"/>
+      <c r="AJ108" s="13"/>
+      <c r="AK108" s="26"/>
+    </row>
+    <row r="109" spans="1:37" ht="13" customHeight="1">
       <c r="A109" s="6"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
       <c r="H109" s="10" t="s">
         <v>0</v>
       </c>
@@ -5261,16 +5618,18 @@
       <c r="AF109" s="11"/>
       <c r="AG109" s="11"/>
       <c r="AH109" s="11"/>
-      <c r="AI109" s="12"/>
-    </row>
-    <row r="110" spans="1:35" ht="12" customHeight="1">
+      <c r="AI109" s="11"/>
+      <c r="AJ109" s="11"/>
+      <c r="AK109" s="26"/>
+    </row>
+    <row r="110" spans="1:37" ht="12" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
       <c r="H110" s="7" t="s">
         <v>1</v>
       </c>
@@ -5300,16 +5659,18 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
-      <c r="AI110" s="13"/>
-    </row>
-    <row r="111" spans="1:35" ht="12" customHeight="1">
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="26"/>
+    </row>
+    <row r="111" spans="1:37" ht="12" customHeight="1">
       <c r="A111" s="6"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
       <c r="H111" s="7" t="s">
         <v>2</v>
       </c>
@@ -5339,16 +5700,18 @@
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
-      <c r="AI111" s="13"/>
-    </row>
-    <row r="112" spans="1:35" ht="12" customHeight="1">
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="26"/>
+    </row>
+    <row r="112" spans="1:37" ht="12" customHeight="1">
       <c r="A112" s="6"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
       <c r="H112" s="7" t="s">
         <v>3</v>
       </c>
@@ -5378,27 +5741,29 @@
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
-      <c r="AI112" s="13"/>
-    </row>
-    <row r="113" spans="1:35" ht="12" customHeight="1">
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="26"/>
+    </row>
+    <row r="113" spans="1:37" ht="12" customHeight="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="17" t="s">
+      <c r="B113" s="23"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -5417,55 +5782,59 @@
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
-      <c r="AI113" s="13"/>
-    </row>
-    <row r="114" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="26"/>
+    </row>
+    <row r="114" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A114" s="6"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="14" t="s">
+      <c r="B114" s="24"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="15"/>
-      <c r="S114" s="15"/>
-      <c r="T114" s="15"/>
-      <c r="U114" s="15"/>
-      <c r="V114" s="15"/>
-      <c r="W114" s="15"/>
-      <c r="X114" s="15"/>
-      <c r="Y114" s="15"/>
-      <c r="Z114" s="15"/>
-      <c r="AA114" s="15"/>
-      <c r="AB114" s="15"/>
-      <c r="AC114" s="15"/>
-      <c r="AD114" s="15"/>
-      <c r="AE114" s="15"/>
-      <c r="AF114" s="15"/>
-      <c r="AG114" s="15"/>
-      <c r="AH114" s="15"/>
-      <c r="AI114" s="16"/>
-    </row>
-    <row r="115" spans="1:35" ht="13" customHeight="1">
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="13"/>
+      <c r="V114" s="13"/>
+      <c r="W114" s="13"/>
+      <c r="X114" s="13"/>
+      <c r="Y114" s="13"/>
+      <c r="Z114" s="13"/>
+      <c r="AA114" s="13"/>
+      <c r="AB114" s="13"/>
+      <c r="AC114" s="13"/>
+      <c r="AD114" s="13"/>
+      <c r="AE114" s="13"/>
+      <c r="AF114" s="13"/>
+      <c r="AG114" s="13"/>
+      <c r="AH114" s="13"/>
+      <c r="AI114" s="13"/>
+      <c r="AJ114" s="13"/>
+      <c r="AK114" s="26"/>
+    </row>
+    <row r="115" spans="1:37" ht="13" customHeight="1">
       <c r="A115" s="6"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
       <c r="H115" s="10" t="s">
         <v>0</v>
       </c>
@@ -5495,16 +5864,18 @@
       <c r="AF115" s="11"/>
       <c r="AG115" s="11"/>
       <c r="AH115" s="11"/>
-      <c r="AI115" s="12"/>
-    </row>
-    <row r="116" spans="1:35" ht="12" customHeight="1">
+      <c r="AI115" s="11"/>
+      <c r="AJ115" s="11"/>
+      <c r="AK115" s="26"/>
+    </row>
+    <row r="116" spans="1:37" ht="12" customHeight="1">
       <c r="A116" s="6"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
       <c r="H116" s="7" t="s">
         <v>1</v>
       </c>
@@ -5534,16 +5905,18 @@
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
-      <c r="AI116" s="13"/>
-    </row>
-    <row r="117" spans="1:35" ht="12" customHeight="1">
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="26"/>
+    </row>
+    <row r="117" spans="1:37" ht="12" customHeight="1">
       <c r="A117" s="6"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
       <c r="H117" s="7" t="s">
         <v>2</v>
       </c>
@@ -5573,16 +5946,18 @@
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
-      <c r="AI117" s="13"/>
-    </row>
-    <row r="118" spans="1:35" ht="12" customHeight="1">
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="26"/>
+    </row>
+    <row r="118" spans="1:37" ht="12" customHeight="1">
       <c r="A118" s="6"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
       <c r="H118" s="7" t="s">
         <v>3</v>
       </c>
@@ -5612,27 +5987,29 @@
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
-      <c r="AI118" s="13"/>
-    </row>
-    <row r="119" spans="1:35" ht="12" customHeight="1">
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="26"/>
+    </row>
+    <row r="119" spans="1:37" ht="12" customHeight="1">
       <c r="A119" s="6"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="17" t="s">
+      <c r="B119" s="23"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -5651,55 +6028,59 @@
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
-      <c r="AI119" s="13"/>
-    </row>
-    <row r="120" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="26"/>
+    </row>
+    <row r="120" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A120" s="6"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="14" t="s">
+      <c r="B120" s="24"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="15"/>
-      <c r="R120" s="15"/>
-      <c r="S120" s="15"/>
-      <c r="T120" s="15"/>
-      <c r="U120" s="15"/>
-      <c r="V120" s="15"/>
-      <c r="W120" s="15"/>
-      <c r="X120" s="15"/>
-      <c r="Y120" s="15"/>
-      <c r="Z120" s="15"/>
-      <c r="AA120" s="15"/>
-      <c r="AB120" s="15"/>
-      <c r="AC120" s="15"/>
-      <c r="AD120" s="15"/>
-      <c r="AE120" s="15"/>
-      <c r="AF120" s="15"/>
-      <c r="AG120" s="15"/>
-      <c r="AH120" s="15"/>
-      <c r="AI120" s="16"/>
-    </row>
-    <row r="121" spans="1:35" ht="13" customHeight="1">
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13"/>
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13"/>
+      <c r="AA120" s="13"/>
+      <c r="AB120" s="13"/>
+      <c r="AC120" s="13"/>
+      <c r="AD120" s="13"/>
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
+      <c r="AG120" s="13"/>
+      <c r="AH120" s="13"/>
+      <c r="AI120" s="13"/>
+      <c r="AJ120" s="13"/>
+      <c r="AK120" s="26"/>
+    </row>
+    <row r="121" spans="1:37" ht="13" customHeight="1">
       <c r="A121" s="6"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
       <c r="H121" s="10" t="s">
         <v>0</v>
       </c>
@@ -5729,16 +6110,18 @@
       <c r="AF121" s="11"/>
       <c r="AG121" s="11"/>
       <c r="AH121" s="11"/>
-      <c r="AI121" s="12"/>
-    </row>
-    <row r="122" spans="1:35" ht="12" customHeight="1">
+      <c r="AI121" s="11"/>
+      <c r="AJ121" s="11"/>
+      <c r="AK121" s="26"/>
+    </row>
+    <row r="122" spans="1:37" ht="12" customHeight="1">
       <c r="A122" s="6"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
       <c r="H122" s="7" t="s">
         <v>1</v>
       </c>
@@ -5768,16 +6151,18 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
-      <c r="AI122" s="13"/>
-    </row>
-    <row r="123" spans="1:35" ht="12" customHeight="1">
+      <c r="AI122" s="1"/>
+      <c r="AJ122" s="1"/>
+      <c r="AK122" s="26"/>
+    </row>
+    <row r="123" spans="1:37" ht="12" customHeight="1">
       <c r="A123" s="6"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
       <c r="H123" s="7" t="s">
         <v>2</v>
       </c>
@@ -5807,16 +6192,18 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
-      <c r="AI123" s="13"/>
-    </row>
-    <row r="124" spans="1:35" ht="12" customHeight="1">
+      <c r="AI123" s="1"/>
+      <c r="AJ123" s="1"/>
+      <c r="AK123" s="26"/>
+    </row>
+    <row r="124" spans="1:37" ht="12" customHeight="1">
       <c r="A124" s="6"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
       <c r="H124" s="7" t="s">
         <v>3</v>
       </c>
@@ -5846,27 +6233,29 @@
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
-      <c r="AI124" s="13"/>
-    </row>
-    <row r="125" spans="1:35" ht="12" customHeight="1">
+      <c r="AI124" s="1"/>
+      <c r="AJ124" s="1"/>
+      <c r="AK124" s="26"/>
+    </row>
+    <row r="125" spans="1:37" ht="12" customHeight="1">
       <c r="A125" s="6"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="17" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -5885,55 +6274,59 @@
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
-      <c r="AI125" s="13"/>
-    </row>
-    <row r="126" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI125" s="1"/>
+      <c r="AJ125" s="1"/>
+      <c r="AK125" s="26"/>
+    </row>
+    <row r="126" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A126" s="6"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="14" t="s">
+      <c r="B126" s="24"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="15"/>
-      <c r="S126" s="15"/>
-      <c r="T126" s="15"/>
-      <c r="U126" s="15"/>
-      <c r="V126" s="15"/>
-      <c r="W126" s="15"/>
-      <c r="X126" s="15"/>
-      <c r="Y126" s="15"/>
-      <c r="Z126" s="15"/>
-      <c r="AA126" s="15"/>
-      <c r="AB126" s="15"/>
-      <c r="AC126" s="15"/>
-      <c r="AD126" s="15"/>
-      <c r="AE126" s="15"/>
-      <c r="AF126" s="15"/>
-      <c r="AG126" s="15"/>
-      <c r="AH126" s="15"/>
-      <c r="AI126" s="16"/>
-    </row>
-    <row r="127" spans="1:35" ht="13" customHeight="1">
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="13"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="13"/>
+      <c r="T126" s="13"/>
+      <c r="U126" s="13"/>
+      <c r="V126" s="13"/>
+      <c r="W126" s="13"/>
+      <c r="X126" s="13"/>
+      <c r="Y126" s="13"/>
+      <c r="Z126" s="13"/>
+      <c r="AA126" s="13"/>
+      <c r="AB126" s="13"/>
+      <c r="AC126" s="13"/>
+      <c r="AD126" s="13"/>
+      <c r="AE126" s="13"/>
+      <c r="AF126" s="13"/>
+      <c r="AG126" s="13"/>
+      <c r="AH126" s="13"/>
+      <c r="AI126" s="13"/>
+      <c r="AJ126" s="13"/>
+      <c r="AK126" s="26"/>
+    </row>
+    <row r="127" spans="1:37" ht="13" customHeight="1">
       <c r="A127" s="6"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
       <c r="H127" s="10" t="s">
         <v>0</v>
       </c>
@@ -5963,16 +6356,18 @@
       <c r="AF127" s="11"/>
       <c r="AG127" s="11"/>
       <c r="AH127" s="11"/>
-      <c r="AI127" s="12"/>
-    </row>
-    <row r="128" spans="1:35" ht="12" customHeight="1">
+      <c r="AI127" s="11"/>
+      <c r="AJ127" s="11"/>
+      <c r="AK127" s="26"/>
+    </row>
+    <row r="128" spans="1:37" ht="12" customHeight="1">
       <c r="A128" s="6"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
       <c r="H128" s="7" t="s">
         <v>1</v>
       </c>
@@ -6002,16 +6397,18 @@
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
-      <c r="AI128" s="13"/>
-    </row>
-    <row r="129" spans="1:35" ht="12" customHeight="1">
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="1"/>
+      <c r="AK128" s="26"/>
+    </row>
+    <row r="129" spans="1:37" ht="12" customHeight="1">
       <c r="A129" s="6"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
       <c r="H129" s="7" t="s">
         <v>2</v>
       </c>
@@ -6041,16 +6438,18 @@
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
-      <c r="AI129" s="13"/>
-    </row>
-    <row r="130" spans="1:35" ht="12" customHeight="1">
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="26"/>
+    </row>
+    <row r="130" spans="1:37" ht="12" customHeight="1">
       <c r="A130" s="6"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
       <c r="H130" s="7" t="s">
         <v>3</v>
       </c>
@@ -6080,27 +6479,29 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="13"/>
-    </row>
-    <row r="131" spans="1:35" ht="12" customHeight="1">
+      <c r="AI130" s="1"/>
+      <c r="AJ130" s="1"/>
+      <c r="AK130" s="26"/>
+    </row>
+    <row r="131" spans="1:37" ht="12" customHeight="1">
       <c r="A131" s="6"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="17" t="s">
+      <c r="B131" s="23"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="18"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
@@ -6119,55 +6520,59 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
-      <c r="AI131" s="13"/>
-    </row>
-    <row r="132" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="26"/>
+    </row>
+    <row r="132" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A132" s="6"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="14" t="s">
+      <c r="B132" s="24"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
-      <c r="P132" s="15"/>
-      <c r="Q132" s="15"/>
-      <c r="R132" s="15"/>
-      <c r="S132" s="15"/>
-      <c r="T132" s="15"/>
-      <c r="U132" s="15"/>
-      <c r="V132" s="15"/>
-      <c r="W132" s="15"/>
-      <c r="X132" s="15"/>
-      <c r="Y132" s="15"/>
-      <c r="Z132" s="15"/>
-      <c r="AA132" s="15"/>
-      <c r="AB132" s="15"/>
-      <c r="AC132" s="15"/>
-      <c r="AD132" s="15"/>
-      <c r="AE132" s="15"/>
-      <c r="AF132" s="15"/>
-      <c r="AG132" s="15"/>
-      <c r="AH132" s="15"/>
-      <c r="AI132" s="16"/>
-    </row>
-    <row r="133" spans="1:35" ht="13" customHeight="1">
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+      <c r="P132" s="13"/>
+      <c r="Q132" s="13"/>
+      <c r="R132" s="13"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="13"/>
+      <c r="U132" s="13"/>
+      <c r="V132" s="13"/>
+      <c r="W132" s="13"/>
+      <c r="X132" s="13"/>
+      <c r="Y132" s="13"/>
+      <c r="Z132" s="13"/>
+      <c r="AA132" s="13"/>
+      <c r="AB132" s="13"/>
+      <c r="AC132" s="13"/>
+      <c r="AD132" s="13"/>
+      <c r="AE132" s="13"/>
+      <c r="AF132" s="13"/>
+      <c r="AG132" s="13"/>
+      <c r="AH132" s="13"/>
+      <c r="AI132" s="13"/>
+      <c r="AJ132" s="13"/>
+      <c r="AK132" s="26"/>
+    </row>
+    <row r="133" spans="1:37" ht="13" customHeight="1">
       <c r="A133" s="6"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
       <c r="H133" s="10" t="s">
         <v>0</v>
       </c>
@@ -6197,16 +6602,18 @@
       <c r="AF133" s="11"/>
       <c r="AG133" s="11"/>
       <c r="AH133" s="11"/>
-      <c r="AI133" s="12"/>
-    </row>
-    <row r="134" spans="1:35" ht="12" customHeight="1">
+      <c r="AI133" s="11"/>
+      <c r="AJ133" s="11"/>
+      <c r="AK133" s="26"/>
+    </row>
+    <row r="134" spans="1:37" ht="12" customHeight="1">
       <c r="A134" s="6"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
       <c r="H134" s="7" t="s">
         <v>1</v>
       </c>
@@ -6236,16 +6643,18 @@
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
       <c r="AH134" s="1"/>
-      <c r="AI134" s="13"/>
-    </row>
-    <row r="135" spans="1:35" ht="12" customHeight="1">
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="26"/>
+    </row>
+    <row r="135" spans="1:37" ht="12" customHeight="1">
       <c r="A135" s="6"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
       <c r="H135" s="7" t="s">
         <v>2</v>
       </c>
@@ -6275,16 +6684,18 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
-      <c r="AI135" s="13"/>
-    </row>
-    <row r="136" spans="1:35" ht="12" customHeight="1">
+      <c r="AI135" s="1"/>
+      <c r="AJ135" s="1"/>
+      <c r="AK135" s="26"/>
+    </row>
+    <row r="136" spans="1:37" ht="12" customHeight="1">
       <c r="A136" s="6"/>
-      <c r="B136" s="28"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
       <c r="H136" s="7" t="s">
         <v>3</v>
       </c>
@@ -6314,27 +6725,29 @@
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
-      <c r="AI136" s="13"/>
-    </row>
-    <row r="137" spans="1:35" ht="12" customHeight="1">
+      <c r="AI136" s="1"/>
+      <c r="AJ136" s="1"/>
+      <c r="AK136" s="26"/>
+    </row>
+    <row r="137" spans="1:37" ht="12" customHeight="1">
       <c r="A137" s="6"/>
-      <c r="B137" s="28"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="17" t="s">
+      <c r="B137" s="23"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
@@ -6353,55 +6766,59 @@
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
-      <c r="AI137" s="13"/>
-    </row>
-    <row r="138" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="26"/>
+    </row>
+    <row r="138" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A138" s="6"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="14" t="s">
+      <c r="B138" s="24"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-      <c r="S138" s="15"/>
-      <c r="T138" s="15"/>
-      <c r="U138" s="15"/>
-      <c r="V138" s="15"/>
-      <c r="W138" s="15"/>
-      <c r="X138" s="15"/>
-      <c r="Y138" s="15"/>
-      <c r="Z138" s="15"/>
-      <c r="AA138" s="15"/>
-      <c r="AB138" s="15"/>
-      <c r="AC138" s="15"/>
-      <c r="AD138" s="15"/>
-      <c r="AE138" s="15"/>
-      <c r="AF138" s="15"/>
-      <c r="AG138" s="15"/>
-      <c r="AH138" s="15"/>
-      <c r="AI138" s="16"/>
-    </row>
-    <row r="139" spans="1:35" ht="13" customHeight="1">
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="13"/>
+      <c r="R138" s="13"/>
+      <c r="S138" s="13"/>
+      <c r="T138" s="13"/>
+      <c r="U138" s="13"/>
+      <c r="V138" s="13"/>
+      <c r="W138" s="13"/>
+      <c r="X138" s="13"/>
+      <c r="Y138" s="13"/>
+      <c r="Z138" s="13"/>
+      <c r="AA138" s="13"/>
+      <c r="AB138" s="13"/>
+      <c r="AC138" s="13"/>
+      <c r="AD138" s="13"/>
+      <c r="AE138" s="13"/>
+      <c r="AF138" s="13"/>
+      <c r="AG138" s="13"/>
+      <c r="AH138" s="13"/>
+      <c r="AI138" s="13"/>
+      <c r="AJ138" s="13"/>
+      <c r="AK138" s="26"/>
+    </row>
+    <row r="139" spans="1:37" ht="13" customHeight="1">
       <c r="A139" s="6"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
       <c r="H139" s="10" t="s">
         <v>0</v>
       </c>
@@ -6431,16 +6848,18 @@
       <c r="AF139" s="11"/>
       <c r="AG139" s="11"/>
       <c r="AH139" s="11"/>
-      <c r="AI139" s="12"/>
-    </row>
-    <row r="140" spans="1:35" ht="12" customHeight="1">
+      <c r="AI139" s="11"/>
+      <c r="AJ139" s="11"/>
+      <c r="AK139" s="26"/>
+    </row>
+    <row r="140" spans="1:37" ht="12" customHeight="1">
       <c r="A140" s="6"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
       <c r="H140" s="7" t="s">
         <v>1</v>
       </c>
@@ -6470,16 +6889,18 @@
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
-      <c r="AI140" s="13"/>
-    </row>
-    <row r="141" spans="1:35" ht="12" customHeight="1">
+      <c r="AI140" s="1"/>
+      <c r="AJ140" s="1"/>
+      <c r="AK140" s="26"/>
+    </row>
+    <row r="141" spans="1:37" ht="12" customHeight="1">
       <c r="A141" s="6"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
       <c r="H141" s="7" t="s">
         <v>2</v>
       </c>
@@ -6509,16 +6930,18 @@
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
       <c r="AH141" s="1"/>
-      <c r="AI141" s="13"/>
-    </row>
-    <row r="142" spans="1:35" ht="12" customHeight="1">
+      <c r="AI141" s="1"/>
+      <c r="AJ141" s="1"/>
+      <c r="AK141" s="26"/>
+    </row>
+    <row r="142" spans="1:37" ht="12" customHeight="1">
       <c r="A142" s="6"/>
-      <c r="B142" s="28"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
       <c r="H142" s="7" t="s">
         <v>3</v>
       </c>
@@ -6548,27 +6971,29 @@
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
       <c r="AH142" s="1"/>
-      <c r="AI142" s="13"/>
-    </row>
-    <row r="143" spans="1:35" ht="12" customHeight="1">
+      <c r="AI142" s="1"/>
+      <c r="AJ142" s="1"/>
+      <c r="AK142" s="26"/>
+    </row>
+    <row r="143" spans="1:37" ht="12" customHeight="1">
       <c r="A143" s="6"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="17" t="s">
+      <c r="B143" s="23"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
-      <c r="P143" s="18"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
@@ -6587,55 +7012,59 @@
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
       <c r="AH143" s="1"/>
-      <c r="AI143" s="13"/>
-    </row>
-    <row r="144" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI143" s="1"/>
+      <c r="AJ143" s="1"/>
+      <c r="AK143" s="26"/>
+    </row>
+    <row r="144" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A144" s="6"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="14" t="s">
+      <c r="B144" s="24"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
-      <c r="O144" s="15"/>
-      <c r="P144" s="15"/>
-      <c r="Q144" s="15"/>
-      <c r="R144" s="15"/>
-      <c r="S144" s="15"/>
-      <c r="T144" s="15"/>
-      <c r="U144" s="15"/>
-      <c r="V144" s="15"/>
-      <c r="W144" s="15"/>
-      <c r="X144" s="15"/>
-      <c r="Y144" s="15"/>
-      <c r="Z144" s="15"/>
-      <c r="AA144" s="15"/>
-      <c r="AB144" s="15"/>
-      <c r="AC144" s="15"/>
-      <c r="AD144" s="15"/>
-      <c r="AE144" s="15"/>
-      <c r="AF144" s="15"/>
-      <c r="AG144" s="15"/>
-      <c r="AH144" s="15"/>
-      <c r="AI144" s="16"/>
-    </row>
-    <row r="145" spans="1:35" ht="13" customHeight="1">
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="13"/>
+      <c r="Q144" s="13"/>
+      <c r="R144" s="13"/>
+      <c r="S144" s="13"/>
+      <c r="T144" s="13"/>
+      <c r="U144" s="13"/>
+      <c r="V144" s="13"/>
+      <c r="W144" s="13"/>
+      <c r="X144" s="13"/>
+      <c r="Y144" s="13"/>
+      <c r="Z144" s="13"/>
+      <c r="AA144" s="13"/>
+      <c r="AB144" s="13"/>
+      <c r="AC144" s="13"/>
+      <c r="AD144" s="13"/>
+      <c r="AE144" s="13"/>
+      <c r="AF144" s="13"/>
+      <c r="AG144" s="13"/>
+      <c r="AH144" s="13"/>
+      <c r="AI144" s="13"/>
+      <c r="AJ144" s="13"/>
+      <c r="AK144" s="26"/>
+    </row>
+    <row r="145" spans="1:37" ht="13" customHeight="1">
       <c r="A145" s="6"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
       <c r="H145" s="10" t="s">
         <v>0</v>
       </c>
@@ -6665,16 +7094,18 @@
       <c r="AF145" s="11"/>
       <c r="AG145" s="11"/>
       <c r="AH145" s="11"/>
-      <c r="AI145" s="12"/>
-    </row>
-    <row r="146" spans="1:35" ht="12" customHeight="1">
+      <c r="AI145" s="11"/>
+      <c r="AJ145" s="11"/>
+      <c r="AK145" s="26"/>
+    </row>
+    <row r="146" spans="1:37" ht="12" customHeight="1">
       <c r="A146" s="6"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
       <c r="H146" s="7" t="s">
         <v>1</v>
       </c>
@@ -6704,16 +7135,18 @@
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
-      <c r="AI146" s="13"/>
-    </row>
-    <row r="147" spans="1:35" ht="12" customHeight="1">
+      <c r="AI146" s="1"/>
+      <c r="AJ146" s="1"/>
+      <c r="AK146" s="26"/>
+    </row>
+    <row r="147" spans="1:37" ht="12" customHeight="1">
       <c r="A147" s="6"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
       <c r="H147" s="7" t="s">
         <v>2</v>
       </c>
@@ -6743,16 +7176,18 @@
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
-      <c r="AI147" s="13"/>
-    </row>
-    <row r="148" spans="1:35" ht="12" customHeight="1">
+      <c r="AI147" s="1"/>
+      <c r="AJ147" s="1"/>
+      <c r="AK147" s="26"/>
+    </row>
+    <row r="148" spans="1:37" ht="12" customHeight="1">
       <c r="A148" s="6"/>
-      <c r="B148" s="28"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
       <c r="H148" s="7" t="s">
         <v>3</v>
       </c>
@@ -6782,27 +7217,29 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
-      <c r="AI148" s="13"/>
-    </row>
-    <row r="149" spans="1:35" ht="12" customHeight="1">
+      <c r="AI148" s="1"/>
+      <c r="AJ148" s="1"/>
+      <c r="AK148" s="26"/>
+    </row>
+    <row r="149" spans="1:37" ht="12" customHeight="1">
       <c r="A149" s="6"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="17" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
-      <c r="P149" s="18"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
@@ -6821,55 +7258,59 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
-      <c r="AI149" s="13"/>
-    </row>
-    <row r="150" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI149" s="1"/>
+      <c r="AJ149" s="1"/>
+      <c r="AK149" s="26"/>
+    </row>
+    <row r="150" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A150" s="6"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="31"/>
-      <c r="H150" s="14" t="s">
+      <c r="B150" s="24"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="15"/>
-      <c r="P150" s="15"/>
-      <c r="Q150" s="15"/>
-      <c r="R150" s="15"/>
-      <c r="S150" s="15"/>
-      <c r="T150" s="15"/>
-      <c r="U150" s="15"/>
-      <c r="V150" s="15"/>
-      <c r="W150" s="15"/>
-      <c r="X150" s="15"/>
-      <c r="Y150" s="15"/>
-      <c r="Z150" s="15"/>
-      <c r="AA150" s="15"/>
-      <c r="AB150" s="15"/>
-      <c r="AC150" s="15"/>
-      <c r="AD150" s="15"/>
-      <c r="AE150" s="15"/>
-      <c r="AF150" s="15"/>
-      <c r="AG150" s="15"/>
-      <c r="AH150" s="15"/>
-      <c r="AI150" s="16"/>
-    </row>
-    <row r="151" spans="1:35" ht="13" customHeight="1">
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="13"/>
+      <c r="S150" s="13"/>
+      <c r="T150" s="13"/>
+      <c r="U150" s="13"/>
+      <c r="V150" s="13"/>
+      <c r="W150" s="13"/>
+      <c r="X150" s="13"/>
+      <c r="Y150" s="13"/>
+      <c r="Z150" s="13"/>
+      <c r="AA150" s="13"/>
+      <c r="AB150" s="13"/>
+      <c r="AC150" s="13"/>
+      <c r="AD150" s="13"/>
+      <c r="AE150" s="13"/>
+      <c r="AF150" s="13"/>
+      <c r="AG150" s="13"/>
+      <c r="AH150" s="13"/>
+      <c r="AI150" s="13"/>
+      <c r="AJ150" s="13"/>
+      <c r="AK150" s="26"/>
+    </row>
+    <row r="151" spans="1:37" ht="13" customHeight="1">
       <c r="A151" s="6"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
       <c r="H151" s="10" t="s">
         <v>0</v>
       </c>
@@ -6899,16 +7340,18 @@
       <c r="AF151" s="11"/>
       <c r="AG151" s="11"/>
       <c r="AH151" s="11"/>
-      <c r="AI151" s="12"/>
-    </row>
-    <row r="152" spans="1:35" ht="12" customHeight="1">
+      <c r="AI151" s="11"/>
+      <c r="AJ151" s="11"/>
+      <c r="AK151" s="26"/>
+    </row>
+    <row r="152" spans="1:37" ht="12" customHeight="1">
       <c r="A152" s="6"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
       <c r="H152" s="7" t="s">
         <v>1</v>
       </c>
@@ -6938,16 +7381,18 @@
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
       <c r="AH152" s="1"/>
-      <c r="AI152" s="13"/>
-    </row>
-    <row r="153" spans="1:35" ht="12" customHeight="1">
+      <c r="AI152" s="1"/>
+      <c r="AJ152" s="1"/>
+      <c r="AK152" s="26"/>
+    </row>
+    <row r="153" spans="1:37" ht="12" customHeight="1">
       <c r="A153" s="6"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
       <c r="H153" s="7" t="s">
         <v>2</v>
       </c>
@@ -6977,16 +7422,18 @@
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
       <c r="AH153" s="1"/>
-      <c r="AI153" s="13"/>
-    </row>
-    <row r="154" spans="1:35" ht="12" customHeight="1">
+      <c r="AI153" s="1"/>
+      <c r="AJ153" s="1"/>
+      <c r="AK153" s="26"/>
+    </row>
+    <row r="154" spans="1:37" ht="12" customHeight="1">
       <c r="A154" s="6"/>
-      <c r="B154" s="28"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
       <c r="H154" s="7" t="s">
         <v>3</v>
       </c>
@@ -7016,27 +7463,29 @@
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
-      <c r="AI154" s="13"/>
-    </row>
-    <row r="155" spans="1:35" ht="12" customHeight="1">
+      <c r="AI154" s="1"/>
+      <c r="AJ154" s="1"/>
+      <c r="AK154" s="26"/>
+    </row>
+    <row r="155" spans="1:37" ht="12" customHeight="1">
       <c r="A155" s="6"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="17" t="s">
+      <c r="B155" s="23"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="15"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
@@ -7055,55 +7504,59 @@
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
-      <c r="AI155" s="13"/>
-    </row>
-    <row r="156" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI155" s="1"/>
+      <c r="AJ155" s="1"/>
+      <c r="AK155" s="26"/>
+    </row>
+    <row r="156" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A156" s="6"/>
-      <c r="B156" s="30"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="14" t="s">
+      <c r="B156" s="24"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-      <c r="N156" s="15"/>
-      <c r="O156" s="15"/>
-      <c r="P156" s="15"/>
-      <c r="Q156" s="15"/>
-      <c r="R156" s="15"/>
-      <c r="S156" s="15"/>
-      <c r="T156" s="15"/>
-      <c r="U156" s="15"/>
-      <c r="V156" s="15"/>
-      <c r="W156" s="15"/>
-      <c r="X156" s="15"/>
-      <c r="Y156" s="15"/>
-      <c r="Z156" s="15"/>
-      <c r="AA156" s="15"/>
-      <c r="AB156" s="15"/>
-      <c r="AC156" s="15"/>
-      <c r="AD156" s="15"/>
-      <c r="AE156" s="15"/>
-      <c r="AF156" s="15"/>
-      <c r="AG156" s="15"/>
-      <c r="AH156" s="15"/>
-      <c r="AI156" s="16"/>
-    </row>
-    <row r="157" spans="1:35" ht="13" customHeight="1">
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="13"/>
+      <c r="R156" s="13"/>
+      <c r="S156" s="13"/>
+      <c r="T156" s="13"/>
+      <c r="U156" s="13"/>
+      <c r="V156" s="13"/>
+      <c r="W156" s="13"/>
+      <c r="X156" s="13"/>
+      <c r="Y156" s="13"/>
+      <c r="Z156" s="13"/>
+      <c r="AA156" s="13"/>
+      <c r="AB156" s="13"/>
+      <c r="AC156" s="13"/>
+      <c r="AD156" s="13"/>
+      <c r="AE156" s="13"/>
+      <c r="AF156" s="13"/>
+      <c r="AG156" s="13"/>
+      <c r="AH156" s="13"/>
+      <c r="AI156" s="13"/>
+      <c r="AJ156" s="13"/>
+      <c r="AK156" s="26"/>
+    </row>
+    <row r="157" spans="1:37" ht="13" customHeight="1">
       <c r="A157" s="6"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="27"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
       <c r="H157" s="10" t="s">
         <v>0</v>
       </c>
@@ -7133,16 +7586,18 @@
       <c r="AF157" s="11"/>
       <c r="AG157" s="11"/>
       <c r="AH157" s="11"/>
-      <c r="AI157" s="12"/>
-    </row>
-    <row r="158" spans="1:35" ht="12" customHeight="1">
+      <c r="AI157" s="11"/>
+      <c r="AJ157" s="11"/>
+      <c r="AK157" s="26"/>
+    </row>
+    <row r="158" spans="1:37" ht="12" customHeight="1">
       <c r="A158" s="6"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
       <c r="H158" s="7" t="s">
         <v>1</v>
       </c>
@@ -7172,16 +7627,18 @@
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
-      <c r="AI158" s="13"/>
-    </row>
-    <row r="159" spans="1:35" ht="12" customHeight="1">
+      <c r="AI158" s="1"/>
+      <c r="AJ158" s="1"/>
+      <c r="AK158" s="26"/>
+    </row>
+    <row r="159" spans="1:37" ht="12" customHeight="1">
       <c r="A159" s="6"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
       <c r="H159" s="7" t="s">
         <v>2</v>
       </c>
@@ -7211,16 +7668,18 @@
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
-      <c r="AI159" s="13"/>
-    </row>
-    <row r="160" spans="1:35" ht="12" customHeight="1">
+      <c r="AI159" s="1"/>
+      <c r="AJ159" s="1"/>
+      <c r="AK159" s="26"/>
+    </row>
+    <row r="160" spans="1:37" ht="12" customHeight="1">
       <c r="A160" s="6"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
       <c r="H160" s="7" t="s">
         <v>3</v>
       </c>
@@ -7250,27 +7709,29 @@
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
-      <c r="AI160" s="13"/>
-    </row>
-    <row r="161" spans="1:35" ht="12" customHeight="1">
+      <c r="AI160" s="1"/>
+      <c r="AJ160" s="1"/>
+      <c r="AK160" s="26"/>
+    </row>
+    <row r="161" spans="1:37" ht="12" customHeight="1">
       <c r="A161" s="6"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="17" t="s">
+      <c r="B161" s="23"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="18"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -7289,55 +7750,59 @@
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="13"/>
-    </row>
-    <row r="162" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI161" s="1"/>
+      <c r="AJ161" s="1"/>
+      <c r="AK161" s="26"/>
+    </row>
+    <row r="162" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A162" s="6"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="31"/>
-      <c r="H162" s="14" t="s">
+      <c r="B162" s="24"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I162" s="15"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-      <c r="N162" s="15"/>
-      <c r="O162" s="15"/>
-      <c r="P162" s="15"/>
-      <c r="Q162" s="15"/>
-      <c r="R162" s="15"/>
-      <c r="S162" s="15"/>
-      <c r="T162" s="15"/>
-      <c r="U162" s="15"/>
-      <c r="V162" s="15"/>
-      <c r="W162" s="15"/>
-      <c r="X162" s="15"/>
-      <c r="Y162" s="15"/>
-      <c r="Z162" s="15"/>
-      <c r="AA162" s="15"/>
-      <c r="AB162" s="15"/>
-      <c r="AC162" s="15"/>
-      <c r="AD162" s="15"/>
-      <c r="AE162" s="15"/>
-      <c r="AF162" s="15"/>
-      <c r="AG162" s="15"/>
-      <c r="AH162" s="15"/>
-      <c r="AI162" s="16"/>
-    </row>
-    <row r="163" spans="1:35" ht="13" customHeight="1">
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="13"/>
+      <c r="O162" s="13"/>
+      <c r="P162" s="13"/>
+      <c r="Q162" s="13"/>
+      <c r="R162" s="13"/>
+      <c r="S162" s="13"/>
+      <c r="T162" s="13"/>
+      <c r="U162" s="13"/>
+      <c r="V162" s="13"/>
+      <c r="W162" s="13"/>
+      <c r="X162" s="13"/>
+      <c r="Y162" s="13"/>
+      <c r="Z162" s="13"/>
+      <c r="AA162" s="13"/>
+      <c r="AB162" s="13"/>
+      <c r="AC162" s="13"/>
+      <c r="AD162" s="13"/>
+      <c r="AE162" s="13"/>
+      <c r="AF162" s="13"/>
+      <c r="AG162" s="13"/>
+      <c r="AH162" s="13"/>
+      <c r="AI162" s="13"/>
+      <c r="AJ162" s="13"/>
+      <c r="AK162" s="26"/>
+    </row>
+    <row r="163" spans="1:37" ht="13" customHeight="1">
       <c r="A163" s="6"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
       <c r="H163" s="10" t="s">
         <v>0</v>
       </c>
@@ -7367,16 +7832,18 @@
       <c r="AF163" s="11"/>
       <c r="AG163" s="11"/>
       <c r="AH163" s="11"/>
-      <c r="AI163" s="12"/>
-    </row>
-    <row r="164" spans="1:35" ht="12" customHeight="1">
+      <c r="AI163" s="11"/>
+      <c r="AJ163" s="11"/>
+      <c r="AK163" s="26"/>
+    </row>
+    <row r="164" spans="1:37" ht="12" customHeight="1">
       <c r="A164" s="6"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
       <c r="H164" s="7" t="s">
         <v>1</v>
       </c>
@@ -7406,16 +7873,18 @@
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
-      <c r="AI164" s="13"/>
-    </row>
-    <row r="165" spans="1:35" ht="12" customHeight="1">
+      <c r="AI164" s="1"/>
+      <c r="AJ164" s="1"/>
+      <c r="AK164" s="26"/>
+    </row>
+    <row r="165" spans="1:37" ht="12" customHeight="1">
       <c r="A165" s="6"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
       <c r="H165" s="7" t="s">
         <v>2</v>
       </c>
@@ -7445,16 +7914,18 @@
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
       <c r="AH165" s="1"/>
-      <c r="AI165" s="13"/>
-    </row>
-    <row r="166" spans="1:35" ht="12" customHeight="1">
+      <c r="AI165" s="1"/>
+      <c r="AJ165" s="1"/>
+      <c r="AK165" s="26"/>
+    </row>
+    <row r="166" spans="1:37" ht="12" customHeight="1">
       <c r="A166" s="6"/>
-      <c r="B166" s="28"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
       <c r="H166" s="7" t="s">
         <v>3</v>
       </c>
@@ -7484,27 +7955,29 @@
       <c r="AF166" s="1"/>
       <c r="AG166" s="1"/>
       <c r="AH166" s="1"/>
-      <c r="AI166" s="13"/>
-    </row>
-    <row r="167" spans="1:35" ht="12" customHeight="1">
+      <c r="AI166" s="1"/>
+      <c r="AJ166" s="1"/>
+      <c r="AK166" s="26"/>
+    </row>
+    <row r="167" spans="1:37" ht="12" customHeight="1">
       <c r="A167" s="6"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="17" t="s">
+      <c r="B167" s="23"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="18"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
@@ -7523,55 +7996,59 @@
       <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
       <c r="AH167" s="1"/>
-      <c r="AI167" s="13"/>
-    </row>
-    <row r="168" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI167" s="1"/>
+      <c r="AJ167" s="1"/>
+      <c r="AK167" s="26"/>
+    </row>
+    <row r="168" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A168" s="6"/>
-      <c r="B168" s="30"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="14" t="s">
+      <c r="B168" s="24"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
-      <c r="M168" s="15"/>
-      <c r="N168" s="15"/>
-      <c r="O168" s="15"/>
-      <c r="P168" s="15"/>
-      <c r="Q168" s="15"/>
-      <c r="R168" s="15"/>
-      <c r="S168" s="15"/>
-      <c r="T168" s="15"/>
-      <c r="U168" s="15"/>
-      <c r="V168" s="15"/>
-      <c r="W168" s="15"/>
-      <c r="X168" s="15"/>
-      <c r="Y168" s="15"/>
-      <c r="Z168" s="15"/>
-      <c r="AA168" s="15"/>
-      <c r="AB168" s="15"/>
-      <c r="AC168" s="15"/>
-      <c r="AD168" s="15"/>
-      <c r="AE168" s="15"/>
-      <c r="AF168" s="15"/>
-      <c r="AG168" s="15"/>
-      <c r="AH168" s="15"/>
-      <c r="AI168" s="16"/>
-    </row>
-    <row r="169" spans="1:35" ht="13" customHeight="1">
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="13"/>
+      <c r="O168" s="13"/>
+      <c r="P168" s="13"/>
+      <c r="Q168" s="13"/>
+      <c r="R168" s="13"/>
+      <c r="S168" s="13"/>
+      <c r="T168" s="13"/>
+      <c r="U168" s="13"/>
+      <c r="V168" s="13"/>
+      <c r="W168" s="13"/>
+      <c r="X168" s="13"/>
+      <c r="Y168" s="13"/>
+      <c r="Z168" s="13"/>
+      <c r="AA168" s="13"/>
+      <c r="AB168" s="13"/>
+      <c r="AC168" s="13"/>
+      <c r="AD168" s="13"/>
+      <c r="AE168" s="13"/>
+      <c r="AF168" s="13"/>
+      <c r="AG168" s="13"/>
+      <c r="AH168" s="13"/>
+      <c r="AI168" s="13"/>
+      <c r="AJ168" s="13"/>
+      <c r="AK168" s="26"/>
+    </row>
+    <row r="169" spans="1:37" ht="13" customHeight="1">
       <c r="A169" s="6"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
       <c r="H169" s="10" t="s">
         <v>0</v>
       </c>
@@ -7601,16 +8078,18 @@
       <c r="AF169" s="11"/>
       <c r="AG169" s="11"/>
       <c r="AH169" s="11"/>
-      <c r="AI169" s="12"/>
-    </row>
-    <row r="170" spans="1:35" ht="12" customHeight="1">
+      <c r="AI169" s="11"/>
+      <c r="AJ169" s="11"/>
+      <c r="AK169" s="26"/>
+    </row>
+    <row r="170" spans="1:37" ht="12" customHeight="1">
       <c r="A170" s="6"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
       <c r="H170" s="7" t="s">
         <v>1</v>
       </c>
@@ -7640,16 +8119,18 @@
       <c r="AF170" s="1"/>
       <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
-      <c r="AI170" s="13"/>
-    </row>
-    <row r="171" spans="1:35" ht="12" customHeight="1">
+      <c r="AI170" s="1"/>
+      <c r="AJ170" s="1"/>
+      <c r="AK170" s="26"/>
+    </row>
+    <row r="171" spans="1:37" ht="12" customHeight="1">
       <c r="A171" s="6"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
       <c r="H171" s="7" t="s">
         <v>2</v>
       </c>
@@ -7679,16 +8160,18 @@
       <c r="AF171" s="1"/>
       <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
-      <c r="AI171" s="13"/>
-    </row>
-    <row r="172" spans="1:35" ht="12" customHeight="1">
+      <c r="AI171" s="1"/>
+      <c r="AJ171" s="1"/>
+      <c r="AK171" s="26"/>
+    </row>
+    <row r="172" spans="1:37" ht="12" customHeight="1">
       <c r="A172" s="6"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
       <c r="H172" s="7" t="s">
         <v>3</v>
       </c>
@@ -7718,27 +8201,29 @@
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
       <c r="AH172" s="1"/>
-      <c r="AI172" s="13"/>
-    </row>
-    <row r="173" spans="1:35" ht="12" customHeight="1">
+      <c r="AI172" s="1"/>
+      <c r="AJ172" s="1"/>
+      <c r="AK172" s="26"/>
+    </row>
+    <row r="173" spans="1:37" ht="12" customHeight="1">
       <c r="A173" s="6"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="17" t="s">
+      <c r="B173" s="23"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I173" s="18"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
-      <c r="P173" s="18"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
@@ -7757,55 +8242,59 @@
       <c r="AF173" s="1"/>
       <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
-      <c r="AI173" s="13"/>
-    </row>
-    <row r="174" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI173" s="1"/>
+      <c r="AJ173" s="1"/>
+      <c r="AK173" s="26"/>
+    </row>
+    <row r="174" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A174" s="6"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="31"/>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
-      <c r="H174" s="14" t="s">
+      <c r="B174" s="24"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I174" s="15"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="15"/>
-      <c r="M174" s="15"/>
-      <c r="N174" s="15"/>
-      <c r="O174" s="15"/>
-      <c r="P174" s="15"/>
-      <c r="Q174" s="15"/>
-      <c r="R174" s="15"/>
-      <c r="S174" s="15"/>
-      <c r="T174" s="15"/>
-      <c r="U174" s="15"/>
-      <c r="V174" s="15"/>
-      <c r="W174" s="15"/>
-      <c r="X174" s="15"/>
-      <c r="Y174" s="15"/>
-      <c r="Z174" s="15"/>
-      <c r="AA174" s="15"/>
-      <c r="AB174" s="15"/>
-      <c r="AC174" s="15"/>
-      <c r="AD174" s="15"/>
-      <c r="AE174" s="15"/>
-      <c r="AF174" s="15"/>
-      <c r="AG174" s="15"/>
-      <c r="AH174" s="15"/>
-      <c r="AI174" s="16"/>
-    </row>
-    <row r="175" spans="1:35" ht="13" customHeight="1">
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
+      <c r="L174" s="13"/>
+      <c r="M174" s="13"/>
+      <c r="N174" s="13"/>
+      <c r="O174" s="13"/>
+      <c r="P174" s="13"/>
+      <c r="Q174" s="13"/>
+      <c r="R174" s="13"/>
+      <c r="S174" s="13"/>
+      <c r="T174" s="13"/>
+      <c r="U174" s="13"/>
+      <c r="V174" s="13"/>
+      <c r="W174" s="13"/>
+      <c r="X174" s="13"/>
+      <c r="Y174" s="13"/>
+      <c r="Z174" s="13"/>
+      <c r="AA174" s="13"/>
+      <c r="AB174" s="13"/>
+      <c r="AC174" s="13"/>
+      <c r="AD174" s="13"/>
+      <c r="AE174" s="13"/>
+      <c r="AF174" s="13"/>
+      <c r="AG174" s="13"/>
+      <c r="AH174" s="13"/>
+      <c r="AI174" s="13"/>
+      <c r="AJ174" s="13"/>
+      <c r="AK174" s="26"/>
+    </row>
+    <row r="175" spans="1:37" ht="13" customHeight="1">
       <c r="A175" s="6"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="27"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
       <c r="H175" s="10" t="s">
         <v>0</v>
       </c>
@@ -7835,16 +8324,18 @@
       <c r="AF175" s="11"/>
       <c r="AG175" s="11"/>
       <c r="AH175" s="11"/>
-      <c r="AI175" s="12"/>
-    </row>
-    <row r="176" spans="1:35" ht="12" customHeight="1">
+      <c r="AI175" s="11"/>
+      <c r="AJ175" s="11"/>
+      <c r="AK175" s="26"/>
+    </row>
+    <row r="176" spans="1:37" ht="12" customHeight="1">
       <c r="A176" s="6"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="29"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
       <c r="H176" s="7" t="s">
         <v>1</v>
       </c>
@@ -7874,16 +8365,18 @@
       <c r="AF176" s="1"/>
       <c r="AG176" s="1"/>
       <c r="AH176" s="1"/>
-      <c r="AI176" s="13"/>
-    </row>
-    <row r="177" spans="1:35" ht="12" customHeight="1">
+      <c r="AI176" s="1"/>
+      <c r="AJ176" s="1"/>
+      <c r="AK176" s="26"/>
+    </row>
+    <row r="177" spans="1:37" ht="12" customHeight="1">
       <c r="A177" s="6"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
       <c r="H177" s="7" t="s">
         <v>2</v>
       </c>
@@ -7913,16 +8406,18 @@
       <c r="AF177" s="1"/>
       <c r="AG177" s="1"/>
       <c r="AH177" s="1"/>
-      <c r="AI177" s="13"/>
-    </row>
-    <row r="178" spans="1:35" ht="12" customHeight="1">
+      <c r="AI177" s="1"/>
+      <c r="AJ177" s="1"/>
+      <c r="AK177" s="26"/>
+    </row>
+    <row r="178" spans="1:37" ht="12" customHeight="1">
       <c r="A178" s="6"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
       <c r="H178" s="7" t="s">
         <v>3</v>
       </c>
@@ -7952,27 +8447,29 @@
       <c r="AF178" s="1"/>
       <c r="AG178" s="1"/>
       <c r="AH178" s="1"/>
-      <c r="AI178" s="13"/>
-    </row>
-    <row r="179" spans="1:35" ht="12" customHeight="1">
+      <c r="AI178" s="1"/>
+      <c r="AJ178" s="1"/>
+      <c r="AK178" s="26"/>
+    </row>
+    <row r="179" spans="1:37" ht="12" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="17" t="s">
+      <c r="B179" s="23"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I179" s="18"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="18"/>
-      <c r="P179" s="18"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="15"/>
+      <c r="O179" s="15"/>
+      <c r="P179" s="15"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -7991,55 +8488,59 @@
       <c r="AF179" s="1"/>
       <c r="AG179" s="1"/>
       <c r="AH179" s="1"/>
-      <c r="AI179" s="13"/>
-    </row>
-    <row r="180" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI179" s="1"/>
+      <c r="AJ179" s="1"/>
+      <c r="AK179" s="26"/>
+    </row>
+    <row r="180" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A180" s="6"/>
-      <c r="B180" s="30"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="31"/>
-      <c r="H180" s="14" t="s">
+      <c r="B180" s="24"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="15"/>
-      <c r="M180" s="15"/>
-      <c r="N180" s="15"/>
-      <c r="O180" s="15"/>
-      <c r="P180" s="15"/>
-      <c r="Q180" s="15"/>
-      <c r="R180" s="15"/>
-      <c r="S180" s="15"/>
-      <c r="T180" s="15"/>
-      <c r="U180" s="15"/>
-      <c r="V180" s="15"/>
-      <c r="W180" s="15"/>
-      <c r="X180" s="15"/>
-      <c r="Y180" s="15"/>
-      <c r="Z180" s="15"/>
-      <c r="AA180" s="15"/>
-      <c r="AB180" s="15"/>
-      <c r="AC180" s="15"/>
-      <c r="AD180" s="15"/>
-      <c r="AE180" s="15"/>
-      <c r="AF180" s="15"/>
-      <c r="AG180" s="15"/>
-      <c r="AH180" s="15"/>
-      <c r="AI180" s="16"/>
-    </row>
-    <row r="181" spans="1:35" ht="13" customHeight="1">
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="13"/>
+      <c r="M180" s="13"/>
+      <c r="N180" s="13"/>
+      <c r="O180" s="13"/>
+      <c r="P180" s="13"/>
+      <c r="Q180" s="13"/>
+      <c r="R180" s="13"/>
+      <c r="S180" s="13"/>
+      <c r="T180" s="13"/>
+      <c r="U180" s="13"/>
+      <c r="V180" s="13"/>
+      <c r="W180" s="13"/>
+      <c r="X180" s="13"/>
+      <c r="Y180" s="13"/>
+      <c r="Z180" s="13"/>
+      <c r="AA180" s="13"/>
+      <c r="AB180" s="13"/>
+      <c r="AC180" s="13"/>
+      <c r="AD180" s="13"/>
+      <c r="AE180" s="13"/>
+      <c r="AF180" s="13"/>
+      <c r="AG180" s="13"/>
+      <c r="AH180" s="13"/>
+      <c r="AI180" s="13"/>
+      <c r="AJ180" s="13"/>
+      <c r="AK180" s="26"/>
+    </row>
+    <row r="181" spans="1:37" ht="13" customHeight="1">
       <c r="A181" s="6"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
       <c r="H181" s="10" t="s">
         <v>0</v>
       </c>
@@ -8069,16 +8570,18 @@
       <c r="AF181" s="11"/>
       <c r="AG181" s="11"/>
       <c r="AH181" s="11"/>
-      <c r="AI181" s="12"/>
-    </row>
-    <row r="182" spans="1:35" ht="12" customHeight="1">
+      <c r="AI181" s="11"/>
+      <c r="AJ181" s="11"/>
+      <c r="AK181" s="26"/>
+    </row>
+    <row r="182" spans="1:37" ht="12" customHeight="1">
       <c r="A182" s="6"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
       <c r="H182" s="7" t="s">
         <v>1</v>
       </c>
@@ -8108,16 +8611,18 @@
       <c r="AF182" s="1"/>
       <c r="AG182" s="1"/>
       <c r="AH182" s="1"/>
-      <c r="AI182" s="13"/>
-    </row>
-    <row r="183" spans="1:35" ht="12" customHeight="1">
+      <c r="AI182" s="1"/>
+      <c r="AJ182" s="1"/>
+      <c r="AK182" s="26"/>
+    </row>
+    <row r="183" spans="1:37" ht="12" customHeight="1">
       <c r="A183" s="6"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="29"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
       <c r="H183" s="7" t="s">
         <v>2</v>
       </c>
@@ -8147,16 +8652,18 @@
       <c r="AF183" s="1"/>
       <c r="AG183" s="1"/>
       <c r="AH183" s="1"/>
-      <c r="AI183" s="13"/>
-    </row>
-    <row r="184" spans="1:35" ht="12" customHeight="1">
+      <c r="AI183" s="1"/>
+      <c r="AJ183" s="1"/>
+      <c r="AK183" s="26"/>
+    </row>
+    <row r="184" spans="1:37" ht="12" customHeight="1">
       <c r="A184" s="6"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
       <c r="H184" s="7" t="s">
         <v>3</v>
       </c>
@@ -8186,27 +8693,29 @@
       <c r="AF184" s="1"/>
       <c r="AG184" s="1"/>
       <c r="AH184" s="1"/>
-      <c r="AI184" s="13"/>
-    </row>
-    <row r="185" spans="1:35" ht="12" customHeight="1">
+      <c r="AI184" s="1"/>
+      <c r="AJ184" s="1"/>
+      <c r="AK184" s="26"/>
+    </row>
+    <row r="185" spans="1:37" ht="12" customHeight="1">
       <c r="A185" s="6"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="17" t="s">
+      <c r="B185" s="23"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I185" s="18"/>
-      <c r="J185" s="18"/>
-      <c r="K185" s="18"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="18"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="18"/>
-      <c r="P185" s="18"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="15"/>
+      <c r="N185" s="15"/>
+      <c r="O185" s="15"/>
+      <c r="P185" s="15"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
@@ -8225,82 +8734,124 @@
       <c r="AF185" s="1"/>
       <c r="AG185" s="1"/>
       <c r="AH185" s="1"/>
-      <c r="AI185" s="13"/>
-    </row>
-    <row r="186" spans="1:35" ht="12" customHeight="1" thickBot="1">
+      <c r="AI185" s="1"/>
+      <c r="AJ185" s="1"/>
+      <c r="AK185" s="26"/>
+    </row>
+    <row r="186" spans="1:37" ht="12" customHeight="1" thickBot="1">
       <c r="A186" s="6"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="14" t="s">
+      <c r="B186" s="24"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I186" s="15"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="15"/>
-      <c r="M186" s="15"/>
-      <c r="N186" s="15"/>
-      <c r="O186" s="15"/>
-      <c r="P186" s="15"/>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="15"/>
-      <c r="S186" s="15"/>
-      <c r="T186" s="15"/>
-      <c r="U186" s="15"/>
-      <c r="V186" s="15"/>
-      <c r="W186" s="15"/>
-      <c r="X186" s="15"/>
-      <c r="Y186" s="15"/>
-      <c r="Z186" s="15"/>
-      <c r="AA186" s="15"/>
-      <c r="AB186" s="15"/>
-      <c r="AC186" s="15"/>
-      <c r="AD186" s="15"/>
-      <c r="AE186" s="15"/>
-      <c r="AF186" s="15"/>
-      <c r="AG186" s="15"/>
-      <c r="AH186" s="15"/>
-      <c r="AI186" s="16"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="13"/>
+      <c r="L186" s="13"/>
+      <c r="M186" s="13"/>
+      <c r="N186" s="13"/>
+      <c r="O186" s="13"/>
+      <c r="P186" s="13"/>
+      <c r="Q186" s="13"/>
+      <c r="R186" s="13"/>
+      <c r="S186" s="13"/>
+      <c r="T186" s="13"/>
+      <c r="U186" s="13"/>
+      <c r="V186" s="13"/>
+      <c r="W186" s="13"/>
+      <c r="X186" s="13"/>
+      <c r="Y186" s="13"/>
+      <c r="Z186" s="13"/>
+      <c r="AA186" s="13"/>
+      <c r="AB186" s="13"/>
+      <c r="AC186" s="13"/>
+      <c r="AD186" s="13"/>
+      <c r="AE186" s="13"/>
+      <c r="AF186" s="13"/>
+      <c r="AG186" s="13"/>
+      <c r="AH186" s="13"/>
+      <c r="AI186" s="13"/>
+      <c r="AJ186" s="13"/>
+      <c r="AK186" s="26"/>
+    </row>
+    <row r="187" spans="1:37">
+      <c r="A187" s="27"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="29"/>
+      <c r="I187" s="29"/>
+      <c r="J187" s="29"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="28"/>
+      <c r="M187" s="28"/>
+      <c r="N187" s="28"/>
+      <c r="O187" s="29"/>
+      <c r="P187" s="29"/>
+      <c r="Q187" s="29"/>
+      <c r="R187" s="29"/>
+      <c r="S187" s="29"/>
+      <c r="T187" s="29"/>
+      <c r="U187" s="29"/>
+      <c r="V187" s="29"/>
+      <c r="W187" s="29"/>
+      <c r="X187" s="29"/>
+      <c r="Y187" s="29"/>
+      <c r="Z187" s="29"/>
+      <c r="AA187" s="29"/>
+      <c r="AB187" s="29"/>
+      <c r="AC187" s="29"/>
+      <c r="AD187" s="29"/>
+      <c r="AE187" s="29"/>
+      <c r="AF187" s="29"/>
+      <c r="AG187" s="29"/>
+      <c r="AH187" s="29"/>
+      <c r="AI187" s="29"/>
+      <c r="AJ187" s="29"/>
+      <c r="AK187" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="E7:G12"/>
-    <mergeCell ref="E13:G18"/>
-    <mergeCell ref="E19:G24"/>
-    <mergeCell ref="E25:G30"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="E31:G36"/>
-    <mergeCell ref="E37:G42"/>
-    <mergeCell ref="E43:G48"/>
-    <mergeCell ref="E49:G54"/>
-    <mergeCell ref="E55:G60"/>
-    <mergeCell ref="E61:G66"/>
-    <mergeCell ref="E67:G72"/>
-    <mergeCell ref="E73:G78"/>
-    <mergeCell ref="E79:G84"/>
-    <mergeCell ref="E85:G90"/>
-    <mergeCell ref="E91:G96"/>
-    <mergeCell ref="E97:G102"/>
-    <mergeCell ref="E103:G108"/>
-    <mergeCell ref="E109:G114"/>
-    <mergeCell ref="E115:G120"/>
-    <mergeCell ref="E121:G126"/>
-    <mergeCell ref="E127:G132"/>
-    <mergeCell ref="E133:G138"/>
-    <mergeCell ref="E139:G144"/>
-    <mergeCell ref="E145:G150"/>
-    <mergeCell ref="E151:G156"/>
-    <mergeCell ref="E157:G162"/>
-    <mergeCell ref="E163:G168"/>
-    <mergeCell ref="E169:G174"/>
-    <mergeCell ref="E175:G180"/>
+  <mergeCells count="75">
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B157:D162"/>
+    <mergeCell ref="B163:D168"/>
+    <mergeCell ref="B169:D174"/>
+    <mergeCell ref="B175:D180"/>
+    <mergeCell ref="B181:D186"/>
+    <mergeCell ref="B127:D132"/>
+    <mergeCell ref="B133:D138"/>
+    <mergeCell ref="B139:D144"/>
+    <mergeCell ref="B145:D150"/>
+    <mergeCell ref="B151:D156"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:R2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="B61:D66"/>
+    <mergeCell ref="B79:D84"/>
+    <mergeCell ref="B85:D90"/>
+    <mergeCell ref="B91:D96"/>
+    <mergeCell ref="B97:D102"/>
+    <mergeCell ref="B67:D72"/>
+    <mergeCell ref="B73:D78"/>
     <mergeCell ref="E181:G186"/>
-    <mergeCell ref="R3:U4"/>
-    <mergeCell ref="R1:U2"/>
     <mergeCell ref="B103:D108"/>
     <mergeCell ref="B109:D114"/>
     <mergeCell ref="B115:D120"/>
@@ -8314,35 +8865,40 @@
     <mergeCell ref="B43:D48"/>
     <mergeCell ref="B49:D54"/>
     <mergeCell ref="B55:D60"/>
-    <mergeCell ref="B61:D66"/>
-    <mergeCell ref="B79:D84"/>
-    <mergeCell ref="B85:D90"/>
-    <mergeCell ref="B91:D96"/>
-    <mergeCell ref="B97:D102"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="B67:D72"/>
-    <mergeCell ref="B73:D78"/>
-    <mergeCell ref="B127:D132"/>
-    <mergeCell ref="B133:D138"/>
-    <mergeCell ref="B139:D144"/>
-    <mergeCell ref="B145:D150"/>
-    <mergeCell ref="B151:D156"/>
-    <mergeCell ref="B157:D162"/>
-    <mergeCell ref="B163:D168"/>
-    <mergeCell ref="B169:D174"/>
-    <mergeCell ref="B175:D180"/>
-    <mergeCell ref="B181:D186"/>
+    <mergeCell ref="E151:G156"/>
+    <mergeCell ref="E157:G162"/>
+    <mergeCell ref="E163:G168"/>
+    <mergeCell ref="E169:G174"/>
+    <mergeCell ref="E175:G180"/>
+    <mergeCell ref="E121:G126"/>
+    <mergeCell ref="E127:G132"/>
+    <mergeCell ref="E133:G138"/>
+    <mergeCell ref="E139:G144"/>
+    <mergeCell ref="E145:G150"/>
+    <mergeCell ref="E91:G96"/>
+    <mergeCell ref="E97:G102"/>
+    <mergeCell ref="E103:G108"/>
+    <mergeCell ref="E109:G114"/>
+    <mergeCell ref="E115:G120"/>
+    <mergeCell ref="E61:G66"/>
+    <mergeCell ref="E67:G72"/>
+    <mergeCell ref="E73:G78"/>
+    <mergeCell ref="E79:G84"/>
+    <mergeCell ref="E85:G90"/>
+    <mergeCell ref="E31:G36"/>
+    <mergeCell ref="E37:G42"/>
+    <mergeCell ref="E43:G48"/>
+    <mergeCell ref="E49:G54"/>
+    <mergeCell ref="E55:G60"/>
+    <mergeCell ref="E7:G12"/>
+    <mergeCell ref="E13:G18"/>
+    <mergeCell ref="E19:G24"/>
+    <mergeCell ref="E25:G30"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.16722222222222222" right="0.70000000000000007" top="0.2986111111111111" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/template/ObjectPermission.xlsx
+++ b/template/ObjectPermission.xlsx
@@ -629,10 +629,55 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,51 +690,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1122,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK187"/>
+  <dimension ref="A1:AI187"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+      <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1139,185 +1139,177 @@
     <col min="9" max="9" width="7.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="2" customWidth="1"/>
     <col min="11" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="36" width="8.6640625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="4" style="2" customWidth="1"/>
+    <col min="15" max="34" width="8.6640625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="23" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:35" ht="23" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="31" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="33" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-    </row>
-    <row r="2" spans="1:37" ht="23" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="33" t="s">
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+    </row>
+    <row r="2" spans="1:35" ht="23" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33" t="s">
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-    </row>
-    <row r="3" spans="1:37" ht="23" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36" t="s">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+    </row>
+    <row r="3" spans="1:35" ht="23" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="36" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-    </row>
-    <row r="4" spans="1:37" ht="23" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-    </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1">
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+    </row>
+    <row r="4" spans="1:35" ht="23" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+    </row>
+    <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1352,20 +1344,18 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="25"/>
-    </row>
-    <row r="6" spans="1:37" ht="139" customHeight="1" thickBot="1">
+      <c r="AI5" s="16"/>
+    </row>
+    <row r="6" spans="1:35" ht="139" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1395,18 +1385,16 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="26"/>
-    </row>
-    <row r="7" spans="1:37" ht="13" customHeight="1">
+      <c r="AI6" s="17"/>
+    </row>
+    <row r="7" spans="1:35" ht="13" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1436,18 +1424,16 @@
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="26"/>
-    </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1">
+      <c r="AI7" s="17"/>
+    </row>
+    <row r="8" spans="1:35" ht="12" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1477,18 +1463,16 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="26"/>
-    </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1">
+      <c r="AI8" s="17"/>
+    </row>
+    <row r="9" spans="1:35" ht="12" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1518,18 +1502,16 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="26"/>
-    </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1">
+      <c r="AI9" s="17"/>
+    </row>
+    <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1559,18 +1541,16 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="26"/>
-    </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1">
+      <c r="AI10" s="17"/>
+    </row>
+    <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="14" t="s">
         <v>5</v>
       </c>
@@ -1600,18 +1580,16 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="26"/>
-    </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI11" s="17"/>
+    </row>
+    <row r="12" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
@@ -1641,18 +1619,16 @@
       <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="26"/>
-    </row>
-    <row r="13" spans="1:37" ht="13" customHeight="1">
+      <c r="AI12" s="17"/>
+    </row>
+    <row r="13" spans="1:35" ht="13" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1682,18 +1658,16 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="26"/>
-    </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1">
+      <c r="AI13" s="17"/>
+    </row>
+    <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1723,18 +1697,16 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="26"/>
-    </row>
-    <row r="15" spans="1:37" ht="12" customHeight="1">
+      <c r="AI14" s="17"/>
+    </row>
+    <row r="15" spans="1:35" ht="12" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1764,18 +1736,16 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="26"/>
-    </row>
-    <row r="16" spans="1:37" ht="12" customHeight="1">
+      <c r="AI15" s="17"/>
+    </row>
+    <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1805,18 +1775,16 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="26"/>
-    </row>
-    <row r="17" spans="1:37" ht="12" customHeight="1">
+      <c r="AI16" s="17"/>
+    </row>
+    <row r="17" spans="1:35" ht="12" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="14" t="s">
         <v>5</v>
       </c>
@@ -1846,18 +1814,16 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="26"/>
-    </row>
-    <row r="18" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI17" s="17"/>
+    </row>
+    <row r="18" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
@@ -1887,18 +1853,16 @@
       <c r="AF18" s="13"/>
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="26"/>
-    </row>
-    <row r="19" spans="1:37" ht="13" customHeight="1">
+      <c r="AI18" s="17"/>
+    </row>
+    <row r="19" spans="1:35" ht="13" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1928,18 +1892,16 @@
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="26"/>
-    </row>
-    <row r="20" spans="1:37" ht="12" customHeight="1">
+      <c r="AI19" s="17"/>
+    </row>
+    <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1969,18 +1931,16 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="26"/>
-    </row>
-    <row r="21" spans="1:37" ht="12" customHeight="1">
+      <c r="AI20" s="17"/>
+    </row>
+    <row r="21" spans="1:35" ht="12" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="7" t="s">
         <v>2</v>
       </c>
@@ -2010,18 +1970,16 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="26"/>
-    </row>
-    <row r="22" spans="1:37" ht="12" customHeight="1">
+      <c r="AI21" s="17"/>
+    </row>
+    <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="7" t="s">
         <v>3</v>
       </c>
@@ -2051,18 +2009,16 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="26"/>
-    </row>
-    <row r="23" spans="1:37" ht="12" customHeight="1">
+      <c r="AI22" s="17"/>
+    </row>
+    <row r="23" spans="1:35" ht="12" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="14" t="s">
         <v>5</v>
       </c>
@@ -2092,18 +2048,16 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="26"/>
-    </row>
-    <row r="24" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI23" s="17"/>
+    </row>
+    <row r="24" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="12" t="s">
         <v>6</v>
       </c>
@@ -2133,18 +2087,16 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="26"/>
-    </row>
-    <row r="25" spans="1:37" ht="13" customHeight="1">
+      <c r="AI24" s="17"/>
+    </row>
+    <row r="25" spans="1:35" ht="13" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="10" t="s">
         <v>0</v>
       </c>
@@ -2174,18 +2126,16 @@
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="26"/>
-    </row>
-    <row r="26" spans="1:37" ht="12" customHeight="1">
+      <c r="AI25" s="17"/>
+    </row>
+    <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="7" t="s">
         <v>1</v>
       </c>
@@ -2215,18 +2165,16 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="26"/>
-    </row>
-    <row r="27" spans="1:37" ht="12" customHeight="1">
+      <c r="AI26" s="17"/>
+    </row>
+    <row r="27" spans="1:35" ht="12" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2256,18 +2204,16 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="26"/>
-    </row>
-    <row r="28" spans="1:37" ht="12" customHeight="1">
+      <c r="AI27" s="17"/>
+    </row>
+    <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="7" t="s">
         <v>3</v>
       </c>
@@ -2297,18 +2243,16 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="26"/>
-    </row>
-    <row r="29" spans="1:37" ht="12" customHeight="1">
+      <c r="AI28" s="17"/>
+    </row>
+    <row r="29" spans="1:35" ht="12" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="14" t="s">
         <v>5</v>
       </c>
@@ -2338,18 +2282,16 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="26"/>
-    </row>
-    <row r="30" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI29" s="17"/>
+    </row>
+    <row r="30" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="12" t="s">
         <v>6</v>
       </c>
@@ -2379,18 +2321,16 @@
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="26"/>
-    </row>
-    <row r="31" spans="1:37" ht="13" customHeight="1">
+      <c r="AI30" s="17"/>
+    </row>
+    <row r="31" spans="1:35" ht="13" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="10" t="s">
         <v>0</v>
       </c>
@@ -2420,18 +2360,16 @@
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
       <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="26"/>
-    </row>
-    <row r="32" spans="1:37" ht="12" customHeight="1">
+      <c r="AI31" s="17"/>
+    </row>
+    <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="7" t="s">
         <v>1</v>
       </c>
@@ -2461,18 +2399,16 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="26"/>
-    </row>
-    <row r="33" spans="1:37" ht="12" customHeight="1">
+      <c r="AI32" s="17"/>
+    </row>
+    <row r="33" spans="1:35" ht="12" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="7" t="s">
         <v>2</v>
       </c>
@@ -2502,18 +2438,16 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="26"/>
-    </row>
-    <row r="34" spans="1:37" ht="12" customHeight="1">
+      <c r="AI33" s="17"/>
+    </row>
+    <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="7" t="s">
         <v>3</v>
       </c>
@@ -2543,18 +2477,16 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="26"/>
-    </row>
-    <row r="35" spans="1:37" ht="12" customHeight="1">
+      <c r="AI34" s="17"/>
+    </row>
+    <row r="35" spans="1:35" ht="12" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="14" t="s">
         <v>5</v>
       </c>
@@ -2584,18 +2516,16 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="26"/>
-    </row>
-    <row r="36" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI35" s="17"/>
+    </row>
+    <row r="36" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="12" t="s">
         <v>6</v>
       </c>
@@ -2625,18 +2555,16 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="26"/>
-    </row>
-    <row r="37" spans="1:37" ht="13" customHeight="1">
+      <c r="AI36" s="17"/>
+    </row>
+    <row r="37" spans="1:35" ht="13" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="10" t="s">
         <v>0</v>
       </c>
@@ -2666,18 +2594,16 @@
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="26"/>
-    </row>
-    <row r="38" spans="1:37" ht="12" customHeight="1">
+      <c r="AI37" s="17"/>
+    </row>
+    <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
       <c r="H38" s="7" t="s">
         <v>1</v>
       </c>
@@ -2707,18 +2633,16 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="26"/>
-    </row>
-    <row r="39" spans="1:37" ht="12" customHeight="1">
+      <c r="AI38" s="17"/>
+    </row>
+    <row r="39" spans="1:35" ht="12" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="7" t="s">
         <v>2</v>
       </c>
@@ -2748,18 +2672,16 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="26"/>
-    </row>
-    <row r="40" spans="1:37" ht="12" customHeight="1">
+      <c r="AI39" s="17"/>
+    </row>
+    <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="7" t="s">
         <v>3</v>
       </c>
@@ -2789,18 +2711,16 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="26"/>
-    </row>
-    <row r="41" spans="1:37" ht="12" customHeight="1">
+      <c r="AI40" s="17"/>
+    </row>
+    <row r="41" spans="1:35" ht="12" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="14" t="s">
         <v>5</v>
       </c>
@@ -2830,18 +2750,16 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="26"/>
-    </row>
-    <row r="42" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI41" s="17"/>
+    </row>
+    <row r="42" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="12" t="s">
         <v>6</v>
       </c>
@@ -2871,18 +2789,16 @@
       <c r="AF42" s="13"/>
       <c r="AG42" s="13"/>
       <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="26"/>
-    </row>
-    <row r="43" spans="1:37" ht="13" customHeight="1">
+      <c r="AI42" s="17"/>
+    </row>
+    <row r="43" spans="1:35" ht="13" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="10" t="s">
         <v>0</v>
       </c>
@@ -2912,18 +2828,16 @@
       <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
-      <c r="AI43" s="11"/>
-      <c r="AJ43" s="11"/>
-      <c r="AK43" s="26"/>
-    </row>
-    <row r="44" spans="1:37" ht="12" customHeight="1">
+      <c r="AI43" s="17"/>
+    </row>
+    <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
       <c r="H44" s="7" t="s">
         <v>1</v>
       </c>
@@ -2953,18 +2867,16 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="26"/>
-    </row>
-    <row r="45" spans="1:37" ht="12" customHeight="1">
+      <c r="AI44" s="17"/>
+    </row>
+    <row r="45" spans="1:35" ht="12" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="7" t="s">
         <v>2</v>
       </c>
@@ -2994,18 +2906,16 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="26"/>
-    </row>
-    <row r="46" spans="1:37" ht="12" customHeight="1">
+      <c r="AI45" s="17"/>
+    </row>
+    <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="7" t="s">
         <v>3</v>
       </c>
@@ -3035,18 +2945,16 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="26"/>
-    </row>
-    <row r="47" spans="1:37" ht="12" customHeight="1">
+      <c r="AI46" s="17"/>
+    </row>
+    <row r="47" spans="1:35" ht="12" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="14" t="s">
         <v>5</v>
       </c>
@@ -3076,18 +2984,16 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="26"/>
-    </row>
-    <row r="48" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI47" s="17"/>
+    </row>
+    <row r="48" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
       <c r="H48" s="12" t="s">
         <v>6</v>
       </c>
@@ -3117,18 +3023,16 @@
       <c r="AF48" s="13"/>
       <c r="AG48" s="13"/>
       <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="26"/>
-    </row>
-    <row r="49" spans="1:37" ht="13" customHeight="1">
+      <c r="AI48" s="17"/>
+    </row>
+    <row r="49" spans="1:35" ht="13" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
       <c r="H49" s="10" t="s">
         <v>0</v>
       </c>
@@ -3158,18 +3062,16 @@
       <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
       <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="26"/>
-    </row>
-    <row r="50" spans="1:37" ht="12" customHeight="1">
+      <c r="AI49" s="17"/>
+    </row>
+    <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
       <c r="H50" s="7" t="s">
         <v>1</v>
       </c>
@@ -3199,18 +3101,16 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="26"/>
-    </row>
-    <row r="51" spans="1:37" ht="12" customHeight="1">
+      <c r="AI50" s="17"/>
+    </row>
+    <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="7" t="s">
         <v>2</v>
       </c>
@@ -3240,18 +3140,16 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="26"/>
-    </row>
-    <row r="52" spans="1:37" ht="12" customHeight="1">
+      <c r="AI51" s="17"/>
+    </row>
+    <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="7" t="s">
         <v>3</v>
       </c>
@@ -3281,18 +3179,16 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="26"/>
-    </row>
-    <row r="53" spans="1:37" ht="12" customHeight="1">
+      <c r="AI52" s="17"/>
+    </row>
+    <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="14" t="s">
         <v>5</v>
       </c>
@@ -3322,18 +3218,16 @@
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="26"/>
-    </row>
-    <row r="54" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI53" s="17"/>
+    </row>
+    <row r="54" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
       <c r="H54" s="12" t="s">
         <v>6</v>
       </c>
@@ -3363,18 +3257,16 @@
       <c r="AF54" s="13"/>
       <c r="AG54" s="13"/>
       <c r="AH54" s="13"/>
-      <c r="AI54" s="13"/>
-      <c r="AJ54" s="13"/>
-      <c r="AK54" s="26"/>
-    </row>
-    <row r="55" spans="1:37" ht="13" customHeight="1">
+      <c r="AI54" s="17"/>
+    </row>
+    <row r="55" spans="1:35" ht="13" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
       <c r="H55" s="10" t="s">
         <v>0</v>
       </c>
@@ -3404,18 +3296,16 @@
       <c r="AF55" s="11"/>
       <c r="AG55" s="11"/>
       <c r="AH55" s="11"/>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
-      <c r="AK55" s="26"/>
-    </row>
-    <row r="56" spans="1:37" ht="12" customHeight="1">
+      <c r="AI55" s="17"/>
+    </row>
+    <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
       <c r="H56" s="7" t="s">
         <v>1</v>
       </c>
@@ -3445,18 +3335,16 @@
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="26"/>
-    </row>
-    <row r="57" spans="1:37" ht="12" customHeight="1">
+      <c r="AI56" s="17"/>
+    </row>
+    <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
       <c r="H57" s="7" t="s">
         <v>2</v>
       </c>
@@ -3486,18 +3374,16 @@
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="26"/>
-    </row>
-    <row r="58" spans="1:37" ht="12" customHeight="1">
+      <c r="AI57" s="17"/>
+    </row>
+    <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="7" t="s">
         <v>3</v>
       </c>
@@ -3527,18 +3413,16 @@
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="26"/>
-    </row>
-    <row r="59" spans="1:37" ht="12" customHeight="1">
+      <c r="AI58" s="17"/>
+    </row>
+    <row r="59" spans="1:35" ht="12" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
       <c r="H59" s="14" t="s">
         <v>5</v>
       </c>
@@ -3568,18 +3452,16 @@
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="26"/>
-    </row>
-    <row r="60" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI59" s="17"/>
+    </row>
+    <row r="60" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
       <c r="H60" s="12" t="s">
         <v>6</v>
       </c>
@@ -3609,18 +3491,16 @@
       <c r="AF60" s="13"/>
       <c r="AG60" s="13"/>
       <c r="AH60" s="13"/>
-      <c r="AI60" s="13"/>
-      <c r="AJ60" s="13"/>
-      <c r="AK60" s="26"/>
-    </row>
-    <row r="61" spans="1:37" ht="13" customHeight="1">
+      <c r="AI60" s="17"/>
+    </row>
+    <row r="61" spans="1:35" ht="13" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
       <c r="H61" s="10" t="s">
         <v>0</v>
       </c>
@@ -3650,18 +3530,16 @@
       <c r="AF61" s="11"/>
       <c r="AG61" s="11"/>
       <c r="AH61" s="11"/>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="26"/>
-    </row>
-    <row r="62" spans="1:37" ht="12" customHeight="1">
+      <c r="AI61" s="17"/>
+    </row>
+    <row r="62" spans="1:35" ht="12" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="7" t="s">
         <v>1</v>
       </c>
@@ -3691,18 +3569,16 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="26"/>
-    </row>
-    <row r="63" spans="1:37" ht="12" customHeight="1">
+      <c r="AI62" s="17"/>
+    </row>
+    <row r="63" spans="1:35" ht="12" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
       <c r="H63" s="7" t="s">
         <v>2</v>
       </c>
@@ -3732,18 +3608,16 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="26"/>
-    </row>
-    <row r="64" spans="1:37" ht="12" customHeight="1">
+      <c r="AI63" s="17"/>
+    </row>
+    <row r="64" spans="1:35" ht="12" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="7" t="s">
         <v>3</v>
       </c>
@@ -3773,18 +3647,16 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="26"/>
-    </row>
-    <row r="65" spans="1:37" ht="12" customHeight="1">
+      <c r="AI64" s="17"/>
+    </row>
+    <row r="65" spans="1:35" ht="12" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
       <c r="H65" s="14" t="s">
         <v>5</v>
       </c>
@@ -3814,18 +3686,16 @@
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="26"/>
-    </row>
-    <row r="66" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI65" s="17"/>
+    </row>
+    <row r="66" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
       <c r="H66" s="12" t="s">
         <v>6</v>
       </c>
@@ -3855,18 +3725,16 @@
       <c r="AF66" s="13"/>
       <c r="AG66" s="13"/>
       <c r="AH66" s="13"/>
-      <c r="AI66" s="13"/>
-      <c r="AJ66" s="13"/>
-      <c r="AK66" s="26"/>
-    </row>
-    <row r="67" spans="1:37" ht="13" customHeight="1">
+      <c r="AI66" s="17"/>
+    </row>
+    <row r="67" spans="1:35" ht="13" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
       <c r="H67" s="10" t="s">
         <v>0</v>
       </c>
@@ -3896,18 +3764,16 @@
       <c r="AF67" s="11"/>
       <c r="AG67" s="11"/>
       <c r="AH67" s="11"/>
-      <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
-      <c r="AK67" s="26"/>
-    </row>
-    <row r="68" spans="1:37" ht="12" customHeight="1">
+      <c r="AI67" s="17"/>
+    </row>
+    <row r="68" spans="1:35" ht="12" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="7" t="s">
         <v>1</v>
       </c>
@@ -3937,18 +3803,16 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="26"/>
-    </row>
-    <row r="69" spans="1:37" ht="12" customHeight="1">
+      <c r="AI68" s="17"/>
+    </row>
+    <row r="69" spans="1:35" ht="12" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="7" t="s">
         <v>2</v>
       </c>
@@ -3978,18 +3842,16 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="26"/>
-    </row>
-    <row r="70" spans="1:37" ht="12" customHeight="1">
+      <c r="AI69" s="17"/>
+    </row>
+    <row r="70" spans="1:35" ht="12" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="7" t="s">
         <v>3</v>
       </c>
@@ -4019,18 +3881,16 @@
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="26"/>
-    </row>
-    <row r="71" spans="1:37" ht="12" customHeight="1">
+      <c r="AI70" s="17"/>
+    </row>
+    <row r="71" spans="1:35" ht="12" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="14" t="s">
         <v>5</v>
       </c>
@@ -4060,18 +3920,16 @@
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="26"/>
-    </row>
-    <row r="72" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI71" s="17"/>
+    </row>
+    <row r="72" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
       <c r="H72" s="12" t="s">
         <v>6</v>
       </c>
@@ -4101,18 +3959,16 @@
       <c r="AF72" s="13"/>
       <c r="AG72" s="13"/>
       <c r="AH72" s="13"/>
-      <c r="AI72" s="13"/>
-      <c r="AJ72" s="13"/>
-      <c r="AK72" s="26"/>
-    </row>
-    <row r="73" spans="1:37" ht="13" customHeight="1">
+      <c r="AI72" s="17"/>
+    </row>
+    <row r="73" spans="1:35" ht="13" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
       <c r="H73" s="10" t="s">
         <v>0</v>
       </c>
@@ -4142,18 +3998,16 @@
       <c r="AF73" s="11"/>
       <c r="AG73" s="11"/>
       <c r="AH73" s="11"/>
-      <c r="AI73" s="11"/>
-      <c r="AJ73" s="11"/>
-      <c r="AK73" s="26"/>
-    </row>
-    <row r="74" spans="1:37" ht="12" customHeight="1">
+      <c r="AI73" s="17"/>
+    </row>
+    <row r="74" spans="1:35" ht="12" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="7" t="s">
         <v>1</v>
       </c>
@@ -4183,18 +4037,16 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
-      <c r="AK74" s="26"/>
-    </row>
-    <row r="75" spans="1:37" ht="12" customHeight="1">
+      <c r="AI74" s="17"/>
+    </row>
+    <row r="75" spans="1:35" ht="12" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
       <c r="H75" s="7" t="s">
         <v>2</v>
       </c>
@@ -4224,18 +4076,16 @@
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="26"/>
-    </row>
-    <row r="76" spans="1:37" ht="12" customHeight="1">
+      <c r="AI75" s="17"/>
+    </row>
+    <row r="76" spans="1:35" ht="12" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
       <c r="H76" s="7" t="s">
         <v>3</v>
       </c>
@@ -4265,18 +4115,16 @@
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
-      <c r="AK76" s="26"/>
-    </row>
-    <row r="77" spans="1:37" ht="12" customHeight="1">
+      <c r="AI76" s="17"/>
+    </row>
+    <row r="77" spans="1:35" ht="12" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
       <c r="H77" s="14" t="s">
         <v>5</v>
       </c>
@@ -4306,18 +4154,16 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="26"/>
-    </row>
-    <row r="78" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI77" s="17"/>
+    </row>
+    <row r="78" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
       <c r="H78" s="12" t="s">
         <v>6</v>
       </c>
@@ -4347,18 +4193,16 @@
       <c r="AF78" s="13"/>
       <c r="AG78" s="13"/>
       <c r="AH78" s="13"/>
-      <c r="AI78" s="13"/>
-      <c r="AJ78" s="13"/>
-      <c r="AK78" s="26"/>
-    </row>
-    <row r="79" spans="1:37" ht="13" customHeight="1">
+      <c r="AI78" s="17"/>
+    </row>
+    <row r="79" spans="1:35" ht="13" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
       <c r="H79" s="10" t="s">
         <v>0</v>
       </c>
@@ -4388,18 +4232,16 @@
       <c r="AF79" s="11"/>
       <c r="AG79" s="11"/>
       <c r="AH79" s="11"/>
-      <c r="AI79" s="11"/>
-      <c r="AJ79" s="11"/>
-      <c r="AK79" s="26"/>
-    </row>
-    <row r="80" spans="1:37" ht="12" customHeight="1">
+      <c r="AI79" s="17"/>
+    </row>
+    <row r="80" spans="1:35" ht="12" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
       <c r="H80" s="7" t="s">
         <v>1</v>
       </c>
@@ -4429,18 +4271,16 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="26"/>
-    </row>
-    <row r="81" spans="1:37" ht="12" customHeight="1">
+      <c r="AI80" s="17"/>
+    </row>
+    <row r="81" spans="1:35" ht="12" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
       <c r="H81" s="7" t="s">
         <v>2</v>
       </c>
@@ -4470,18 +4310,16 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="26"/>
-    </row>
-    <row r="82" spans="1:37" ht="12" customHeight="1">
+      <c r="AI81" s="17"/>
+    </row>
+    <row r="82" spans="1:35" ht="12" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
       <c r="H82" s="7" t="s">
         <v>3</v>
       </c>
@@ -4511,18 +4349,16 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="26"/>
-    </row>
-    <row r="83" spans="1:37" ht="12" customHeight="1">
+      <c r="AI82" s="17"/>
+    </row>
+    <row r="83" spans="1:35" ht="12" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
       <c r="H83" s="14" t="s">
         <v>5</v>
       </c>
@@ -4552,18 +4388,16 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="26"/>
-    </row>
-    <row r="84" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI83" s="17"/>
+    </row>
+    <row r="84" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
       <c r="H84" s="12" t="s">
         <v>6</v>
       </c>
@@ -4593,18 +4427,16 @@
       <c r="AF84" s="13"/>
       <c r="AG84" s="13"/>
       <c r="AH84" s="13"/>
-      <c r="AI84" s="13"/>
-      <c r="AJ84" s="13"/>
-      <c r="AK84" s="26"/>
-    </row>
-    <row r="85" spans="1:37" ht="13" customHeight="1">
+      <c r="AI84" s="17"/>
+    </row>
+    <row r="85" spans="1:35" ht="13" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
       <c r="H85" s="10" t="s">
         <v>0</v>
       </c>
@@ -4634,18 +4466,16 @@
       <c r="AF85" s="11"/>
       <c r="AG85" s="11"/>
       <c r="AH85" s="11"/>
-      <c r="AI85" s="11"/>
-      <c r="AJ85" s="11"/>
-      <c r="AK85" s="26"/>
-    </row>
-    <row r="86" spans="1:37" ht="12" customHeight="1">
+      <c r="AI85" s="17"/>
+    </row>
+    <row r="86" spans="1:35" ht="12" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
       <c r="H86" s="7" t="s">
         <v>1</v>
       </c>
@@ -4675,18 +4505,16 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="26"/>
-    </row>
-    <row r="87" spans="1:37" ht="12" customHeight="1">
+      <c r="AI86" s="17"/>
+    </row>
+    <row r="87" spans="1:35" ht="12" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
       <c r="H87" s="7" t="s">
         <v>2</v>
       </c>
@@ -4716,18 +4544,16 @@
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="26"/>
-    </row>
-    <row r="88" spans="1:37" ht="12" customHeight="1">
+      <c r="AI87" s="17"/>
+    </row>
+    <row r="88" spans="1:35" ht="12" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
       <c r="H88" s="7" t="s">
         <v>3</v>
       </c>
@@ -4757,18 +4583,16 @@
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="26"/>
-    </row>
-    <row r="89" spans="1:37" ht="12" customHeight="1">
+      <c r="AI88" s="17"/>
+    </row>
+    <row r="89" spans="1:35" ht="12" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
       <c r="H89" s="14" t="s">
         <v>5</v>
       </c>
@@ -4798,18 +4622,16 @@
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="26"/>
-    </row>
-    <row r="90" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI89" s="17"/>
+    </row>
+    <row r="90" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
       <c r="H90" s="12" t="s">
         <v>6</v>
       </c>
@@ -4839,18 +4661,16 @@
       <c r="AF90" s="13"/>
       <c r="AG90" s="13"/>
       <c r="AH90" s="13"/>
-      <c r="AI90" s="13"/>
-      <c r="AJ90" s="13"/>
-      <c r="AK90" s="26"/>
-    </row>
-    <row r="91" spans="1:37" ht="13" customHeight="1">
+      <c r="AI90" s="17"/>
+    </row>
+    <row r="91" spans="1:35" ht="13" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
       <c r="H91" s="10" t="s">
         <v>0</v>
       </c>
@@ -4880,18 +4700,16 @@
       <c r="AF91" s="11"/>
       <c r="AG91" s="11"/>
       <c r="AH91" s="11"/>
-      <c r="AI91" s="11"/>
-      <c r="AJ91" s="11"/>
-      <c r="AK91" s="26"/>
-    </row>
-    <row r="92" spans="1:37" ht="12" customHeight="1">
+      <c r="AI91" s="17"/>
+    </row>
+    <row r="92" spans="1:35" ht="12" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
       <c r="H92" s="7" t="s">
         <v>1</v>
       </c>
@@ -4921,18 +4739,16 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="26"/>
-    </row>
-    <row r="93" spans="1:37" ht="12" customHeight="1">
+      <c r="AI92" s="17"/>
+    </row>
+    <row r="93" spans="1:35" ht="12" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
       <c r="H93" s="7" t="s">
         <v>2</v>
       </c>
@@ -4962,18 +4778,16 @@
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="26"/>
-    </row>
-    <row r="94" spans="1:37" ht="12" customHeight="1">
+      <c r="AI93" s="17"/>
+    </row>
+    <row r="94" spans="1:35" ht="12" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
       <c r="H94" s="7" t="s">
         <v>3</v>
       </c>
@@ -5003,18 +4817,16 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="26"/>
-    </row>
-    <row r="95" spans="1:37" ht="12" customHeight="1">
+      <c r="AI94" s="17"/>
+    </row>
+    <row r="95" spans="1:35" ht="12" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
       <c r="H95" s="14" t="s">
         <v>5</v>
       </c>
@@ -5044,18 +4856,16 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
-      <c r="AI95" s="1"/>
-      <c r="AJ95" s="1"/>
-      <c r="AK95" s="26"/>
-    </row>
-    <row r="96" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI95" s="17"/>
+    </row>
+    <row r="96" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
       <c r="H96" s="12" t="s">
         <v>6</v>
       </c>
@@ -5085,18 +4895,16 @@
       <c r="AF96" s="13"/>
       <c r="AG96" s="13"/>
       <c r="AH96" s="13"/>
-      <c r="AI96" s="13"/>
-      <c r="AJ96" s="13"/>
-      <c r="AK96" s="26"/>
-    </row>
-    <row r="97" spans="1:37" ht="13" customHeight="1">
+      <c r="AI96" s="17"/>
+    </row>
+    <row r="97" spans="1:35" ht="13" customHeight="1">
       <c r="A97" s="6"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
       <c r="H97" s="10" t="s">
         <v>0</v>
       </c>
@@ -5126,18 +4934,16 @@
       <c r="AF97" s="11"/>
       <c r="AG97" s="11"/>
       <c r="AH97" s="11"/>
-      <c r="AI97" s="11"/>
-      <c r="AJ97" s="11"/>
-      <c r="AK97" s="26"/>
-    </row>
-    <row r="98" spans="1:37" ht="12" customHeight="1">
+      <c r="AI97" s="17"/>
+    </row>
+    <row r="98" spans="1:35" ht="12" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
       <c r="H98" s="7" t="s">
         <v>1</v>
       </c>
@@ -5167,18 +4973,16 @@
       <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="26"/>
-    </row>
-    <row r="99" spans="1:37" ht="12" customHeight="1">
+      <c r="AI98" s="17"/>
+    </row>
+    <row r="99" spans="1:35" ht="12" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
       <c r="H99" s="7" t="s">
         <v>2</v>
       </c>
@@ -5208,18 +5012,16 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="26"/>
-    </row>
-    <row r="100" spans="1:37" ht="12" customHeight="1">
+      <c r="AI99" s="17"/>
+    </row>
+    <row r="100" spans="1:35" ht="12" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
       <c r="H100" s="7" t="s">
         <v>3</v>
       </c>
@@ -5249,18 +5051,16 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="26"/>
-    </row>
-    <row r="101" spans="1:37" ht="12" customHeight="1">
+      <c r="AI100" s="17"/>
+    </row>
+    <row r="101" spans="1:35" ht="12" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
       <c r="H101" s="14" t="s">
         <v>5</v>
       </c>
@@ -5290,18 +5090,16 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
-      <c r="AI101" s="1"/>
-      <c r="AJ101" s="1"/>
-      <c r="AK101" s="26"/>
-    </row>
-    <row r="102" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI101" s="17"/>
+    </row>
+    <row r="102" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
       <c r="H102" s="12" t="s">
         <v>6</v>
       </c>
@@ -5331,18 +5129,16 @@
       <c r="AF102" s="13"/>
       <c r="AG102" s="13"/>
       <c r="AH102" s="13"/>
-      <c r="AI102" s="13"/>
-      <c r="AJ102" s="13"/>
-      <c r="AK102" s="26"/>
-    </row>
-    <row r="103" spans="1:37" ht="13" customHeight="1">
+      <c r="AI102" s="17"/>
+    </row>
+    <row r="103" spans="1:35" ht="13" customHeight="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
       <c r="H103" s="10" t="s">
         <v>0</v>
       </c>
@@ -5372,18 +5168,16 @@
       <c r="AF103" s="11"/>
       <c r="AG103" s="11"/>
       <c r="AH103" s="11"/>
-      <c r="AI103" s="11"/>
-      <c r="AJ103" s="11"/>
-      <c r="AK103" s="26"/>
-    </row>
-    <row r="104" spans="1:37" ht="12" customHeight="1">
+      <c r="AI103" s="17"/>
+    </row>
+    <row r="104" spans="1:35" ht="12" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
       <c r="H104" s="7" t="s">
         <v>1</v>
       </c>
@@ -5413,18 +5207,16 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
-      <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
-      <c r="AK104" s="26"/>
-    </row>
-    <row r="105" spans="1:37" ht="12" customHeight="1">
+      <c r="AI104" s="17"/>
+    </row>
+    <row r="105" spans="1:35" ht="12" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
       <c r="H105" s="7" t="s">
         <v>2</v>
       </c>
@@ -5454,18 +5246,16 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
-      <c r="AI105" s="1"/>
-      <c r="AJ105" s="1"/>
-      <c r="AK105" s="26"/>
-    </row>
-    <row r="106" spans="1:37" ht="12" customHeight="1">
+      <c r="AI105" s="17"/>
+    </row>
+    <row r="106" spans="1:35" ht="12" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
       <c r="H106" s="7" t="s">
         <v>3</v>
       </c>
@@ -5495,18 +5285,16 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
-      <c r="AI106" s="1"/>
-      <c r="AJ106" s="1"/>
-      <c r="AK106" s="26"/>
-    </row>
-    <row r="107" spans="1:37" ht="12" customHeight="1">
+      <c r="AI106" s="17"/>
+    </row>
+    <row r="107" spans="1:35" ht="12" customHeight="1">
       <c r="A107" s="6"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
       <c r="H107" s="14" t="s">
         <v>5</v>
       </c>
@@ -5536,18 +5324,16 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
-      <c r="AI107" s="1"/>
-      <c r="AJ107" s="1"/>
-      <c r="AK107" s="26"/>
-    </row>
-    <row r="108" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI107" s="17"/>
+    </row>
+    <row r="108" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A108" s="6"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
       <c r="H108" s="12" t="s">
         <v>6</v>
       </c>
@@ -5577,18 +5363,16 @@
       <c r="AF108" s="13"/>
       <c r="AG108" s="13"/>
       <c r="AH108" s="13"/>
-      <c r="AI108" s="13"/>
-      <c r="AJ108" s="13"/>
-      <c r="AK108" s="26"/>
-    </row>
-    <row r="109" spans="1:37" ht="13" customHeight="1">
+      <c r="AI108" s="17"/>
+    </row>
+    <row r="109" spans="1:35" ht="13" customHeight="1">
       <c r="A109" s="6"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="10" t="s">
         <v>0</v>
       </c>
@@ -5618,18 +5402,16 @@
       <c r="AF109" s="11"/>
       <c r="AG109" s="11"/>
       <c r="AH109" s="11"/>
-      <c r="AI109" s="11"/>
-      <c r="AJ109" s="11"/>
-      <c r="AK109" s="26"/>
-    </row>
-    <row r="110" spans="1:37" ht="12" customHeight="1">
+      <c r="AI109" s="17"/>
+    </row>
+    <row r="110" spans="1:35" ht="12" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
       <c r="H110" s="7" t="s">
         <v>1</v>
       </c>
@@ -5659,18 +5441,16 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
-      <c r="AI110" s="1"/>
-      <c r="AJ110" s="1"/>
-      <c r="AK110" s="26"/>
-    </row>
-    <row r="111" spans="1:37" ht="12" customHeight="1">
+      <c r="AI110" s="17"/>
+    </row>
+    <row r="111" spans="1:35" ht="12" customHeight="1">
       <c r="A111" s="6"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
       <c r="H111" s="7" t="s">
         <v>2</v>
       </c>
@@ -5700,18 +5480,16 @@
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
-      <c r="AI111" s="1"/>
-      <c r="AJ111" s="1"/>
-      <c r="AK111" s="26"/>
-    </row>
-    <row r="112" spans="1:37" ht="12" customHeight="1">
+      <c r="AI111" s="17"/>
+    </row>
+    <row r="112" spans="1:35" ht="12" customHeight="1">
       <c r="A112" s="6"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
       <c r="H112" s="7" t="s">
         <v>3</v>
       </c>
@@ -5741,18 +5519,16 @@
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
-      <c r="AI112" s="1"/>
-      <c r="AJ112" s="1"/>
-      <c r="AK112" s="26"/>
-    </row>
-    <row r="113" spans="1:37" ht="12" customHeight="1">
+      <c r="AI112" s="17"/>
+    </row>
+    <row r="113" spans="1:35" ht="12" customHeight="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
       <c r="H113" s="14" t="s">
         <v>5</v>
       </c>
@@ -5782,18 +5558,16 @@
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
-      <c r="AI113" s="1"/>
-      <c r="AJ113" s="1"/>
-      <c r="AK113" s="26"/>
-    </row>
-    <row r="114" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI113" s="17"/>
+    </row>
+    <row r="114" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A114" s="6"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
       <c r="H114" s="12" t="s">
         <v>6</v>
       </c>
@@ -5823,18 +5597,16 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="13"/>
-      <c r="AI114" s="13"/>
-      <c r="AJ114" s="13"/>
-      <c r="AK114" s="26"/>
-    </row>
-    <row r="115" spans="1:37" ht="13" customHeight="1">
+      <c r="AI114" s="17"/>
+    </row>
+    <row r="115" spans="1:35" ht="13" customHeight="1">
       <c r="A115" s="6"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
       <c r="H115" s="10" t="s">
         <v>0</v>
       </c>
@@ -5864,18 +5636,16 @@
       <c r="AF115" s="11"/>
       <c r="AG115" s="11"/>
       <c r="AH115" s="11"/>
-      <c r="AI115" s="11"/>
-      <c r="AJ115" s="11"/>
-      <c r="AK115" s="26"/>
-    </row>
-    <row r="116" spans="1:37" ht="12" customHeight="1">
+      <c r="AI115" s="17"/>
+    </row>
+    <row r="116" spans="1:35" ht="12" customHeight="1">
       <c r="A116" s="6"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
       <c r="H116" s="7" t="s">
         <v>1</v>
       </c>
@@ -5905,18 +5675,16 @@
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
-      <c r="AI116" s="1"/>
-      <c r="AJ116" s="1"/>
-      <c r="AK116" s="26"/>
-    </row>
-    <row r="117" spans="1:37" ht="12" customHeight="1">
+      <c r="AI116" s="17"/>
+    </row>
+    <row r="117" spans="1:35" ht="12" customHeight="1">
       <c r="A117" s="6"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
       <c r="H117" s="7" t="s">
         <v>2</v>
       </c>
@@ -5946,18 +5714,16 @@
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
-      <c r="AI117" s="1"/>
-      <c r="AJ117" s="1"/>
-      <c r="AK117" s="26"/>
-    </row>
-    <row r="118" spans="1:37" ht="12" customHeight="1">
+      <c r="AI117" s="17"/>
+    </row>
+    <row r="118" spans="1:35" ht="12" customHeight="1">
       <c r="A118" s="6"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
       <c r="H118" s="7" t="s">
         <v>3</v>
       </c>
@@ -5987,18 +5753,16 @@
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
-      <c r="AI118" s="1"/>
-      <c r="AJ118" s="1"/>
-      <c r="AK118" s="26"/>
-    </row>
-    <row r="119" spans="1:37" ht="12" customHeight="1">
+      <c r="AI118" s="17"/>
+    </row>
+    <row r="119" spans="1:35" ht="12" customHeight="1">
       <c r="A119" s="6"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
       <c r="H119" s="14" t="s">
         <v>5</v>
       </c>
@@ -6028,18 +5792,16 @@
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
-      <c r="AI119" s="1"/>
-      <c r="AJ119" s="1"/>
-      <c r="AK119" s="26"/>
-    </row>
-    <row r="120" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI119" s="17"/>
+    </row>
+    <row r="120" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A120" s="6"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
       <c r="H120" s="12" t="s">
         <v>6</v>
       </c>
@@ -6069,18 +5831,16 @@
       <c r="AF120" s="13"/>
       <c r="AG120" s="13"/>
       <c r="AH120" s="13"/>
-      <c r="AI120" s="13"/>
-      <c r="AJ120" s="13"/>
-      <c r="AK120" s="26"/>
-    </row>
-    <row r="121" spans="1:37" ht="13" customHeight="1">
+      <c r="AI120" s="17"/>
+    </row>
+    <row r="121" spans="1:35" ht="13" customHeight="1">
       <c r="A121" s="6"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
       <c r="H121" s="10" t="s">
         <v>0</v>
       </c>
@@ -6110,18 +5870,16 @@
       <c r="AF121" s="11"/>
       <c r="AG121" s="11"/>
       <c r="AH121" s="11"/>
-      <c r="AI121" s="11"/>
-      <c r="AJ121" s="11"/>
-      <c r="AK121" s="26"/>
-    </row>
-    <row r="122" spans="1:37" ht="12" customHeight="1">
+      <c r="AI121" s="17"/>
+    </row>
+    <row r="122" spans="1:35" ht="12" customHeight="1">
       <c r="A122" s="6"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
       <c r="H122" s="7" t="s">
         <v>1</v>
       </c>
@@ -6151,18 +5909,16 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
-      <c r="AI122" s="1"/>
-      <c r="AJ122" s="1"/>
-      <c r="AK122" s="26"/>
-    </row>
-    <row r="123" spans="1:37" ht="12" customHeight="1">
+      <c r="AI122" s="17"/>
+    </row>
+    <row r="123" spans="1:35" ht="12" customHeight="1">
       <c r="A123" s="6"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
       <c r="H123" s="7" t="s">
         <v>2</v>
       </c>
@@ -6192,18 +5948,16 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
-      <c r="AI123" s="1"/>
-      <c r="AJ123" s="1"/>
-      <c r="AK123" s="26"/>
-    </row>
-    <row r="124" spans="1:37" ht="12" customHeight="1">
+      <c r="AI123" s="17"/>
+    </row>
+    <row r="124" spans="1:35" ht="12" customHeight="1">
       <c r="A124" s="6"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
       <c r="H124" s="7" t="s">
         <v>3</v>
       </c>
@@ -6233,18 +5987,16 @@
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
-      <c r="AI124" s="1"/>
-      <c r="AJ124" s="1"/>
-      <c r="AK124" s="26"/>
-    </row>
-    <row r="125" spans="1:37" ht="12" customHeight="1">
+      <c r="AI124" s="17"/>
+    </row>
+    <row r="125" spans="1:35" ht="12" customHeight="1">
       <c r="A125" s="6"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
       <c r="H125" s="14" t="s">
         <v>5</v>
       </c>
@@ -6274,18 +6026,16 @@
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
-      <c r="AI125" s="1"/>
-      <c r="AJ125" s="1"/>
-      <c r="AK125" s="26"/>
-    </row>
-    <row r="126" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI125" s="17"/>
+    </row>
+    <row r="126" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A126" s="6"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
       <c r="H126" s="12" t="s">
         <v>6</v>
       </c>
@@ -6315,18 +6065,16 @@
       <c r="AF126" s="13"/>
       <c r="AG126" s="13"/>
       <c r="AH126" s="13"/>
-      <c r="AI126" s="13"/>
-      <c r="AJ126" s="13"/>
-      <c r="AK126" s="26"/>
-    </row>
-    <row r="127" spans="1:37" ht="13" customHeight="1">
+      <c r="AI126" s="17"/>
+    </row>
+    <row r="127" spans="1:35" ht="13" customHeight="1">
       <c r="A127" s="6"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
       <c r="H127" s="10" t="s">
         <v>0</v>
       </c>
@@ -6356,18 +6104,16 @@
       <c r="AF127" s="11"/>
       <c r="AG127" s="11"/>
       <c r="AH127" s="11"/>
-      <c r="AI127" s="11"/>
-      <c r="AJ127" s="11"/>
-      <c r="AK127" s="26"/>
-    </row>
-    <row r="128" spans="1:37" ht="12" customHeight="1">
+      <c r="AI127" s="17"/>
+    </row>
+    <row r="128" spans="1:35" ht="12" customHeight="1">
       <c r="A128" s="6"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
       <c r="H128" s="7" t="s">
         <v>1</v>
       </c>
@@ -6397,18 +6143,16 @@
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
-      <c r="AI128" s="1"/>
-      <c r="AJ128" s="1"/>
-      <c r="AK128" s="26"/>
-    </row>
-    <row r="129" spans="1:37" ht="12" customHeight="1">
+      <c r="AI128" s="17"/>
+    </row>
+    <row r="129" spans="1:35" ht="12" customHeight="1">
       <c r="A129" s="6"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
       <c r="H129" s="7" t="s">
         <v>2</v>
       </c>
@@ -6438,18 +6182,16 @@
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
-      <c r="AI129" s="1"/>
-      <c r="AJ129" s="1"/>
-      <c r="AK129" s="26"/>
-    </row>
-    <row r="130" spans="1:37" ht="12" customHeight="1">
+      <c r="AI129" s="17"/>
+    </row>
+    <row r="130" spans="1:35" ht="12" customHeight="1">
       <c r="A130" s="6"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
       <c r="H130" s="7" t="s">
         <v>3</v>
       </c>
@@ -6479,18 +6221,16 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="1"/>
-      <c r="AJ130" s="1"/>
-      <c r="AK130" s="26"/>
-    </row>
-    <row r="131" spans="1:37" ht="12" customHeight="1">
+      <c r="AI130" s="17"/>
+    </row>
+    <row r="131" spans="1:35" ht="12" customHeight="1">
       <c r="A131" s="6"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
       <c r="H131" s="14" t="s">
         <v>5</v>
       </c>
@@ -6520,18 +6260,16 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
-      <c r="AI131" s="1"/>
-      <c r="AJ131" s="1"/>
-      <c r="AK131" s="26"/>
-    </row>
-    <row r="132" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI131" s="17"/>
+    </row>
+    <row r="132" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A132" s="6"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
       <c r="H132" s="12" t="s">
         <v>6</v>
       </c>
@@ -6561,18 +6299,16 @@
       <c r="AF132" s="13"/>
       <c r="AG132" s="13"/>
       <c r="AH132" s="13"/>
-      <c r="AI132" s="13"/>
-      <c r="AJ132" s="13"/>
-      <c r="AK132" s="26"/>
-    </row>
-    <row r="133" spans="1:37" ht="13" customHeight="1">
+      <c r="AI132" s="17"/>
+    </row>
+    <row r="133" spans="1:35" ht="13" customHeight="1">
       <c r="A133" s="6"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
       <c r="H133" s="10" t="s">
         <v>0</v>
       </c>
@@ -6602,18 +6338,16 @@
       <c r="AF133" s="11"/>
       <c r="AG133" s="11"/>
       <c r="AH133" s="11"/>
-      <c r="AI133" s="11"/>
-      <c r="AJ133" s="11"/>
-      <c r="AK133" s="26"/>
-    </row>
-    <row r="134" spans="1:37" ht="12" customHeight="1">
+      <c r="AI133" s="17"/>
+    </row>
+    <row r="134" spans="1:35" ht="12" customHeight="1">
       <c r="A134" s="6"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
       <c r="H134" s="7" t="s">
         <v>1</v>
       </c>
@@ -6643,18 +6377,16 @@
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
       <c r="AH134" s="1"/>
-      <c r="AI134" s="1"/>
-      <c r="AJ134" s="1"/>
-      <c r="AK134" s="26"/>
-    </row>
-    <row r="135" spans="1:37" ht="12" customHeight="1">
+      <c r="AI134" s="17"/>
+    </row>
+    <row r="135" spans="1:35" ht="12" customHeight="1">
       <c r="A135" s="6"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
       <c r="H135" s="7" t="s">
         <v>2</v>
       </c>
@@ -6684,18 +6416,16 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
-      <c r="AI135" s="1"/>
-      <c r="AJ135" s="1"/>
-      <c r="AK135" s="26"/>
-    </row>
-    <row r="136" spans="1:37" ht="12" customHeight="1">
+      <c r="AI135" s="17"/>
+    </row>
+    <row r="136" spans="1:35" ht="12" customHeight="1">
       <c r="A136" s="6"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
       <c r="H136" s="7" t="s">
         <v>3</v>
       </c>
@@ -6725,18 +6455,16 @@
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
-      <c r="AI136" s="1"/>
-      <c r="AJ136" s="1"/>
-      <c r="AK136" s="26"/>
-    </row>
-    <row r="137" spans="1:37" ht="12" customHeight="1">
+      <c r="AI136" s="17"/>
+    </row>
+    <row r="137" spans="1:35" ht="12" customHeight="1">
       <c r="A137" s="6"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
       <c r="H137" s="14" t="s">
         <v>5</v>
       </c>
@@ -6766,18 +6494,16 @@
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
-      <c r="AI137" s="1"/>
-      <c r="AJ137" s="1"/>
-      <c r="AK137" s="26"/>
-    </row>
-    <row r="138" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI137" s="17"/>
+    </row>
+    <row r="138" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A138" s="6"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
       <c r="H138" s="12" t="s">
         <v>6</v>
       </c>
@@ -6807,18 +6533,16 @@
       <c r="AF138" s="13"/>
       <c r="AG138" s="13"/>
       <c r="AH138" s="13"/>
-      <c r="AI138" s="13"/>
-      <c r="AJ138" s="13"/>
-      <c r="AK138" s="26"/>
-    </row>
-    <row r="139" spans="1:37" ht="13" customHeight="1">
+      <c r="AI138" s="17"/>
+    </row>
+    <row r="139" spans="1:35" ht="13" customHeight="1">
       <c r="A139" s="6"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
       <c r="H139" s="10" t="s">
         <v>0</v>
       </c>
@@ -6848,18 +6572,16 @@
       <c r="AF139" s="11"/>
       <c r="AG139" s="11"/>
       <c r="AH139" s="11"/>
-      <c r="AI139" s="11"/>
-      <c r="AJ139" s="11"/>
-      <c r="AK139" s="26"/>
-    </row>
-    <row r="140" spans="1:37" ht="12" customHeight="1">
+      <c r="AI139" s="17"/>
+    </row>
+    <row r="140" spans="1:35" ht="12" customHeight="1">
       <c r="A140" s="6"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
       <c r="H140" s="7" t="s">
         <v>1</v>
       </c>
@@ -6889,18 +6611,16 @@
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
-      <c r="AI140" s="1"/>
-      <c r="AJ140" s="1"/>
-      <c r="AK140" s="26"/>
-    </row>
-    <row r="141" spans="1:37" ht="12" customHeight="1">
+      <c r="AI140" s="17"/>
+    </row>
+    <row r="141" spans="1:35" ht="12" customHeight="1">
       <c r="A141" s="6"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35"/>
       <c r="H141" s="7" t="s">
         <v>2</v>
       </c>
@@ -6930,18 +6650,16 @@
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
       <c r="AH141" s="1"/>
-      <c r="AI141" s="1"/>
-      <c r="AJ141" s="1"/>
-      <c r="AK141" s="26"/>
-    </row>
-    <row r="142" spans="1:37" ht="12" customHeight="1">
+      <c r="AI141" s="17"/>
+    </row>
+    <row r="142" spans="1:35" ht="12" customHeight="1">
       <c r="A142" s="6"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
       <c r="H142" s="7" t="s">
         <v>3</v>
       </c>
@@ -6971,18 +6689,16 @@
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
       <c r="AH142" s="1"/>
-      <c r="AI142" s="1"/>
-      <c r="AJ142" s="1"/>
-      <c r="AK142" s="26"/>
-    </row>
-    <row r="143" spans="1:37" ht="12" customHeight="1">
+      <c r="AI142" s="17"/>
+    </row>
+    <row r="143" spans="1:35" ht="12" customHeight="1">
       <c r="A143" s="6"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
       <c r="H143" s="14" t="s">
         <v>5</v>
       </c>
@@ -7012,18 +6728,16 @@
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
       <c r="AH143" s="1"/>
-      <c r="AI143" s="1"/>
-      <c r="AJ143" s="1"/>
-      <c r="AK143" s="26"/>
-    </row>
-    <row r="144" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI143" s="17"/>
+    </row>
+    <row r="144" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A144" s="6"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
       <c r="H144" s="12" t="s">
         <v>6</v>
       </c>
@@ -7053,18 +6767,16 @@
       <c r="AF144" s="13"/>
       <c r="AG144" s="13"/>
       <c r="AH144" s="13"/>
-      <c r="AI144" s="13"/>
-      <c r="AJ144" s="13"/>
-      <c r="AK144" s="26"/>
-    </row>
-    <row r="145" spans="1:37" ht="13" customHeight="1">
+      <c r="AI144" s="17"/>
+    </row>
+    <row r="145" spans="1:35" ht="13" customHeight="1">
       <c r="A145" s="6"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
       <c r="H145" s="10" t="s">
         <v>0</v>
       </c>
@@ -7094,18 +6806,16 @@
       <c r="AF145" s="11"/>
       <c r="AG145" s="11"/>
       <c r="AH145" s="11"/>
-      <c r="AI145" s="11"/>
-      <c r="AJ145" s="11"/>
-      <c r="AK145" s="26"/>
-    </row>
-    <row r="146" spans="1:37" ht="12" customHeight="1">
+      <c r="AI145" s="17"/>
+    </row>
+    <row r="146" spans="1:35" ht="12" customHeight="1">
       <c r="A146" s="6"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35"/>
       <c r="H146" s="7" t="s">
         <v>1</v>
       </c>
@@ -7135,18 +6845,16 @@
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
-      <c r="AI146" s="1"/>
-      <c r="AJ146" s="1"/>
-      <c r="AK146" s="26"/>
-    </row>
-    <row r="147" spans="1:37" ht="12" customHeight="1">
+      <c r="AI146" s="17"/>
+    </row>
+    <row r="147" spans="1:35" ht="12" customHeight="1">
       <c r="A147" s="6"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
       <c r="H147" s="7" t="s">
         <v>2</v>
       </c>
@@ -7176,18 +6884,16 @@
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
-      <c r="AI147" s="1"/>
-      <c r="AJ147" s="1"/>
-      <c r="AK147" s="26"/>
-    </row>
-    <row r="148" spans="1:37" ht="12" customHeight="1">
+      <c r="AI147" s="17"/>
+    </row>
+    <row r="148" spans="1:35" ht="12" customHeight="1">
       <c r="A148" s="6"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="35"/>
       <c r="H148" s="7" t="s">
         <v>3</v>
       </c>
@@ -7217,18 +6923,16 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
-      <c r="AI148" s="1"/>
-      <c r="AJ148" s="1"/>
-      <c r="AK148" s="26"/>
-    </row>
-    <row r="149" spans="1:37" ht="12" customHeight="1">
+      <c r="AI148" s="17"/>
+    </row>
+    <row r="149" spans="1:35" ht="12" customHeight="1">
       <c r="A149" s="6"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35"/>
       <c r="H149" s="14" t="s">
         <v>5</v>
       </c>
@@ -7258,18 +6962,16 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
-      <c r="AI149" s="1"/>
-      <c r="AJ149" s="1"/>
-      <c r="AK149" s="26"/>
-    </row>
-    <row r="150" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI149" s="17"/>
+    </row>
+    <row r="150" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A150" s="6"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
       <c r="H150" s="12" t="s">
         <v>6</v>
       </c>
@@ -7299,18 +7001,16 @@
       <c r="AF150" s="13"/>
       <c r="AG150" s="13"/>
       <c r="AH150" s="13"/>
-      <c r="AI150" s="13"/>
-      <c r="AJ150" s="13"/>
-      <c r="AK150" s="26"/>
-    </row>
-    <row r="151" spans="1:37" ht="13" customHeight="1">
+      <c r="AI150" s="17"/>
+    </row>
+    <row r="151" spans="1:35" ht="13" customHeight="1">
       <c r="A151" s="6"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
       <c r="H151" s="10" t="s">
         <v>0</v>
       </c>
@@ -7340,18 +7040,16 @@
       <c r="AF151" s="11"/>
       <c r="AG151" s="11"/>
       <c r="AH151" s="11"/>
-      <c r="AI151" s="11"/>
-      <c r="AJ151" s="11"/>
-      <c r="AK151" s="26"/>
-    </row>
-    <row r="152" spans="1:37" ht="12" customHeight="1">
+      <c r="AI151" s="17"/>
+    </row>
+    <row r="152" spans="1:35" ht="12" customHeight="1">
       <c r="A152" s="6"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
       <c r="H152" s="7" t="s">
         <v>1</v>
       </c>
@@ -7381,18 +7079,16 @@
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
       <c r="AH152" s="1"/>
-      <c r="AI152" s="1"/>
-      <c r="AJ152" s="1"/>
-      <c r="AK152" s="26"/>
-    </row>
-    <row r="153" spans="1:37" ht="12" customHeight="1">
+      <c r="AI152" s="17"/>
+    </row>
+    <row r="153" spans="1:35" ht="12" customHeight="1">
       <c r="A153" s="6"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="35"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="35"/>
       <c r="H153" s="7" t="s">
         <v>2</v>
       </c>
@@ -7422,18 +7118,16 @@
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
       <c r="AH153" s="1"/>
-      <c r="AI153" s="1"/>
-      <c r="AJ153" s="1"/>
-      <c r="AK153" s="26"/>
-    </row>
-    <row r="154" spans="1:37" ht="12" customHeight="1">
+      <c r="AI153" s="17"/>
+    </row>
+    <row r="154" spans="1:35" ht="12" customHeight="1">
       <c r="A154" s="6"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
       <c r="H154" s="7" t="s">
         <v>3</v>
       </c>
@@ -7463,18 +7157,16 @@
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
-      <c r="AI154" s="1"/>
-      <c r="AJ154" s="1"/>
-      <c r="AK154" s="26"/>
-    </row>
-    <row r="155" spans="1:37" ht="12" customHeight="1">
+      <c r="AI154" s="17"/>
+    </row>
+    <row r="155" spans="1:35" ht="12" customHeight="1">
       <c r="A155" s="6"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="35"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
       <c r="H155" s="14" t="s">
         <v>5</v>
       </c>
@@ -7504,18 +7196,16 @@
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
-      <c r="AI155" s="1"/>
-      <c r="AJ155" s="1"/>
-      <c r="AK155" s="26"/>
-    </row>
-    <row r="156" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI155" s="17"/>
+    </row>
+    <row r="156" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A156" s="6"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
       <c r="H156" s="12" t="s">
         <v>6</v>
       </c>
@@ -7545,18 +7235,16 @@
       <c r="AF156" s="13"/>
       <c r="AG156" s="13"/>
       <c r="AH156" s="13"/>
-      <c r="AI156" s="13"/>
-      <c r="AJ156" s="13"/>
-      <c r="AK156" s="26"/>
-    </row>
-    <row r="157" spans="1:37" ht="13" customHeight="1">
+      <c r="AI156" s="17"/>
+    </row>
+    <row r="157" spans="1:35" ht="13" customHeight="1">
       <c r="A157" s="6"/>
-      <c r="B157" s="22"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
       <c r="H157" s="10" t="s">
         <v>0</v>
       </c>
@@ -7586,18 +7274,16 @@
       <c r="AF157" s="11"/>
       <c r="AG157" s="11"/>
       <c r="AH157" s="11"/>
-      <c r="AI157" s="11"/>
-      <c r="AJ157" s="11"/>
-      <c r="AK157" s="26"/>
-    </row>
-    <row r="158" spans="1:37" ht="12" customHeight="1">
+      <c r="AI157" s="17"/>
+    </row>
+    <row r="158" spans="1:35" ht="12" customHeight="1">
       <c r="A158" s="6"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
       <c r="H158" s="7" t="s">
         <v>1</v>
       </c>
@@ -7627,18 +7313,16 @@
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
-      <c r="AI158" s="1"/>
-      <c r="AJ158" s="1"/>
-      <c r="AK158" s="26"/>
-    </row>
-    <row r="159" spans="1:37" ht="12" customHeight="1">
+      <c r="AI158" s="17"/>
+    </row>
+    <row r="159" spans="1:35" ht="12" customHeight="1">
       <c r="A159" s="6"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="35"/>
       <c r="H159" s="7" t="s">
         <v>2</v>
       </c>
@@ -7668,18 +7352,16 @@
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
-      <c r="AI159" s="1"/>
-      <c r="AJ159" s="1"/>
-      <c r="AK159" s="26"/>
-    </row>
-    <row r="160" spans="1:37" ht="12" customHeight="1">
+      <c r="AI159" s="17"/>
+    </row>
+    <row r="160" spans="1:35" ht="12" customHeight="1">
       <c r="A160" s="6"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
       <c r="H160" s="7" t="s">
         <v>3</v>
       </c>
@@ -7709,18 +7391,16 @@
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
-      <c r="AI160" s="1"/>
-      <c r="AJ160" s="1"/>
-      <c r="AK160" s="26"/>
-    </row>
-    <row r="161" spans="1:37" ht="12" customHeight="1">
+      <c r="AI160" s="17"/>
+    </row>
+    <row r="161" spans="1:35" ht="12" customHeight="1">
       <c r="A161" s="6"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="35"/>
       <c r="H161" s="14" t="s">
         <v>5</v>
       </c>
@@ -7750,18 +7430,16 @@
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="1"/>
-      <c r="AJ161" s="1"/>
-      <c r="AK161" s="26"/>
-    </row>
-    <row r="162" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI161" s="17"/>
+    </row>
+    <row r="162" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A162" s="6"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
       <c r="H162" s="12" t="s">
         <v>6</v>
       </c>
@@ -7791,18 +7469,16 @@
       <c r="AF162" s="13"/>
       <c r="AG162" s="13"/>
       <c r="AH162" s="13"/>
-      <c r="AI162" s="13"/>
-      <c r="AJ162" s="13"/>
-      <c r="AK162" s="26"/>
-    </row>
-    <row r="163" spans="1:37" ht="13" customHeight="1">
+      <c r="AI162" s="17"/>
+    </row>
+    <row r="163" spans="1:35" ht="13" customHeight="1">
       <c r="A163" s="6"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
       <c r="H163" s="10" t="s">
         <v>0</v>
       </c>
@@ -7832,18 +7508,16 @@
       <c r="AF163" s="11"/>
       <c r="AG163" s="11"/>
       <c r="AH163" s="11"/>
-      <c r="AI163" s="11"/>
-      <c r="AJ163" s="11"/>
-      <c r="AK163" s="26"/>
-    </row>
-    <row r="164" spans="1:37" ht="12" customHeight="1">
+      <c r="AI163" s="17"/>
+    </row>
+    <row r="164" spans="1:35" ht="12" customHeight="1">
       <c r="A164" s="6"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="35"/>
+      <c r="F164" s="35"/>
+      <c r="G164" s="35"/>
       <c r="H164" s="7" t="s">
         <v>1</v>
       </c>
@@ -7873,18 +7547,16 @@
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
-      <c r="AI164" s="1"/>
-      <c r="AJ164" s="1"/>
-      <c r="AK164" s="26"/>
-    </row>
-    <row r="165" spans="1:37" ht="12" customHeight="1">
+      <c r="AI164" s="17"/>
+    </row>
+    <row r="165" spans="1:35" ht="12" customHeight="1">
       <c r="A165" s="6"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="35"/>
       <c r="H165" s="7" t="s">
         <v>2</v>
       </c>
@@ -7914,18 +7586,16 @@
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
       <c r="AH165" s="1"/>
-      <c r="AI165" s="1"/>
-      <c r="AJ165" s="1"/>
-      <c r="AK165" s="26"/>
-    </row>
-    <row r="166" spans="1:37" ht="12" customHeight="1">
+      <c r="AI165" s="17"/>
+    </row>
+    <row r="166" spans="1:35" ht="12" customHeight="1">
       <c r="A166" s="6"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
       <c r="H166" s="7" t="s">
         <v>3</v>
       </c>
@@ -7955,18 +7625,16 @@
       <c r="AF166" s="1"/>
       <c r="AG166" s="1"/>
       <c r="AH166" s="1"/>
-      <c r="AI166" s="1"/>
-      <c r="AJ166" s="1"/>
-      <c r="AK166" s="26"/>
-    </row>
-    <row r="167" spans="1:37" ht="12" customHeight="1">
+      <c r="AI166" s="17"/>
+    </row>
+    <row r="167" spans="1:35" ht="12" customHeight="1">
       <c r="A167" s="6"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
       <c r="H167" s="14" t="s">
         <v>5</v>
       </c>
@@ -7996,18 +7664,16 @@
       <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
       <c r="AH167" s="1"/>
-      <c r="AI167" s="1"/>
-      <c r="AJ167" s="1"/>
-      <c r="AK167" s="26"/>
-    </row>
-    <row r="168" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI167" s="17"/>
+    </row>
+    <row r="168" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A168" s="6"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="37"/>
       <c r="H168" s="12" t="s">
         <v>6</v>
       </c>
@@ -8037,18 +7703,16 @@
       <c r="AF168" s="13"/>
       <c r="AG168" s="13"/>
       <c r="AH168" s="13"/>
-      <c r="AI168" s="13"/>
-      <c r="AJ168" s="13"/>
-      <c r="AK168" s="26"/>
-    </row>
-    <row r="169" spans="1:37" ht="13" customHeight="1">
+      <c r="AI168" s="17"/>
+    </row>
+    <row r="169" spans="1:35" ht="13" customHeight="1">
       <c r="A169" s="6"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="16"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33"/>
       <c r="H169" s="10" t="s">
         <v>0</v>
       </c>
@@ -8078,18 +7742,16 @@
       <c r="AF169" s="11"/>
       <c r="AG169" s="11"/>
       <c r="AH169" s="11"/>
-      <c r="AI169" s="11"/>
-      <c r="AJ169" s="11"/>
-      <c r="AK169" s="26"/>
-    </row>
-    <row r="170" spans="1:37" ht="12" customHeight="1">
+      <c r="AI169" s="17"/>
+    </row>
+    <row r="170" spans="1:35" ht="12" customHeight="1">
       <c r="A170" s="6"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
       <c r="H170" s="7" t="s">
         <v>1</v>
       </c>
@@ -8119,18 +7781,16 @@
       <c r="AF170" s="1"/>
       <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
-      <c r="AI170" s="1"/>
-      <c r="AJ170" s="1"/>
-      <c r="AK170" s="26"/>
-    </row>
-    <row r="171" spans="1:37" ht="12" customHeight="1">
+      <c r="AI170" s="17"/>
+    </row>
+    <row r="171" spans="1:35" ht="12" customHeight="1">
       <c r="A171" s="6"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="35"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="35"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="35"/>
       <c r="H171" s="7" t="s">
         <v>2</v>
       </c>
@@ -8160,18 +7820,16 @@
       <c r="AF171" s="1"/>
       <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
-      <c r="AI171" s="1"/>
-      <c r="AJ171" s="1"/>
-      <c r="AK171" s="26"/>
-    </row>
-    <row r="172" spans="1:37" ht="12" customHeight="1">
+      <c r="AI171" s="17"/>
+    </row>
+    <row r="172" spans="1:35" ht="12" customHeight="1">
       <c r="A172" s="6"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="35"/>
+      <c r="D172" s="35"/>
+      <c r="E172" s="35"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
       <c r="H172" s="7" t="s">
         <v>3</v>
       </c>
@@ -8201,18 +7859,16 @@
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
       <c r="AH172" s="1"/>
-      <c r="AI172" s="1"/>
-      <c r="AJ172" s="1"/>
-      <c r="AK172" s="26"/>
-    </row>
-    <row r="173" spans="1:37" ht="12" customHeight="1">
+      <c r="AI172" s="17"/>
+    </row>
+    <row r="173" spans="1:35" ht="12" customHeight="1">
       <c r="A173" s="6"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="35"/>
+      <c r="E173" s="35"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
       <c r="H173" s="14" t="s">
         <v>5</v>
       </c>
@@ -8242,18 +7898,16 @@
       <c r="AF173" s="1"/>
       <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
-      <c r="AI173" s="1"/>
-      <c r="AJ173" s="1"/>
-      <c r="AK173" s="26"/>
-    </row>
-    <row r="174" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI173" s="17"/>
+    </row>
+    <row r="174" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A174" s="6"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
       <c r="H174" s="12" t="s">
         <v>6</v>
       </c>
@@ -8283,18 +7937,16 @@
       <c r="AF174" s="13"/>
       <c r="AG174" s="13"/>
       <c r="AH174" s="13"/>
-      <c r="AI174" s="13"/>
-      <c r="AJ174" s="13"/>
-      <c r="AK174" s="26"/>
-    </row>
-    <row r="175" spans="1:37" ht="13" customHeight="1">
+      <c r="AI174" s="17"/>
+    </row>
+    <row r="175" spans="1:35" ht="13" customHeight="1">
       <c r="A175" s="6"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33"/>
       <c r="H175" s="10" t="s">
         <v>0</v>
       </c>
@@ -8324,18 +7976,16 @@
       <c r="AF175" s="11"/>
       <c r="AG175" s="11"/>
       <c r="AH175" s="11"/>
-      <c r="AI175" s="11"/>
-      <c r="AJ175" s="11"/>
-      <c r="AK175" s="26"/>
-    </row>
-    <row r="176" spans="1:37" ht="12" customHeight="1">
+      <c r="AI175" s="17"/>
+    </row>
+    <row r="176" spans="1:35" ht="12" customHeight="1">
       <c r="A176" s="6"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="35"/>
+      <c r="E176" s="35"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
       <c r="H176" s="7" t="s">
         <v>1</v>
       </c>
@@ -8365,18 +8015,16 @@
       <c r="AF176" s="1"/>
       <c r="AG176" s="1"/>
       <c r="AH176" s="1"/>
-      <c r="AI176" s="1"/>
-      <c r="AJ176" s="1"/>
-      <c r="AK176" s="26"/>
-    </row>
-    <row r="177" spans="1:37" ht="12" customHeight="1">
+      <c r="AI176" s="17"/>
+    </row>
+    <row r="177" spans="1:35" ht="12" customHeight="1">
       <c r="A177" s="6"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="35"/>
+      <c r="F177" s="35"/>
+      <c r="G177" s="35"/>
       <c r="H177" s="7" t="s">
         <v>2</v>
       </c>
@@ -8406,18 +8054,16 @@
       <c r="AF177" s="1"/>
       <c r="AG177" s="1"/>
       <c r="AH177" s="1"/>
-      <c r="AI177" s="1"/>
-      <c r="AJ177" s="1"/>
-      <c r="AK177" s="26"/>
-    </row>
-    <row r="178" spans="1:37" ht="12" customHeight="1">
+      <c r="AI177" s="17"/>
+    </row>
+    <row r="178" spans="1:35" ht="12" customHeight="1">
       <c r="A178" s="6"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="35"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="35"/>
+      <c r="F178" s="35"/>
+      <c r="G178" s="35"/>
       <c r="H178" s="7" t="s">
         <v>3</v>
       </c>
@@ -8447,18 +8093,16 @@
       <c r="AF178" s="1"/>
       <c r="AG178" s="1"/>
       <c r="AH178" s="1"/>
-      <c r="AI178" s="1"/>
-      <c r="AJ178" s="1"/>
-      <c r="AK178" s="26"/>
-    </row>
-    <row r="179" spans="1:37" ht="12" customHeight="1">
+      <c r="AI178" s="17"/>
+    </row>
+    <row r="179" spans="1:35" ht="12" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="35"/>
+      <c r="E179" s="35"/>
+      <c r="F179" s="35"/>
+      <c r="G179" s="35"/>
       <c r="H179" s="14" t="s">
         <v>5</v>
       </c>
@@ -8488,18 +8132,16 @@
       <c r="AF179" s="1"/>
       <c r="AG179" s="1"/>
       <c r="AH179" s="1"/>
-      <c r="AI179" s="1"/>
-      <c r="AJ179" s="1"/>
-      <c r="AK179" s="26"/>
-    </row>
-    <row r="180" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI179" s="17"/>
+    </row>
+    <row r="180" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A180" s="6"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37"/>
       <c r="H180" s="12" t="s">
         <v>6</v>
       </c>
@@ -8529,18 +8171,16 @@
       <c r="AF180" s="13"/>
       <c r="AG180" s="13"/>
       <c r="AH180" s="13"/>
-      <c r="AI180" s="13"/>
-      <c r="AJ180" s="13"/>
-      <c r="AK180" s="26"/>
-    </row>
-    <row r="181" spans="1:37" ht="13" customHeight="1">
+      <c r="AI180" s="17"/>
+    </row>
+    <row r="181" spans="1:35" ht="13" customHeight="1">
       <c r="A181" s="6"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="16"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33"/>
       <c r="H181" s="10" t="s">
         <v>0</v>
       </c>
@@ -8570,18 +8210,16 @@
       <c r="AF181" s="11"/>
       <c r="AG181" s="11"/>
       <c r="AH181" s="11"/>
-      <c r="AI181" s="11"/>
-      <c r="AJ181" s="11"/>
-      <c r="AK181" s="26"/>
-    </row>
-    <row r="182" spans="1:37" ht="12" customHeight="1">
+      <c r="AI181" s="17"/>
+    </row>
+    <row r="182" spans="1:35" ht="12" customHeight="1">
       <c r="A182" s="6"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="35"/>
+      <c r="G182" s="35"/>
       <c r="H182" s="7" t="s">
         <v>1</v>
       </c>
@@ -8611,18 +8249,16 @@
       <c r="AF182" s="1"/>
       <c r="AG182" s="1"/>
       <c r="AH182" s="1"/>
-      <c r="AI182" s="1"/>
-      <c r="AJ182" s="1"/>
-      <c r="AK182" s="26"/>
-    </row>
-    <row r="183" spans="1:37" ht="12" customHeight="1">
+      <c r="AI182" s="17"/>
+    </row>
+    <row r="183" spans="1:35" ht="12" customHeight="1">
       <c r="A183" s="6"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="35"/>
+      <c r="F183" s="35"/>
+      <c r="G183" s="35"/>
       <c r="H183" s="7" t="s">
         <v>2</v>
       </c>
@@ -8652,18 +8288,16 @@
       <c r="AF183" s="1"/>
       <c r="AG183" s="1"/>
       <c r="AH183" s="1"/>
-      <c r="AI183" s="1"/>
-      <c r="AJ183" s="1"/>
-      <c r="AK183" s="26"/>
-    </row>
-    <row r="184" spans="1:37" ht="12" customHeight="1">
+      <c r="AI183" s="17"/>
+    </row>
+    <row r="184" spans="1:35" ht="12" customHeight="1">
       <c r="A184" s="6"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="35"/>
+      <c r="F184" s="35"/>
+      <c r="G184" s="35"/>
       <c r="H184" s="7" t="s">
         <v>3</v>
       </c>
@@ -8693,18 +8327,16 @@
       <c r="AF184" s="1"/>
       <c r="AG184" s="1"/>
       <c r="AH184" s="1"/>
-      <c r="AI184" s="1"/>
-      <c r="AJ184" s="1"/>
-      <c r="AK184" s="26"/>
-    </row>
-    <row r="185" spans="1:37" ht="12" customHeight="1">
+      <c r="AI184" s="17"/>
+    </row>
+    <row r="185" spans="1:35" ht="12" customHeight="1">
       <c r="A185" s="6"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="35"/>
+      <c r="G185" s="35"/>
       <c r="H185" s="14" t="s">
         <v>5</v>
       </c>
@@ -8734,18 +8366,16 @@
       <c r="AF185" s="1"/>
       <c r="AG185" s="1"/>
       <c r="AH185" s="1"/>
-      <c r="AI185" s="1"/>
-      <c r="AJ185" s="1"/>
-      <c r="AK185" s="26"/>
-    </row>
-    <row r="186" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="AI185" s="17"/>
+    </row>
+    <row r="186" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A186" s="6"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="37"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37"/>
       <c r="H186" s="12" t="s">
         <v>6</v>
       </c>
@@ -8775,96 +8405,70 @@
       <c r="AF186" s="13"/>
       <c r="AG186" s="13"/>
       <c r="AH186" s="13"/>
-      <c r="AI186" s="13"/>
-      <c r="AJ186" s="13"/>
-      <c r="AK186" s="26"/>
-    </row>
-    <row r="187" spans="1:37">
-      <c r="A187" s="27"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="29"/>
-      <c r="I187" s="29"/>
-      <c r="J187" s="29"/>
-      <c r="K187" s="28"/>
-      <c r="L187" s="28"/>
-      <c r="M187" s="28"/>
-      <c r="N187" s="28"/>
-      <c r="O187" s="29"/>
-      <c r="P187" s="29"/>
-      <c r="Q187" s="29"/>
-      <c r="R187" s="29"/>
-      <c r="S187" s="29"/>
-      <c r="T187" s="29"/>
-      <c r="U187" s="29"/>
-      <c r="V187" s="29"/>
-      <c r="W187" s="29"/>
-      <c r="X187" s="29"/>
-      <c r="Y187" s="29"/>
-      <c r="Z187" s="29"/>
-      <c r="AA187" s="29"/>
-      <c r="AB187" s="29"/>
-      <c r="AC187" s="29"/>
-      <c r="AD187" s="29"/>
-      <c r="AE187" s="29"/>
-      <c r="AF187" s="29"/>
-      <c r="AG187" s="29"/>
-      <c r="AH187" s="29"/>
-      <c r="AI187" s="29"/>
-      <c r="AJ187" s="29"/>
-      <c r="AK187" s="30"/>
+      <c r="AI186" s="17"/>
+    </row>
+    <row r="187" spans="1:35">
+      <c r="A187" s="18"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="20"/>
+      <c r="P187" s="20"/>
+      <c r="Q187" s="20"/>
+      <c r="R187" s="20"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="20"/>
+      <c r="U187" s="20"/>
+      <c r="V187" s="20"/>
+      <c r="W187" s="20"/>
+      <c r="X187" s="20"/>
+      <c r="Y187" s="20"/>
+      <c r="Z187" s="20"/>
+      <c r="AA187" s="20"/>
+      <c r="AB187" s="20"/>
+      <c r="AC187" s="20"/>
+      <c r="AD187" s="20"/>
+      <c r="AE187" s="20"/>
+      <c r="AF187" s="20"/>
+      <c r="AG187" s="20"/>
+      <c r="AH187" s="20"/>
+      <c r="AI187" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B157:D162"/>
-    <mergeCell ref="B163:D168"/>
-    <mergeCell ref="B169:D174"/>
-    <mergeCell ref="B175:D180"/>
-    <mergeCell ref="B181:D186"/>
-    <mergeCell ref="B127:D132"/>
-    <mergeCell ref="B133:D138"/>
-    <mergeCell ref="B139:D144"/>
-    <mergeCell ref="B145:D150"/>
-    <mergeCell ref="B151:D156"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="J3:R4"/>
-    <mergeCell ref="B61:D66"/>
-    <mergeCell ref="B79:D84"/>
-    <mergeCell ref="B85:D90"/>
-    <mergeCell ref="B91:D96"/>
-    <mergeCell ref="B97:D102"/>
-    <mergeCell ref="B67:D72"/>
-    <mergeCell ref="B73:D78"/>
+    <mergeCell ref="E13:G18"/>
+    <mergeCell ref="E19:G24"/>
+    <mergeCell ref="E25:G30"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="E67:G72"/>
+    <mergeCell ref="E73:G78"/>
+    <mergeCell ref="E79:G84"/>
+    <mergeCell ref="E85:G90"/>
+    <mergeCell ref="E31:G36"/>
+    <mergeCell ref="E37:G42"/>
+    <mergeCell ref="E43:G48"/>
+    <mergeCell ref="E49:G54"/>
+    <mergeCell ref="E55:G60"/>
+    <mergeCell ref="E91:G96"/>
+    <mergeCell ref="E97:G102"/>
+    <mergeCell ref="E103:G108"/>
+    <mergeCell ref="E109:G114"/>
+    <mergeCell ref="E115:G120"/>
     <mergeCell ref="E181:G186"/>
     <mergeCell ref="B103:D108"/>
     <mergeCell ref="B109:D114"/>
     <mergeCell ref="B115:D120"/>
     <mergeCell ref="B121:D126"/>
-    <mergeCell ref="B7:D12"/>
-    <mergeCell ref="B13:D18"/>
-    <mergeCell ref="B19:D24"/>
-    <mergeCell ref="B25:D30"/>
-    <mergeCell ref="B31:D36"/>
-    <mergeCell ref="B37:D42"/>
-    <mergeCell ref="B43:D48"/>
-    <mergeCell ref="B49:D54"/>
-    <mergeCell ref="B55:D60"/>
     <mergeCell ref="E151:G156"/>
     <mergeCell ref="E157:G162"/>
     <mergeCell ref="E163:G168"/>
@@ -8875,30 +8479,52 @@
     <mergeCell ref="E133:G138"/>
     <mergeCell ref="E139:G144"/>
     <mergeCell ref="E145:G150"/>
-    <mergeCell ref="E91:G96"/>
-    <mergeCell ref="E97:G102"/>
-    <mergeCell ref="E103:G108"/>
-    <mergeCell ref="E109:G114"/>
-    <mergeCell ref="E115:G120"/>
+    <mergeCell ref="B79:D84"/>
+    <mergeCell ref="B85:D90"/>
+    <mergeCell ref="B91:D96"/>
+    <mergeCell ref="B97:D102"/>
+    <mergeCell ref="B67:D72"/>
+    <mergeCell ref="B73:D78"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:R2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="B61:D66"/>
+    <mergeCell ref="B7:D12"/>
+    <mergeCell ref="B13:D18"/>
+    <mergeCell ref="B19:D24"/>
+    <mergeCell ref="B25:D30"/>
+    <mergeCell ref="B31:D36"/>
+    <mergeCell ref="B37:D42"/>
+    <mergeCell ref="B43:D48"/>
+    <mergeCell ref="B49:D54"/>
+    <mergeCell ref="B55:D60"/>
     <mergeCell ref="E61:G66"/>
-    <mergeCell ref="E67:G72"/>
-    <mergeCell ref="E73:G78"/>
-    <mergeCell ref="E79:G84"/>
-    <mergeCell ref="E85:G90"/>
-    <mergeCell ref="E31:G36"/>
-    <mergeCell ref="E37:G42"/>
-    <mergeCell ref="E43:G48"/>
-    <mergeCell ref="E49:G54"/>
-    <mergeCell ref="E55:G60"/>
     <mergeCell ref="E7:G12"/>
-    <mergeCell ref="E13:G18"/>
-    <mergeCell ref="E19:G24"/>
-    <mergeCell ref="E25:G30"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B127:D132"/>
+    <mergeCell ref="B133:D138"/>
+    <mergeCell ref="B139:D144"/>
+    <mergeCell ref="B145:D150"/>
+    <mergeCell ref="B151:D156"/>
+    <mergeCell ref="B157:D162"/>
+    <mergeCell ref="B163:D168"/>
+    <mergeCell ref="B169:D174"/>
+    <mergeCell ref="B175:D180"/>
+    <mergeCell ref="B181:D186"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.16722222222222222" right="0.70000000000000007" top="0.2986111111111111" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/template/ObjectPermission.xlsx
+++ b/template/ObjectPermission.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="CRUD" sheetId="2" r:id="rId1"/>
+    <sheet name="base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CRUD!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">base!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -635,20 +635,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,34 +674,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:AI187"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I4"/>
+      <selection activeCell="E25" sqref="E25:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1144,170 +1144,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="23" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="27" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="27" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="31" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
     </row>
     <row r="2" spans="1:35" ht="23" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="31" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
     </row>
     <row r="3" spans="1:35" ht="23" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="22" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
     </row>
     <row r="4" spans="1:35" ht="23" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="3"/>
@@ -1348,14 +1348,14 @@
     </row>
     <row r="6" spans="1:35" ht="139" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1389,12 +1389,12 @@
     </row>
     <row r="7" spans="1:35" ht="13" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1428,12 +1428,12 @@
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1467,12 +1467,12 @@
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1506,12 +1506,12 @@
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1545,12 +1545,12 @@
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="14" t="s">
         <v>5</v>
       </c>
@@ -1584,12 +1584,12 @@
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
@@ -1623,12 +1623,12 @@
     </row>
     <row r="13" spans="1:35" ht="13" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1662,12 +1662,12 @@
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1701,12 +1701,12 @@
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1740,12 +1740,12 @@
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1779,12 +1779,12 @@
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="14" t="s">
         <v>5</v>
       </c>
@@ -1818,12 +1818,12 @@
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
@@ -1857,12 +1857,12 @@
     </row>
     <row r="19" spans="1:35" ht="13" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1896,12 +1896,12 @@
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1935,12 +1935,12 @@
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="7" t="s">
         <v>2</v>
       </c>
@@ -1974,12 +1974,12 @@
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="7" t="s">
         <v>3</v>
       </c>
@@ -2013,12 +2013,12 @@
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="14" t="s">
         <v>5</v>
       </c>
@@ -2052,12 +2052,12 @@
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="12" t="s">
         <v>6</v>
       </c>
@@ -2091,12 +2091,12 @@
     </row>
     <row r="25" spans="1:35" ht="13" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="10" t="s">
         <v>0</v>
       </c>
@@ -2130,12 +2130,12 @@
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="7" t="s">
         <v>1</v>
       </c>
@@ -2169,12 +2169,12 @@
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2208,12 +2208,12 @@
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="7" t="s">
         <v>3</v>
       </c>
@@ -2247,12 +2247,12 @@
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="14" t="s">
         <v>5</v>
       </c>
@@ -2286,12 +2286,12 @@
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="12" t="s">
         <v>6</v>
       </c>
@@ -2325,12 +2325,12 @@
     </row>
     <row r="31" spans="1:35" ht="13" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="10" t="s">
         <v>0</v>
       </c>
@@ -2364,12 +2364,12 @@
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="7" t="s">
         <v>1</v>
       </c>
@@ -2403,12 +2403,12 @@
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="7" t="s">
         <v>2</v>
       </c>
@@ -2442,12 +2442,12 @@
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="7" t="s">
         <v>3</v>
       </c>
@@ -2481,12 +2481,12 @@
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="14" t="s">
         <v>5</v>
       </c>
@@ -2520,12 +2520,12 @@
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="12" t="s">
         <v>6</v>
       </c>
@@ -2559,12 +2559,12 @@
     </row>
     <row r="37" spans="1:35" ht="13" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="10" t="s">
         <v>0</v>
       </c>
@@ -2598,12 +2598,12 @@
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="7" t="s">
         <v>1</v>
       </c>
@@ -2637,12 +2637,12 @@
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="7" t="s">
         <v>2</v>
       </c>
@@ -2676,12 +2676,12 @@
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="7" t="s">
         <v>3</v>
       </c>
@@ -2715,12 +2715,12 @@
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="14" t="s">
         <v>5</v>
       </c>
@@ -2754,12 +2754,12 @@
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="12" t="s">
         <v>6</v>
       </c>
@@ -2793,12 +2793,12 @@
     </row>
     <row r="43" spans="1:35" ht="13" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="10" t="s">
         <v>0</v>
       </c>
@@ -2832,12 +2832,12 @@
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
       <c r="H44" s="7" t="s">
         <v>1</v>
       </c>
@@ -2871,12 +2871,12 @@
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
       <c r="H45" s="7" t="s">
         <v>2</v>
       </c>
@@ -2910,12 +2910,12 @@
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
       <c r="H46" s="7" t="s">
         <v>3</v>
       </c>
@@ -2949,12 +2949,12 @@
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
       <c r="H47" s="14" t="s">
         <v>5</v>
       </c>
@@ -2988,12 +2988,12 @@
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="12" t="s">
         <v>6</v>
       </c>
@@ -3027,12 +3027,12 @@
     </row>
     <row r="49" spans="1:35" ht="13" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="10" t="s">
         <v>0</v>
       </c>
@@ -3066,12 +3066,12 @@
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
       <c r="H50" s="7" t="s">
         <v>1</v>
       </c>
@@ -3105,12 +3105,12 @@
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
       <c r="H51" s="7" t="s">
         <v>2</v>
       </c>
@@ -3144,12 +3144,12 @@
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
       <c r="H52" s="7" t="s">
         <v>3</v>
       </c>
@@ -3183,12 +3183,12 @@
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="14" t="s">
         <v>5</v>
       </c>
@@ -3222,12 +3222,12 @@
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="12" t="s">
         <v>6</v>
       </c>
@@ -3261,12 +3261,12 @@
     </row>
     <row r="55" spans="1:35" ht="13" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="10" t="s">
         <v>0</v>
       </c>
@@ -3300,12 +3300,12 @@
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
       <c r="H56" s="7" t="s">
         <v>1</v>
       </c>
@@ -3339,12 +3339,12 @@
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
       <c r="H57" s="7" t="s">
         <v>2</v>
       </c>
@@ -3378,12 +3378,12 @@
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
       <c r="H58" s="7" t="s">
         <v>3</v>
       </c>
@@ -3417,12 +3417,12 @@
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
       <c r="H59" s="14" t="s">
         <v>5</v>
       </c>
@@ -3456,12 +3456,12 @@
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="12" t="s">
         <v>6</v>
       </c>
@@ -3495,12 +3495,12 @@
     </row>
     <row r="61" spans="1:35" ht="13" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="10" t="s">
         <v>0</v>
       </c>
@@ -3534,12 +3534,12 @@
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
       <c r="H62" s="7" t="s">
         <v>1</v>
       </c>
@@ -3573,12 +3573,12 @@
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
       <c r="H63" s="7" t="s">
         <v>2</v>
       </c>
@@ -3612,12 +3612,12 @@
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
       <c r="H64" s="7" t="s">
         <v>3</v>
       </c>
@@ -3651,12 +3651,12 @@
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
       <c r="H65" s="14" t="s">
         <v>5</v>
       </c>
@@ -3690,12 +3690,12 @@
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
       <c r="H66" s="12" t="s">
         <v>6</v>
       </c>
@@ -3729,12 +3729,12 @@
     </row>
     <row r="67" spans="1:35" ht="13" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
       <c r="H67" s="10" t="s">
         <v>0</v>
       </c>
@@ -3768,12 +3768,12 @@
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="7" t="s">
         <v>1</v>
       </c>
@@ -3807,12 +3807,12 @@
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="7" t="s">
         <v>2</v>
       </c>
@@ -3846,12 +3846,12 @@
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="7" t="s">
         <v>3</v>
       </c>
@@ -3885,12 +3885,12 @@
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
       <c r="H71" s="14" t="s">
         <v>5</v>
       </c>
@@ -3924,12 +3924,12 @@
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
       <c r="H72" s="12" t="s">
         <v>6</v>
       </c>
@@ -3963,12 +3963,12 @@
     </row>
     <row r="73" spans="1:35" ht="13" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
       <c r="H73" s="10" t="s">
         <v>0</v>
       </c>
@@ -4002,12 +4002,12 @@
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="7" t="s">
         <v>1</v>
       </c>
@@ -4041,12 +4041,12 @@
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="7" t="s">
         <v>2</v>
       </c>
@@ -4080,12 +4080,12 @@
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="7" t="s">
         <v>3</v>
       </c>
@@ -4119,12 +4119,12 @@
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="14" t="s">
         <v>5</v>
       </c>
@@ -4158,12 +4158,12 @@
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="12" t="s">
         <v>6</v>
       </c>
@@ -4197,12 +4197,12 @@
     </row>
     <row r="79" spans="1:35" ht="13" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
       <c r="H79" s="10" t="s">
         <v>0</v>
       </c>
@@ -4236,12 +4236,12 @@
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
       <c r="H80" s="7" t="s">
         <v>1</v>
       </c>
@@ -4275,12 +4275,12 @@
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="7" t="s">
         <v>2</v>
       </c>
@@ -4314,12 +4314,12 @@
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
       <c r="H82" s="7" t="s">
         <v>3</v>
       </c>
@@ -4353,12 +4353,12 @@
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
       <c r="H83" s="14" t="s">
         <v>5</v>
       </c>
@@ -4392,12 +4392,12 @@
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
       <c r="H84" s="12" t="s">
         <v>6</v>
       </c>
@@ -4431,12 +4431,12 @@
     </row>
     <row r="85" spans="1:35" ht="13" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
       <c r="H85" s="10" t="s">
         <v>0</v>
       </c>
@@ -4470,12 +4470,12 @@
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="7" t="s">
         <v>1</v>
       </c>
@@ -4509,12 +4509,12 @@
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="7" t="s">
         <v>2</v>
       </c>
@@ -4548,12 +4548,12 @@
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
       <c r="H88" s="7" t="s">
         <v>3</v>
       </c>
@@ -4587,12 +4587,12 @@
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="14" t="s">
         <v>5</v>
       </c>
@@ -4626,12 +4626,12 @@
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
       <c r="H90" s="12" t="s">
         <v>6</v>
       </c>
@@ -4665,12 +4665,12 @@
     </row>
     <row r="91" spans="1:35" ht="13" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="10" t="s">
         <v>0</v>
       </c>
@@ -4704,12 +4704,12 @@
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
       <c r="H92" s="7" t="s">
         <v>1</v>
       </c>
@@ -4743,12 +4743,12 @@
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
       <c r="H93" s="7" t="s">
         <v>2</v>
       </c>
@@ -4782,12 +4782,12 @@
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
       <c r="H94" s="7" t="s">
         <v>3</v>
       </c>
@@ -4821,12 +4821,12 @@
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
       <c r="H95" s="14" t="s">
         <v>5</v>
       </c>
@@ -4860,12 +4860,12 @@
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="12" t="s">
         <v>6</v>
       </c>
@@ -4899,12 +4899,12 @@
     </row>
     <row r="97" spans="1:35" ht="13" customHeight="1">
       <c r="A97" s="6"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
       <c r="H97" s="10" t="s">
         <v>0</v>
       </c>
@@ -4938,12 +4938,12 @@
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
       <c r="H98" s="7" t="s">
         <v>1</v>
       </c>
@@ -4977,12 +4977,12 @@
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="7" t="s">
         <v>2</v>
       </c>
@@ -5016,12 +5016,12 @@
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
       <c r="H100" s="7" t="s">
         <v>3</v>
       </c>
@@ -5055,12 +5055,12 @@
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
       <c r="H101" s="14" t="s">
         <v>5</v>
       </c>
@@ -5094,12 +5094,12 @@
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
       <c r="H102" s="12" t="s">
         <v>6</v>
       </c>
@@ -5133,12 +5133,12 @@
     </row>
     <row r="103" spans="1:35" ht="13" customHeight="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
       <c r="H103" s="10" t="s">
         <v>0</v>
       </c>
@@ -5172,12 +5172,12 @@
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
       <c r="H104" s="7" t="s">
         <v>1</v>
       </c>
@@ -5211,12 +5211,12 @@
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
       <c r="H105" s="7" t="s">
         <v>2</v>
       </c>
@@ -5250,12 +5250,12 @@
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="35"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
       <c r="H106" s="7" t="s">
         <v>3</v>
       </c>
@@ -5289,12 +5289,12 @@
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1">
       <c r="A107" s="6"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
       <c r="H107" s="14" t="s">
         <v>5</v>
       </c>
@@ -5328,12 +5328,12 @@
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A108" s="6"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
       <c r="H108" s="12" t="s">
         <v>6</v>
       </c>
@@ -5367,12 +5367,12 @@
     </row>
     <row r="109" spans="1:35" ht="13" customHeight="1">
       <c r="A109" s="6"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
       <c r="H109" s="10" t="s">
         <v>0</v>
       </c>
@@ -5406,12 +5406,12 @@
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
       <c r="H110" s="7" t="s">
         <v>1</v>
       </c>
@@ -5445,12 +5445,12 @@
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1">
       <c r="A111" s="6"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
       <c r="H111" s="7" t="s">
         <v>2</v>
       </c>
@@ -5484,12 +5484,12 @@
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1">
       <c r="A112" s="6"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
       <c r="H112" s="7" t="s">
         <v>3</v>
       </c>
@@ -5523,12 +5523,12 @@
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
       <c r="H113" s="14" t="s">
         <v>5</v>
       </c>
@@ -5562,12 +5562,12 @@
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A114" s="6"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
       <c r="H114" s="12" t="s">
         <v>6</v>
       </c>
@@ -5601,12 +5601,12 @@
     </row>
     <row r="115" spans="1:35" ht="13" customHeight="1">
       <c r="A115" s="6"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
       <c r="H115" s="10" t="s">
         <v>0</v>
       </c>
@@ -5640,12 +5640,12 @@
     </row>
     <row r="116" spans="1:35" ht="12" customHeight="1">
       <c r="A116" s="6"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
       <c r="H116" s="7" t="s">
         <v>1</v>
       </c>
@@ -5679,12 +5679,12 @@
     </row>
     <row r="117" spans="1:35" ht="12" customHeight="1">
       <c r="A117" s="6"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
       <c r="H117" s="7" t="s">
         <v>2</v>
       </c>
@@ -5718,12 +5718,12 @@
     </row>
     <row r="118" spans="1:35" ht="12" customHeight="1">
       <c r="A118" s="6"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
       <c r="H118" s="7" t="s">
         <v>3</v>
       </c>
@@ -5757,12 +5757,12 @@
     </row>
     <row r="119" spans="1:35" ht="12" customHeight="1">
       <c r="A119" s="6"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
       <c r="H119" s="14" t="s">
         <v>5</v>
       </c>
@@ -5796,12 +5796,12 @@
     </row>
     <row r="120" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A120" s="6"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
       <c r="H120" s="12" t="s">
         <v>6</v>
       </c>
@@ -5835,12 +5835,12 @@
     </row>
     <row r="121" spans="1:35" ht="13" customHeight="1">
       <c r="A121" s="6"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
       <c r="H121" s="10" t="s">
         <v>0</v>
       </c>
@@ -5874,12 +5874,12 @@
     </row>
     <row r="122" spans="1:35" ht="12" customHeight="1">
       <c r="A122" s="6"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
       <c r="H122" s="7" t="s">
         <v>1</v>
       </c>
@@ -5913,12 +5913,12 @@
     </row>
     <row r="123" spans="1:35" ht="12" customHeight="1">
       <c r="A123" s="6"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
       <c r="H123" s="7" t="s">
         <v>2</v>
       </c>
@@ -5952,12 +5952,12 @@
     </row>
     <row r="124" spans="1:35" ht="12" customHeight="1">
       <c r="A124" s="6"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
       <c r="H124" s="7" t="s">
         <v>3</v>
       </c>
@@ -5991,12 +5991,12 @@
     </row>
     <row r="125" spans="1:35" ht="12" customHeight="1">
       <c r="A125" s="6"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
       <c r="H125" s="14" t="s">
         <v>5</v>
       </c>
@@ -6030,12 +6030,12 @@
     </row>
     <row r="126" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A126" s="6"/>
-      <c r="B126" s="36"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
       <c r="H126" s="12" t="s">
         <v>6</v>
       </c>
@@ -6069,12 +6069,12 @@
     </row>
     <row r="127" spans="1:35" ht="13" customHeight="1">
       <c r="A127" s="6"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
       <c r="H127" s="10" t="s">
         <v>0</v>
       </c>
@@ -6108,12 +6108,12 @@
     </row>
     <row r="128" spans="1:35" ht="12" customHeight="1">
       <c r="A128" s="6"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
       <c r="H128" s="7" t="s">
         <v>1</v>
       </c>
@@ -6147,12 +6147,12 @@
     </row>
     <row r="129" spans="1:35" ht="12" customHeight="1">
       <c r="A129" s="6"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="35"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
       <c r="H129" s="7" t="s">
         <v>2</v>
       </c>
@@ -6186,12 +6186,12 @@
     </row>
     <row r="130" spans="1:35" ht="12" customHeight="1">
       <c r="A130" s="6"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
       <c r="H130" s="7" t="s">
         <v>3</v>
       </c>
@@ -6225,12 +6225,12 @@
     </row>
     <row r="131" spans="1:35" ht="12" customHeight="1">
       <c r="A131" s="6"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
       <c r="H131" s="14" t="s">
         <v>5</v>
       </c>
@@ -6264,12 +6264,12 @@
     </row>
     <row r="132" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A132" s="6"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
       <c r="H132" s="12" t="s">
         <v>6</v>
       </c>
@@ -6303,12 +6303,12 @@
     </row>
     <row r="133" spans="1:35" ht="13" customHeight="1">
       <c r="A133" s="6"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
       <c r="H133" s="10" t="s">
         <v>0</v>
       </c>
@@ -6342,12 +6342,12 @@
     </row>
     <row r="134" spans="1:35" ht="12" customHeight="1">
       <c r="A134" s="6"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
       <c r="H134" s="7" t="s">
         <v>1</v>
       </c>
@@ -6381,12 +6381,12 @@
     </row>
     <row r="135" spans="1:35" ht="12" customHeight="1">
       <c r="A135" s="6"/>
-      <c r="B135" s="34"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
       <c r="H135" s="7" t="s">
         <v>2</v>
       </c>
@@ -6420,12 +6420,12 @@
     </row>
     <row r="136" spans="1:35" ht="12" customHeight="1">
       <c r="A136" s="6"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
       <c r="H136" s="7" t="s">
         <v>3</v>
       </c>
@@ -6459,12 +6459,12 @@
     </row>
     <row r="137" spans="1:35" ht="12" customHeight="1">
       <c r="A137" s="6"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
       <c r="H137" s="14" t="s">
         <v>5</v>
       </c>
@@ -6498,12 +6498,12 @@
     </row>
     <row r="138" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A138" s="6"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
       <c r="H138" s="12" t="s">
         <v>6</v>
       </c>
@@ -6537,12 +6537,12 @@
     </row>
     <row r="139" spans="1:35" ht="13" customHeight="1">
       <c r="A139" s="6"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
       <c r="H139" s="10" t="s">
         <v>0</v>
       </c>
@@ -6576,12 +6576,12 @@
     </row>
     <row r="140" spans="1:35" ht="12" customHeight="1">
       <c r="A140" s="6"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
       <c r="H140" s="7" t="s">
         <v>1</v>
       </c>
@@ -6615,12 +6615,12 @@
     </row>
     <row r="141" spans="1:35" ht="12" customHeight="1">
       <c r="A141" s="6"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="35"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
       <c r="H141" s="7" t="s">
         <v>2</v>
       </c>
@@ -6654,12 +6654,12 @@
     </row>
     <row r="142" spans="1:35" ht="12" customHeight="1">
       <c r="A142" s="6"/>
-      <c r="B142" s="34"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="35"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
       <c r="H142" s="7" t="s">
         <v>3</v>
       </c>
@@ -6693,12 +6693,12 @@
     </row>
     <row r="143" spans="1:35" ht="12" customHeight="1">
       <c r="A143" s="6"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="35"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
       <c r="H143" s="14" t="s">
         <v>5</v>
       </c>
@@ -6732,12 +6732,12 @@
     </row>
     <row r="144" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A144" s="6"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
       <c r="H144" s="12" t="s">
         <v>6</v>
       </c>
@@ -6771,12 +6771,12 @@
     </row>
     <row r="145" spans="1:35" ht="13" customHeight="1">
       <c r="A145" s="6"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
       <c r="H145" s="10" t="s">
         <v>0</v>
       </c>
@@ -6810,12 +6810,12 @@
     </row>
     <row r="146" spans="1:35" ht="12" customHeight="1">
       <c r="A146" s="6"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="35"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
       <c r="H146" s="7" t="s">
         <v>1</v>
       </c>
@@ -6849,12 +6849,12 @@
     </row>
     <row r="147" spans="1:35" ht="12" customHeight="1">
       <c r="A147" s="6"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="35"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
       <c r="H147" s="7" t="s">
         <v>2</v>
       </c>
@@ -6888,12 +6888,12 @@
     </row>
     <row r="148" spans="1:35" ht="12" customHeight="1">
       <c r="A148" s="6"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
       <c r="H148" s="7" t="s">
         <v>3</v>
       </c>
@@ -6927,12 +6927,12 @@
     </row>
     <row r="149" spans="1:35" ht="12" customHeight="1">
       <c r="A149" s="6"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
       <c r="H149" s="14" t="s">
         <v>5</v>
       </c>
@@ -6966,12 +6966,12 @@
     </row>
     <row r="150" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A150" s="6"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
       <c r="H150" s="12" t="s">
         <v>6</v>
       </c>
@@ -7005,12 +7005,12 @@
     </row>
     <row r="151" spans="1:35" ht="13" customHeight="1">
       <c r="A151" s="6"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
       <c r="H151" s="10" t="s">
         <v>0</v>
       </c>
@@ -7044,12 +7044,12 @@
     </row>
     <row r="152" spans="1:35" ht="12" customHeight="1">
       <c r="A152" s="6"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="35"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="35"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
       <c r="H152" s="7" t="s">
         <v>1</v>
       </c>
@@ -7083,12 +7083,12 @@
     </row>
     <row r="153" spans="1:35" ht="12" customHeight="1">
       <c r="A153" s="6"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="35"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
       <c r="H153" s="7" t="s">
         <v>2</v>
       </c>
@@ -7122,12 +7122,12 @@
     </row>
     <row r="154" spans="1:35" ht="12" customHeight="1">
       <c r="A154" s="6"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="35"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
       <c r="H154" s="7" t="s">
         <v>3</v>
       </c>
@@ -7161,12 +7161,12 @@
     </row>
     <row r="155" spans="1:35" ht="12" customHeight="1">
       <c r="A155" s="6"/>
-      <c r="B155" s="34"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="35"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
       <c r="H155" s="14" t="s">
         <v>5</v>
       </c>
@@ -7200,12 +7200,12 @@
     </row>
     <row r="156" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A156" s="6"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
       <c r="H156" s="12" t="s">
         <v>6</v>
       </c>
@@ -7239,12 +7239,12 @@
     </row>
     <row r="157" spans="1:35" ht="13" customHeight="1">
       <c r="A157" s="6"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
       <c r="H157" s="10" t="s">
         <v>0</v>
       </c>
@@ -7278,12 +7278,12 @@
     </row>
     <row r="158" spans="1:35" ht="12" customHeight="1">
       <c r="A158" s="6"/>
-      <c r="B158" s="34"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
       <c r="H158" s="7" t="s">
         <v>1</v>
       </c>
@@ -7317,12 +7317,12 @@
     </row>
     <row r="159" spans="1:35" ht="12" customHeight="1">
       <c r="A159" s="6"/>
-      <c r="B159" s="34"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
       <c r="H159" s="7" t="s">
         <v>2</v>
       </c>
@@ -7356,12 +7356,12 @@
     </row>
     <row r="160" spans="1:35" ht="12" customHeight="1">
       <c r="A160" s="6"/>
-      <c r="B160" s="34"/>
-      <c r="C160" s="35"/>
-      <c r="D160" s="35"/>
-      <c r="E160" s="35"/>
-      <c r="F160" s="35"/>
-      <c r="G160" s="35"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
       <c r="H160" s="7" t="s">
         <v>3</v>
       </c>
@@ -7395,12 +7395,12 @@
     </row>
     <row r="161" spans="1:35" ht="12" customHeight="1">
       <c r="A161" s="6"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="35"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="35"/>
-      <c r="G161" s="35"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
       <c r="H161" s="14" t="s">
         <v>5</v>
       </c>
@@ -7434,12 +7434,12 @@
     </row>
     <row r="162" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A162" s="6"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
       <c r="H162" s="12" t="s">
         <v>6</v>
       </c>
@@ -7473,12 +7473,12 @@
     </row>
     <row r="163" spans="1:35" ht="13" customHeight="1">
       <c r="A163" s="6"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
       <c r="H163" s="10" t="s">
         <v>0</v>
       </c>
@@ -7512,12 +7512,12 @@
     </row>
     <row r="164" spans="1:35" ht="12" customHeight="1">
       <c r="A164" s="6"/>
-      <c r="B164" s="34"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="35"/>
-      <c r="G164" s="35"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
       <c r="H164" s="7" t="s">
         <v>1</v>
       </c>
@@ -7551,12 +7551,12 @@
     </row>
     <row r="165" spans="1:35" ht="12" customHeight="1">
       <c r="A165" s="6"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="35"/>
-      <c r="G165" s="35"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
       <c r="H165" s="7" t="s">
         <v>2</v>
       </c>
@@ -7590,12 +7590,12 @@
     </row>
     <row r="166" spans="1:35" ht="12" customHeight="1">
       <c r="A166" s="6"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
       <c r="H166" s="7" t="s">
         <v>3</v>
       </c>
@@ -7629,12 +7629,12 @@
     </row>
     <row r="167" spans="1:35" ht="12" customHeight="1">
       <c r="A167" s="6"/>
-      <c r="B167" s="34"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
       <c r="H167" s="14" t="s">
         <v>5</v>
       </c>
@@ -7668,12 +7668,12 @@
     </row>
     <row r="168" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A168" s="6"/>
-      <c r="B168" s="36"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
       <c r="H168" s="12" t="s">
         <v>6</v>
       </c>
@@ -7707,12 +7707,12 @@
     </row>
     <row r="169" spans="1:35" ht="13" customHeight="1">
       <c r="A169" s="6"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="33"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
       <c r="H169" s="10" t="s">
         <v>0</v>
       </c>
@@ -7746,12 +7746,12 @@
     </row>
     <row r="170" spans="1:35" ht="12" customHeight="1">
       <c r="A170" s="6"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
       <c r="H170" s="7" t="s">
         <v>1</v>
       </c>
@@ -7785,12 +7785,12 @@
     </row>
     <row r="171" spans="1:35" ht="12" customHeight="1">
       <c r="A171" s="6"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
       <c r="H171" s="7" t="s">
         <v>2</v>
       </c>
@@ -7824,12 +7824,12 @@
     </row>
     <row r="172" spans="1:35" ht="12" customHeight="1">
       <c r="A172" s="6"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
       <c r="H172" s="7" t="s">
         <v>3</v>
       </c>
@@ -7863,12 +7863,12 @@
     </row>
     <row r="173" spans="1:35" ht="12" customHeight="1">
       <c r="A173" s="6"/>
-      <c r="B173" s="34"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
       <c r="H173" s="14" t="s">
         <v>5</v>
       </c>
@@ -7902,12 +7902,12 @@
     </row>
     <row r="174" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A174" s="6"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="37"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="37"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
       <c r="H174" s="12" t="s">
         <v>6</v>
       </c>
@@ -7941,12 +7941,12 @@
     </row>
     <row r="175" spans="1:35" ht="13" customHeight="1">
       <c r="A175" s="6"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="33"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
       <c r="H175" s="10" t="s">
         <v>0</v>
       </c>
@@ -7980,12 +7980,12 @@
     </row>
     <row r="176" spans="1:35" ht="12" customHeight="1">
       <c r="A176" s="6"/>
-      <c r="B176" s="34"/>
-      <c r="C176" s="35"/>
-      <c r="D176" s="35"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
       <c r="H176" s="7" t="s">
         <v>1</v>
       </c>
@@ -8019,12 +8019,12 @@
     </row>
     <row r="177" spans="1:35" ht="12" customHeight="1">
       <c r="A177" s="6"/>
-      <c r="B177" s="34"/>
-      <c r="C177" s="35"/>
-      <c r="D177" s="35"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
       <c r="H177" s="7" t="s">
         <v>2</v>
       </c>
@@ -8058,12 +8058,12 @@
     </row>
     <row r="178" spans="1:35" ht="12" customHeight="1">
       <c r="A178" s="6"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="35"/>
-      <c r="D178" s="35"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="35"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
       <c r="H178" s="7" t="s">
         <v>3</v>
       </c>
@@ -8097,12 +8097,12 @@
     </row>
     <row r="179" spans="1:35" ht="12" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="34"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="35"/>
-      <c r="G179" s="35"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
       <c r="H179" s="14" t="s">
         <v>5</v>
       </c>
@@ -8136,12 +8136,12 @@
     </row>
     <row r="180" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A180" s="6"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="37"/>
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="37"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
       <c r="H180" s="12" t="s">
         <v>6</v>
       </c>
@@ -8175,12 +8175,12 @@
     </row>
     <row r="181" spans="1:35" ht="13" customHeight="1">
       <c r="A181" s="6"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
       <c r="H181" s="10" t="s">
         <v>0</v>
       </c>
@@ -8214,12 +8214,12 @@
     </row>
     <row r="182" spans="1:35" ht="12" customHeight="1">
       <c r="A182" s="6"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35"/>
-      <c r="G182" s="35"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="23"/>
       <c r="H182" s="7" t="s">
         <v>1</v>
       </c>
@@ -8253,12 +8253,12 @@
     </row>
     <row r="183" spans="1:35" ht="12" customHeight="1">
       <c r="A183" s="6"/>
-      <c r="B183" s="34"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
-      <c r="G183" s="35"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
       <c r="H183" s="7" t="s">
         <v>2</v>
       </c>
@@ -8292,12 +8292,12 @@
     </row>
     <row r="184" spans="1:35" ht="12" customHeight="1">
       <c r="A184" s="6"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
       <c r="H184" s="7" t="s">
         <v>3</v>
       </c>
@@ -8331,12 +8331,12 @@
     </row>
     <row r="185" spans="1:35" ht="12" customHeight="1">
       <c r="A185" s="6"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="35"/>
-      <c r="G185" s="35"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23"/>
+      <c r="G185" s="23"/>
       <c r="H185" s="14" t="s">
         <v>5</v>
       </c>
@@ -8370,12 +8370,12 @@
     </row>
     <row r="186" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A186" s="6"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="37"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="37"/>
-      <c r="G186" s="37"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
       <c r="H186" s="12" t="s">
         <v>6</v>
       </c>
@@ -8446,45 +8446,25 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="E13:G18"/>
-    <mergeCell ref="E19:G24"/>
-    <mergeCell ref="E25:G30"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="E67:G72"/>
-    <mergeCell ref="E73:G78"/>
-    <mergeCell ref="E79:G84"/>
-    <mergeCell ref="E85:G90"/>
-    <mergeCell ref="E31:G36"/>
-    <mergeCell ref="E37:G42"/>
-    <mergeCell ref="E43:G48"/>
-    <mergeCell ref="E49:G54"/>
-    <mergeCell ref="E55:G60"/>
-    <mergeCell ref="E91:G96"/>
-    <mergeCell ref="E97:G102"/>
-    <mergeCell ref="E103:G108"/>
-    <mergeCell ref="E109:G114"/>
-    <mergeCell ref="E115:G120"/>
-    <mergeCell ref="E181:G186"/>
-    <mergeCell ref="B103:D108"/>
-    <mergeCell ref="B109:D114"/>
-    <mergeCell ref="B115:D120"/>
-    <mergeCell ref="B121:D126"/>
-    <mergeCell ref="E151:G156"/>
-    <mergeCell ref="E157:G162"/>
-    <mergeCell ref="E163:G168"/>
-    <mergeCell ref="E169:G174"/>
-    <mergeCell ref="E175:G180"/>
-    <mergeCell ref="E121:G126"/>
-    <mergeCell ref="E127:G132"/>
-    <mergeCell ref="E133:G138"/>
-    <mergeCell ref="E139:G144"/>
-    <mergeCell ref="E145:G150"/>
-    <mergeCell ref="B79:D84"/>
-    <mergeCell ref="B85:D90"/>
-    <mergeCell ref="B91:D96"/>
-    <mergeCell ref="B97:D102"/>
-    <mergeCell ref="B67:D72"/>
-    <mergeCell ref="B73:D78"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="B163:D168"/>
+    <mergeCell ref="B169:D174"/>
+    <mergeCell ref="B175:D180"/>
+    <mergeCell ref="B181:D186"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="B133:D138"/>
+    <mergeCell ref="B139:D144"/>
+    <mergeCell ref="B145:D150"/>
+    <mergeCell ref="B151:D156"/>
+    <mergeCell ref="B157:D162"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="J1:R2"/>
     <mergeCell ref="A3:I4"/>
@@ -8501,26 +8481,46 @@
     <mergeCell ref="B55:D60"/>
     <mergeCell ref="E61:G66"/>
     <mergeCell ref="E7:G12"/>
+    <mergeCell ref="B79:D84"/>
+    <mergeCell ref="B85:D90"/>
+    <mergeCell ref="B91:D96"/>
+    <mergeCell ref="B97:D102"/>
+    <mergeCell ref="B67:D72"/>
+    <mergeCell ref="B73:D78"/>
+    <mergeCell ref="E181:G186"/>
+    <mergeCell ref="B103:D108"/>
+    <mergeCell ref="B109:D114"/>
+    <mergeCell ref="B115:D120"/>
+    <mergeCell ref="B121:D126"/>
+    <mergeCell ref="E151:G156"/>
+    <mergeCell ref="E157:G162"/>
+    <mergeCell ref="E163:G168"/>
+    <mergeCell ref="E169:G174"/>
+    <mergeCell ref="E175:G180"/>
+    <mergeCell ref="E121:G126"/>
+    <mergeCell ref="E127:G132"/>
+    <mergeCell ref="E133:G138"/>
+    <mergeCell ref="E139:G144"/>
+    <mergeCell ref="E145:G150"/>
     <mergeCell ref="B127:D132"/>
-    <mergeCell ref="B133:D138"/>
-    <mergeCell ref="B139:D144"/>
-    <mergeCell ref="B145:D150"/>
-    <mergeCell ref="B151:D156"/>
-    <mergeCell ref="B157:D162"/>
-    <mergeCell ref="B163:D168"/>
-    <mergeCell ref="B169:D174"/>
-    <mergeCell ref="B175:D180"/>
-    <mergeCell ref="B181:D186"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="E91:G96"/>
+    <mergeCell ref="E97:G102"/>
+    <mergeCell ref="E103:G108"/>
+    <mergeCell ref="E109:G114"/>
+    <mergeCell ref="E115:G120"/>
+    <mergeCell ref="E73:G78"/>
+    <mergeCell ref="E79:G84"/>
+    <mergeCell ref="E85:G90"/>
+    <mergeCell ref="E31:G36"/>
+    <mergeCell ref="E37:G42"/>
+    <mergeCell ref="E43:G48"/>
+    <mergeCell ref="E49:G54"/>
+    <mergeCell ref="E55:G60"/>
+    <mergeCell ref="E13:G18"/>
+    <mergeCell ref="E19:G24"/>
+    <mergeCell ref="E25:G30"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="E67:G72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.16722222222222222" right="0.70000000000000007" top="0.2986111111111111" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/template/ObjectPermission.xlsx
+++ b/template/ObjectPermission.xlsx
@@ -22,54 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="17">
-  <si>
-    <t>作成</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読み取り</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CRUD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すべて参照</t>
-    <rPh sb="3" eb="5">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すべて更新</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -635,31 +590,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,22 +638,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,7 +1080,7 @@
   <dimension ref="A1:AI187"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:G30"/>
+      <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1144,170 +1099,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="23" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+    </row>
+    <row r="2" spans="1:35" ht="23" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="31" t="s">
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+    </row>
+    <row r="3" spans="1:35" ht="23" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-    </row>
-    <row r="2" spans="1:35" ht="23" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-    </row>
-    <row r="3" spans="1:35" ht="23" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
     </row>
     <row r="4" spans="1:35" ht="23" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="3"/>
@@ -1348,16 +1303,16 @@
     </row>
     <row r="6" spans="1:35" ht="139" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="25" t="s">
-        <v>7</v>
+      <c r="B6" s="38" t="s">
+        <v>1</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1390,14 +1345,12 @@
     <row r="7" spans="1:35" ht="13" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1428,15 +1381,13 @@
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1467,15 +1418,13 @@
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1506,15 +1455,13 @@
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1545,15 +1492,13 @@
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -1584,15 +1529,13 @@
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -1624,14 +1567,12 @@
     <row r="13" spans="1:35" ht="13" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1662,15 +1603,13 @@
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1701,15 +1640,13 @@
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1740,15 +1677,13 @@
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1779,15 +1714,13 @@
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -1818,15 +1751,13 @@
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -1858,14 +1789,12 @@
     <row r="19" spans="1:35" ht="13" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1896,15 +1825,13 @@
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1935,15 +1862,13 @@
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1974,15 +1899,13 @@
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2013,15 +1936,13 @@
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -2052,15 +1973,13 @@
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -2092,14 +2011,12 @@
     <row r="25" spans="1:35" ht="13" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2130,15 +2047,13 @@
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2169,15 +2084,13 @@
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2208,15 +2121,13 @@
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2247,15 +2158,13 @@
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -2286,15 +2195,13 @@
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -2326,14 +2233,12 @@
     <row r="31" spans="1:35" ht="13" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -2364,15 +2269,13 @@
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2403,15 +2306,13 @@
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2442,15 +2343,13 @@
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2481,15 +2380,13 @@
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -2520,15 +2417,13 @@
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -2560,14 +2455,12 @@
     <row r="37" spans="1:35" ht="13" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -2598,15 +2491,13 @@
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2637,15 +2528,13 @@
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2676,15 +2565,13 @@
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2715,15 +2602,13 @@
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -2754,15 +2639,13 @@
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -2794,14 +2677,12 @@
     <row r="43" spans="1:35" ht="13" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -2832,15 +2713,13 @@
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2871,15 +2750,13 @@
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2910,15 +2787,13 @@
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="7"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2949,15 +2824,13 @@
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
@@ -2988,15 +2861,13 @@
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -3028,14 +2899,12 @@
     <row r="49" spans="1:35" ht="13" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -3066,15 +2935,13 @@
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3105,15 +2972,13 @@
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3144,15 +3009,13 @@
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="7"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3183,15 +3046,13 @@
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -3222,15 +3083,13 @@
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="12"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -3262,14 +3121,12 @@
     <row r="55" spans="1:35" ht="13" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -3300,15 +3157,13 @@
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3339,15 +3194,13 @@
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3378,15 +3231,13 @@
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="7"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3417,15 +3268,13 @@
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
@@ -3456,15 +3305,13 @@
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -3496,14 +3343,12 @@
     <row r="61" spans="1:35" ht="13" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -3534,15 +3379,13 @@
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="7"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3573,15 +3416,13 @@
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3612,15 +3453,13 @@
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3651,15 +3490,13 @@
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="14"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
@@ -3690,15 +3527,13 @@
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -3730,14 +3565,12 @@
     <row r="67" spans="1:35" ht="13" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
@@ -3768,15 +3601,13 @@
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -3807,15 +3638,13 @@
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3846,15 +3675,13 @@
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3885,15 +3712,13 @@
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
@@ -3924,15 +3749,13 @@
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="12"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
@@ -3964,14 +3787,12 @@
     <row r="73" spans="1:35" ht="13" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
@@ -4002,15 +3823,13 @@
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="7"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4041,15 +3860,13 @@
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -4080,15 +3897,13 @@
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="7"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4119,15 +3934,13 @@
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
@@ -4158,15 +3971,13 @@
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
@@ -4198,14 +4009,12 @@
     <row r="79" spans="1:35" ht="13" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
@@ -4236,15 +4045,13 @@
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="7"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -4275,15 +4082,13 @@
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B81" s="30"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="7"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -4314,15 +4119,13 @@
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B82" s="30"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="7"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -4353,15 +4156,13 @@
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="14"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
@@ -4392,15 +4193,13 @@
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="12"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -4432,14 +4231,12 @@
     <row r="85" spans="1:35" ht="13" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="28"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
@@ -4470,15 +4267,13 @@
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="7"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4509,15 +4304,13 @@
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B87" s="30"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -4548,15 +4341,13 @@
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="7"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4587,15 +4378,13 @@
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="14"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
@@ -4626,15 +4415,13 @@
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B90" s="32"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="12"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
@@ -4666,14 +4453,12 @@
     <row r="91" spans="1:35" ht="13" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="28"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
@@ -4704,15 +4489,13 @@
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B92" s="30"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="7"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4743,15 +4526,13 @@
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B93" s="30"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="7"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4782,15 +4563,13 @@
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -4821,15 +4600,13 @@
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B95" s="30"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="14"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
@@ -4860,15 +4637,13 @@
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="12"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
@@ -4900,14 +4675,12 @@
     <row r="97" spans="1:35" ht="13" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="28"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
@@ -4938,15 +4711,13 @@
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="7"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4977,15 +4748,13 @@
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="7"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -5016,15 +4785,13 @@
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="7"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -5055,15 +4822,13 @@
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="14"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
@@ -5094,15 +4859,13 @@
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="12"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
@@ -5134,14 +4897,12 @@
     <row r="103" spans="1:35" ht="13" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="28"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
@@ -5172,15 +4933,13 @@
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="7"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -5211,15 +4970,13 @@
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="7"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -5250,15 +5007,13 @@
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="7"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -5289,15 +5044,13 @@
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1">
       <c r="A107" s="6"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="14"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
@@ -5328,15 +5081,13 @@
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A108" s="6"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="12"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
@@ -5368,14 +5119,12 @@
     <row r="109" spans="1:35" ht="13" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="28"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
@@ -5406,15 +5155,13 @@
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="7"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -5445,15 +5192,13 @@
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1">
       <c r="A111" s="6"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B111" s="30"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="7"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -5484,15 +5229,13 @@
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1">
       <c r="A112" s="6"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B112" s="30"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="7"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -5523,15 +5266,13 @@
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B113" s="30"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="14"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
@@ -5562,15 +5303,13 @@
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A114" s="6"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B114" s="32"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="12"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
@@ -5602,14 +5341,12 @@
     <row r="115" spans="1:35" ht="13" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="28"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="10"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
@@ -5640,15 +5377,13 @@
     </row>
     <row r="116" spans="1:35" ht="12" customHeight="1">
       <c r="A116" s="6"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B116" s="30"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="7"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -5679,15 +5414,13 @@
     </row>
     <row r="117" spans="1:35" ht="12" customHeight="1">
       <c r="A117" s="6"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B117" s="30"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="7"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -5718,15 +5451,13 @@
     </row>
     <row r="118" spans="1:35" ht="12" customHeight="1">
       <c r="A118" s="6"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B118" s="30"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="7"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -5757,15 +5488,13 @@
     </row>
     <row r="119" spans="1:35" ht="12" customHeight="1">
       <c r="A119" s="6"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B119" s="30"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="14"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
@@ -5796,15 +5525,13 @@
     </row>
     <row r="120" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A120" s="6"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="12"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
@@ -5836,14 +5563,12 @@
     <row r="121" spans="1:35" ht="13" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="28"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="10"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
@@ -5874,15 +5599,13 @@
     </row>
     <row r="122" spans="1:35" ht="12" customHeight="1">
       <c r="A122" s="6"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="7"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -5913,15 +5636,13 @@
     </row>
     <row r="123" spans="1:35" ht="12" customHeight="1">
       <c r="A123" s="6"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B123" s="30"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="7"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -5952,15 +5673,13 @@
     </row>
     <row r="124" spans="1:35" ht="12" customHeight="1">
       <c r="A124" s="6"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B124" s="30"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="7"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -5991,15 +5710,13 @@
     </row>
     <row r="125" spans="1:35" ht="12" customHeight="1">
       <c r="A125" s="6"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B125" s="30"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="14"/>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
       <c r="K125" s="15"/>
@@ -6030,15 +5747,13 @@
     </row>
     <row r="126" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A126" s="6"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="12"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
@@ -6070,14 +5785,12 @@
     <row r="127" spans="1:35" ht="13" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="28"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="10"/>
       <c r="I127" s="11"/>
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
@@ -6108,15 +5821,13 @@
     </row>
     <row r="128" spans="1:35" ht="12" customHeight="1">
       <c r="A128" s="6"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B128" s="30"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="7"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -6147,15 +5858,13 @@
     </row>
     <row r="129" spans="1:35" ht="12" customHeight="1">
       <c r="A129" s="6"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B129" s="30"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="7"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -6186,15 +5895,13 @@
     </row>
     <row r="130" spans="1:35" ht="12" customHeight="1">
       <c r="A130" s="6"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B130" s="30"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="7"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -6225,15 +5932,13 @@
     </row>
     <row r="131" spans="1:35" ht="12" customHeight="1">
       <c r="A131" s="6"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B131" s="30"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="14"/>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
@@ -6264,15 +5969,13 @@
     </row>
     <row r="132" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A132" s="6"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="12"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
       <c r="K132" s="13"/>
@@ -6304,14 +6007,12 @@
     <row r="133" spans="1:35" ht="13" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="28"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="10"/>
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
@@ -6342,15 +6043,13 @@
     </row>
     <row r="134" spans="1:35" ht="12" customHeight="1">
       <c r="A134" s="6"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B134" s="30"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="7"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -6381,15 +6080,13 @@
     </row>
     <row r="135" spans="1:35" ht="12" customHeight="1">
       <c r="A135" s="6"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B135" s="30"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="7"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -6420,15 +6117,13 @@
     </row>
     <row r="136" spans="1:35" ht="12" customHeight="1">
       <c r="A136" s="6"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B136" s="30"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="7"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -6459,15 +6154,13 @@
     </row>
     <row r="137" spans="1:35" ht="12" customHeight="1">
       <c r="A137" s="6"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B137" s="30"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="14"/>
       <c r="I137" s="15"/>
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
@@ -6498,15 +6191,13 @@
     </row>
     <row r="138" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A138" s="6"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B138" s="32"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="12"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
       <c r="K138" s="13"/>
@@ -6538,14 +6229,12 @@
     <row r="139" spans="1:35" ht="13" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="28"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="10"/>
       <c r="I139" s="11"/>
       <c r="J139" s="11"/>
       <c r="K139" s="11"/>
@@ -6576,15 +6265,13 @@
     </row>
     <row r="140" spans="1:35" ht="12" customHeight="1">
       <c r="A140" s="6"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B140" s="30"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="7"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -6615,15 +6302,13 @@
     </row>
     <row r="141" spans="1:35" ht="12" customHeight="1">
       <c r="A141" s="6"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B141" s="30"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="7"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -6654,15 +6339,13 @@
     </row>
     <row r="142" spans="1:35" ht="12" customHeight="1">
       <c r="A142" s="6"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B142" s="30"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="7"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -6693,15 +6376,13 @@
     </row>
     <row r="143" spans="1:35" ht="12" customHeight="1">
       <c r="A143" s="6"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23"/>
-      <c r="H143" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B143" s="30"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="14"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
@@ -6732,15 +6413,13 @@
     </row>
     <row r="144" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A144" s="6"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B144" s="32"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="12"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
       <c r="K144" s="13"/>
@@ -6772,14 +6451,12 @@
     <row r="145" spans="1:35" ht="13" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="28"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="10"/>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
@@ -6810,15 +6487,13 @@
     </row>
     <row r="146" spans="1:35" ht="12" customHeight="1">
       <c r="A146" s="6"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B146" s="30"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="7"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -6849,15 +6524,13 @@
     </row>
     <row r="147" spans="1:35" ht="12" customHeight="1">
       <c r="A147" s="6"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
-      <c r="H147" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B147" s="30"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="7"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -6888,15 +6561,13 @@
     </row>
     <row r="148" spans="1:35" ht="12" customHeight="1">
       <c r="A148" s="6"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B148" s="30"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="7"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -6927,15 +6598,13 @@
     </row>
     <row r="149" spans="1:35" ht="12" customHeight="1">
       <c r="A149" s="6"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B149" s="30"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="14"/>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
       <c r="K149" s="15"/>
@@ -6966,15 +6635,13 @@
     </row>
     <row r="150" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A150" s="6"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B150" s="32"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="12"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
       <c r="K150" s="13"/>
@@ -7006,14 +6673,12 @@
     <row r="151" spans="1:35" ht="13" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="28"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="10"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
@@ -7044,15 +6709,13 @@
     </row>
     <row r="152" spans="1:35" ht="12" customHeight="1">
       <c r="A152" s="6"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B152" s="30"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="7"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -7083,15 +6746,13 @@
     </row>
     <row r="153" spans="1:35" ht="12" customHeight="1">
       <c r="A153" s="6"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B153" s="30"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="7"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -7122,15 +6783,13 @@
     </row>
     <row r="154" spans="1:35" ht="12" customHeight="1">
       <c r="A154" s="6"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B154" s="30"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="7"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -7161,15 +6820,13 @@
     </row>
     <row r="155" spans="1:35" ht="12" customHeight="1">
       <c r="A155" s="6"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B155" s="30"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="14"/>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
       <c r="K155" s="15"/>
@@ -7200,15 +6857,13 @@
     </row>
     <row r="156" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A156" s="6"/>
-      <c r="B156" s="30"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="12"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13"/>
       <c r="K156" s="13"/>
@@ -7240,14 +6895,12 @@
     <row r="157" spans="1:35" ht="13" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="28"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="10"/>
       <c r="I157" s="11"/>
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
@@ -7278,15 +6931,13 @@
     </row>
     <row r="158" spans="1:35" ht="12" customHeight="1">
       <c r="A158" s="6"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B158" s="30"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="7"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -7317,15 +6968,13 @@
     </row>
     <row r="159" spans="1:35" ht="12" customHeight="1">
       <c r="A159" s="6"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B159" s="30"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="7"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -7356,15 +7005,13 @@
     </row>
     <row r="160" spans="1:35" ht="12" customHeight="1">
       <c r="A160" s="6"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B160" s="30"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="7"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -7395,15 +7042,13 @@
     </row>
     <row r="161" spans="1:35" ht="12" customHeight="1">
       <c r="A161" s="6"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B161" s="30"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="14"/>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
       <c r="K161" s="15"/>
@@ -7434,15 +7079,13 @@
     </row>
     <row r="162" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A162" s="6"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B162" s="32"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="12"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13"/>
       <c r="K162" s="13"/>
@@ -7474,14 +7117,12 @@
     <row r="163" spans="1:35" ht="13" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="28"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="10"/>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
@@ -7512,15 +7153,13 @@
     </row>
     <row r="164" spans="1:35" ht="12" customHeight="1">
       <c r="A164" s="6"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="23"/>
-      <c r="G164" s="23"/>
-      <c r="H164" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B164" s="30"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="7"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -7551,15 +7190,13 @@
     </row>
     <row r="165" spans="1:35" ht="12" customHeight="1">
       <c r="A165" s="6"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B165" s="30"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="7"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -7590,15 +7227,13 @@
     </row>
     <row r="166" spans="1:35" ht="12" customHeight="1">
       <c r="A166" s="6"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
-      <c r="F166" s="23"/>
-      <c r="G166" s="23"/>
-      <c r="H166" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B166" s="30"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="7"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -7629,15 +7264,13 @@
     </row>
     <row r="167" spans="1:35" ht="12" customHeight="1">
       <c r="A167" s="6"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="23"/>
-      <c r="H167" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B167" s="30"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="14"/>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
       <c r="K167" s="15"/>
@@ -7668,15 +7301,13 @@
     </row>
     <row r="168" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A168" s="6"/>
-      <c r="B168" s="30"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B168" s="32"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="12"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13"/>
       <c r="K168" s="13"/>
@@ -7708,14 +7339,12 @@
     <row r="169" spans="1:35" ht="13" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="28"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
-      <c r="H169" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="10"/>
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
@@ -7746,15 +7375,13 @@
     </row>
     <row r="170" spans="1:35" ht="12" customHeight="1">
       <c r="A170" s="6"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B170" s="30"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31"/>
+      <c r="H170" s="7"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -7785,15 +7412,13 @@
     </row>
     <row r="171" spans="1:35" ht="12" customHeight="1">
       <c r="A171" s="6"/>
-      <c r="B171" s="29"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="23"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B171" s="30"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="7"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -7824,15 +7449,13 @@
     </row>
     <row r="172" spans="1:35" ht="12" customHeight="1">
       <c r="A172" s="6"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
-      <c r="F172" s="23"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B172" s="30"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="7"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -7863,15 +7486,13 @@
     </row>
     <row r="173" spans="1:35" ht="12" customHeight="1">
       <c r="A173" s="6"/>
-      <c r="B173" s="29"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B173" s="30"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="14"/>
       <c r="I173" s="15"/>
       <c r="J173" s="15"/>
       <c r="K173" s="15"/>
@@ -7902,15 +7523,13 @@
     </row>
     <row r="174" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A174" s="6"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B174" s="32"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="12"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13"/>
       <c r="K174" s="13"/>
@@ -7942,14 +7561,12 @@
     <row r="175" spans="1:35" ht="13" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="28"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="22"/>
-      <c r="H175" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="10"/>
       <c r="I175" s="11"/>
       <c r="J175" s="11"/>
       <c r="K175" s="11"/>
@@ -7980,15 +7597,13 @@
     </row>
     <row r="176" spans="1:35" ht="12" customHeight="1">
       <c r="A176" s="6"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="23"/>
-      <c r="F176" s="23"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B176" s="30"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31"/>
+      <c r="H176" s="7"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -8019,15 +7634,13 @@
     </row>
     <row r="177" spans="1:35" ht="12" customHeight="1">
       <c r="A177" s="6"/>
-      <c r="B177" s="29"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="23"/>
-      <c r="G177" s="23"/>
-      <c r="H177" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B177" s="30"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="7"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -8058,15 +7671,13 @@
     </row>
     <row r="178" spans="1:35" ht="12" customHeight="1">
       <c r="A178" s="6"/>
-      <c r="B178" s="29"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B178" s="30"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="7"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -8097,15 +7708,13 @@
     </row>
     <row r="179" spans="1:35" ht="12" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-      <c r="F179" s="23"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B179" s="30"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="14"/>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
       <c r="K179" s="15"/>
@@ -8136,15 +7745,13 @@
     </row>
     <row r="180" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A180" s="6"/>
-      <c r="B180" s="30"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24"/>
-      <c r="H180" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B180" s="32"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="12"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
       <c r="K180" s="13"/>
@@ -8176,14 +7783,12 @@
     <row r="181" spans="1:35" ht="13" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="28"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="22"/>
-      <c r="G181" s="22"/>
-      <c r="H181" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="10"/>
       <c r="I181" s="11"/>
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
@@ -8214,15 +7819,13 @@
     </row>
     <row r="182" spans="1:35" ht="12" customHeight="1">
       <c r="A182" s="6"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="23"/>
-      <c r="H182" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B182" s="30"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31"/>
+      <c r="H182" s="7"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -8253,15 +7856,13 @@
     </row>
     <row r="183" spans="1:35" ht="12" customHeight="1">
       <c r="A183" s="6"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="23"/>
-      <c r="D183" s="23"/>
-      <c r="E183" s="23"/>
-      <c r="F183" s="23"/>
-      <c r="G183" s="23"/>
-      <c r="H183" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B183" s="30"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="7"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -8292,15 +7893,13 @@
     </row>
     <row r="184" spans="1:35" ht="12" customHeight="1">
       <c r="A184" s="6"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="23"/>
-      <c r="E184" s="23"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="23"/>
-      <c r="H184" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B184" s="30"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="7"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -8331,15 +7930,13 @@
     </row>
     <row r="185" spans="1:35" ht="12" customHeight="1">
       <c r="A185" s="6"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="23"/>
-      <c r="D185" s="23"/>
-      <c r="E185" s="23"/>
-      <c r="F185" s="23"/>
-      <c r="G185" s="23"/>
-      <c r="H185" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B185" s="30"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="14"/>
       <c r="I185" s="15"/>
       <c r="J185" s="15"/>
       <c r="K185" s="15"/>
@@ -8370,15 +7967,13 @@
     </row>
     <row r="186" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A186" s="6"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="24"/>
-      <c r="H186" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B186" s="32"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="12"/>
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
       <c r="K186" s="13"/>
@@ -8446,15 +8041,56 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="E67:G72"/>
+    <mergeCell ref="E73:G78"/>
+    <mergeCell ref="E79:G84"/>
+    <mergeCell ref="E85:G90"/>
+    <mergeCell ref="E31:G36"/>
+    <mergeCell ref="E37:G42"/>
+    <mergeCell ref="E43:G48"/>
+    <mergeCell ref="E49:G54"/>
+    <mergeCell ref="E55:G60"/>
+    <mergeCell ref="E91:G96"/>
+    <mergeCell ref="E97:G102"/>
+    <mergeCell ref="E103:G108"/>
+    <mergeCell ref="E109:G114"/>
+    <mergeCell ref="E115:G120"/>
+    <mergeCell ref="E181:G186"/>
+    <mergeCell ref="B103:D108"/>
+    <mergeCell ref="B109:D114"/>
+    <mergeCell ref="B115:D120"/>
+    <mergeCell ref="B121:D126"/>
+    <mergeCell ref="E151:G156"/>
+    <mergeCell ref="E157:G162"/>
+    <mergeCell ref="E163:G168"/>
+    <mergeCell ref="E169:G174"/>
+    <mergeCell ref="E175:G180"/>
+    <mergeCell ref="E121:G126"/>
+    <mergeCell ref="E127:G132"/>
+    <mergeCell ref="E133:G138"/>
+    <mergeCell ref="E139:G144"/>
+    <mergeCell ref="E145:G150"/>
+    <mergeCell ref="B127:D132"/>
+    <mergeCell ref="B79:D84"/>
+    <mergeCell ref="B85:D90"/>
+    <mergeCell ref="B91:D96"/>
+    <mergeCell ref="B97:D102"/>
+    <mergeCell ref="B67:D72"/>
+    <mergeCell ref="B73:D78"/>
+    <mergeCell ref="B43:D48"/>
+    <mergeCell ref="B49:D54"/>
+    <mergeCell ref="B55:D60"/>
+    <mergeCell ref="E61:G66"/>
+    <mergeCell ref="E7:G12"/>
+    <mergeCell ref="E13:G18"/>
+    <mergeCell ref="E19:G24"/>
+    <mergeCell ref="E25:G30"/>
+    <mergeCell ref="B13:D18"/>
+    <mergeCell ref="B19:D24"/>
+    <mergeCell ref="B25:D30"/>
+    <mergeCell ref="B31:D36"/>
+    <mergeCell ref="B37:D42"/>
     <mergeCell ref="B163:D168"/>
     <mergeCell ref="B169:D174"/>
     <mergeCell ref="B175:D180"/>
@@ -8471,56 +8107,15 @@
     <mergeCell ref="J3:R4"/>
     <mergeCell ref="B61:D66"/>
     <mergeCell ref="B7:D12"/>
-    <mergeCell ref="B13:D18"/>
-    <mergeCell ref="B19:D24"/>
-    <mergeCell ref="B25:D30"/>
-    <mergeCell ref="B31:D36"/>
-    <mergeCell ref="B37:D42"/>
-    <mergeCell ref="B43:D48"/>
-    <mergeCell ref="B49:D54"/>
-    <mergeCell ref="B55:D60"/>
-    <mergeCell ref="E61:G66"/>
-    <mergeCell ref="E7:G12"/>
-    <mergeCell ref="B79:D84"/>
-    <mergeCell ref="B85:D90"/>
-    <mergeCell ref="B91:D96"/>
-    <mergeCell ref="B97:D102"/>
-    <mergeCell ref="B67:D72"/>
-    <mergeCell ref="B73:D78"/>
-    <mergeCell ref="E181:G186"/>
-    <mergeCell ref="B103:D108"/>
-    <mergeCell ref="B109:D114"/>
-    <mergeCell ref="B115:D120"/>
-    <mergeCell ref="B121:D126"/>
-    <mergeCell ref="E151:G156"/>
-    <mergeCell ref="E157:G162"/>
-    <mergeCell ref="E163:G168"/>
-    <mergeCell ref="E169:G174"/>
-    <mergeCell ref="E175:G180"/>
-    <mergeCell ref="E121:G126"/>
-    <mergeCell ref="E127:G132"/>
-    <mergeCell ref="E133:G138"/>
-    <mergeCell ref="E139:G144"/>
-    <mergeCell ref="E145:G150"/>
-    <mergeCell ref="B127:D132"/>
-    <mergeCell ref="E91:G96"/>
-    <mergeCell ref="E97:G102"/>
-    <mergeCell ref="E103:G108"/>
-    <mergeCell ref="E109:G114"/>
-    <mergeCell ref="E115:G120"/>
-    <mergeCell ref="E73:G78"/>
-    <mergeCell ref="E79:G84"/>
-    <mergeCell ref="E85:G90"/>
-    <mergeCell ref="E31:G36"/>
-    <mergeCell ref="E37:G42"/>
-    <mergeCell ref="E43:G48"/>
-    <mergeCell ref="E49:G54"/>
-    <mergeCell ref="E55:G60"/>
-    <mergeCell ref="E13:G18"/>
-    <mergeCell ref="E19:G24"/>
-    <mergeCell ref="E25:G30"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="E67:G72"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.16722222222222222" right="0.70000000000000007" top="0.2986111111111111" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/template/ObjectPermission.xlsx
+++ b/template/ObjectPermission.xlsx
@@ -590,7 +590,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,46 +641,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,170 +1099,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="23" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="34" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="22" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
     </row>
     <row r="2" spans="1:35" ht="23" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="22" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22" t="s">
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
     </row>
     <row r="3" spans="1:35" ht="23" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="23" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
     </row>
     <row r="4" spans="1:35" ht="23" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="3"/>
@@ -1303,14 +1303,14 @@
     </row>
     <row r="6" spans="1:35" ht="139" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1345,11 +1345,11 @@
     <row r="7" spans="1:35" ht="13" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1381,12 +1381,12 @@
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1418,12 +1418,12 @@
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1455,12 +1455,12 @@
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1492,12 +1492,12 @@
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -1529,12 +1529,12 @@
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -1567,11 +1567,11 @@
     <row r="13" spans="1:35" ht="13" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1603,12 +1603,12 @@
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1640,12 +1640,12 @@
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1677,12 +1677,12 @@
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1714,12 +1714,12 @@
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -1751,12 +1751,12 @@
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1789,11 +1789,11 @@
     <row r="19" spans="1:35" ht="13" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -1825,12 +1825,12 @@
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1862,12 +1862,12 @@
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1899,12 +1899,12 @@
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1936,12 +1936,12 @@
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -1973,12 +1973,12 @@
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2011,11 +2011,11 @@
     <row r="25" spans="1:35" ht="13" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -2047,12 +2047,12 @@
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2084,12 +2084,12 @@
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2121,12 +2121,12 @@
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2158,12 +2158,12 @@
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -2195,12 +2195,12 @@
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -2233,11 +2233,11 @@
     <row r="31" spans="1:35" ht="13" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -2269,12 +2269,12 @@
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="7"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2306,12 +2306,12 @@
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2343,12 +2343,12 @@
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="7"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2380,12 +2380,12 @@
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -2417,12 +2417,12 @@
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -2455,11 +2455,11 @@
     <row r="37" spans="1:35" ht="13" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="10"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -2491,12 +2491,12 @@
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="7"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2528,12 +2528,12 @@
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2565,12 +2565,12 @@
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="7"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2602,12 +2602,12 @@
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2639,12 +2639,12 @@
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -2677,11 +2677,11 @@
     <row r="43" spans="1:35" ht="13" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
@@ -2713,12 +2713,12 @@
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="7"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2750,12 +2750,12 @@
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="7"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2787,12 +2787,12 @@
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="7"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2824,12 +2824,12 @@
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="14"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -2861,12 +2861,12 @@
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -2899,11 +2899,11 @@
     <row r="49" spans="1:35" ht="13" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="10"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
@@ -2935,12 +2935,12 @@
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="7"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2972,12 +2972,12 @@
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="7"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3009,12 +3009,12 @@
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="7"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3046,12 +3046,12 @@
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="14"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
@@ -3083,12 +3083,12 @@
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="12"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -3121,11 +3121,11 @@
     <row r="55" spans="1:35" ht="13" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="10"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -3157,12 +3157,12 @@
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="7"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3194,12 +3194,12 @@
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="7"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3231,12 +3231,12 @@
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="7"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3268,12 +3268,12 @@
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
@@ -3305,12 +3305,12 @@
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="12"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -3343,11 +3343,11 @@
     <row r="61" spans="1:35" ht="13" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="10"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -3379,12 +3379,12 @@
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
       <c r="H62" s="7"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3416,12 +3416,12 @@
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="7"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3453,12 +3453,12 @@
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3490,12 +3490,12 @@
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="14"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -3527,12 +3527,12 @@
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="12"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
@@ -3565,11 +3565,11 @@
     <row r="67" spans="1:35" ht="13" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="10"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -3601,12 +3601,12 @@
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="7"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3638,12 +3638,12 @@
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="7"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3675,12 +3675,12 @@
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
       <c r="H70" s="7"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3712,12 +3712,12 @@
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
       <c r="H71" s="14"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -3749,12 +3749,12 @@
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="12"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
@@ -3787,11 +3787,11 @@
     <row r="73" spans="1:35" ht="13" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="10"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
@@ -3823,12 +3823,12 @@
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
       <c r="H74" s="7"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3860,12 +3860,12 @@
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
       <c r="H75" s="7"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3897,12 +3897,12 @@
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
       <c r="H76" s="7"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3934,12 +3934,12 @@
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
       <c r="H77" s="14"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -3971,12 +3971,12 @@
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="12"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
@@ -4009,11 +4009,11 @@
     <row r="79" spans="1:35" ht="13" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="10"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -4045,12 +4045,12 @@
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="7"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4082,12 +4082,12 @@
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
       <c r="H81" s="7"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4119,12 +4119,12 @@
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="7"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4156,12 +4156,12 @@
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
       <c r="H83" s="14"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -4193,12 +4193,12 @@
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
       <c r="H84" s="12"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -4231,11 +4231,11 @@
     <row r="85" spans="1:35" ht="13" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="28"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="10"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
@@ -4267,12 +4267,12 @@
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
       <c r="H86" s="7"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -4304,12 +4304,12 @@
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
       <c r="H87" s="7"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -4341,12 +4341,12 @@
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
       <c r="H88" s="7"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -4378,12 +4378,12 @@
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
       <c r="H89" s="14"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
@@ -4415,12 +4415,12 @@
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="12"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
@@ -4453,11 +4453,11 @@
     <row r="91" spans="1:35" ht="13" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="28"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
       <c r="H91" s="10"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
@@ -4489,12 +4489,12 @@
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
       <c r="H92" s="7"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -4526,12 +4526,12 @@
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
       <c r="H93" s="7"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -4563,12 +4563,12 @@
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
       <c r="H94" s="7"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -4600,12 +4600,12 @@
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
       <c r="H95" s="14"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -4637,12 +4637,12 @@
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
       <c r="H96" s="12"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -4675,11 +4675,11 @@
     <row r="97" spans="1:35" ht="13" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="28"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
       <c r="H97" s="10"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
@@ -4711,12 +4711,12 @@
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
       <c r="H98" s="7"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -4748,12 +4748,12 @@
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
       <c r="H99" s="7"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -4785,12 +4785,12 @@
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
       <c r="H100" s="7"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -4822,12 +4822,12 @@
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
       <c r="H101" s="14"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
@@ -4859,12 +4859,12 @@
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
       <c r="H102" s="12"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -4897,11 +4897,11 @@
     <row r="103" spans="1:35" ht="13" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="28"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
       <c r="H103" s="10"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
@@ -4933,12 +4933,12 @@
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
       <c r="H104" s="7"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4970,12 +4970,12 @@
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
       <c r="H105" s="7"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -5007,12 +5007,12 @@
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
       <c r="H106" s="7"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -5044,12 +5044,12 @@
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1">
       <c r="A107" s="6"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
       <c r="H107" s="14"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
@@ -5081,12 +5081,12 @@
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A108" s="6"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
       <c r="H108" s="12"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
@@ -5119,11 +5119,11 @@
     <row r="109" spans="1:35" ht="13" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="28"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
       <c r="H109" s="10"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
@@ -5155,12 +5155,12 @@
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
       <c r="H110" s="7"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -5192,12 +5192,12 @@
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1">
       <c r="A111" s="6"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
       <c r="H111" s="7"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -5229,12 +5229,12 @@
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1">
       <c r="A112" s="6"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
       <c r="H112" s="7"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -5266,12 +5266,12 @@
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
       <c r="H113" s="14"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -5303,12 +5303,12 @@
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A114" s="6"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
       <c r="H114" s="12"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
@@ -5341,11 +5341,11 @@
     <row r="115" spans="1:35" ht="13" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="28"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
       <c r="H115" s="10"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
@@ -5377,12 +5377,12 @@
     </row>
     <row r="116" spans="1:35" ht="12" customHeight="1">
       <c r="A116" s="6"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
       <c r="H116" s="7"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -5414,12 +5414,12 @@
     </row>
     <row r="117" spans="1:35" ht="12" customHeight="1">
       <c r="A117" s="6"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
       <c r="H117" s="7"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -5451,12 +5451,12 @@
     </row>
     <row r="118" spans="1:35" ht="12" customHeight="1">
       <c r="A118" s="6"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
       <c r="H118" s="7"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -5488,12 +5488,12 @@
     </row>
     <row r="119" spans="1:35" ht="12" customHeight="1">
       <c r="A119" s="6"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
       <c r="H119" s="14"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -5525,12 +5525,12 @@
     </row>
     <row r="120" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A120" s="6"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
       <c r="H120" s="12"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
@@ -5563,11 +5563,11 @@
     <row r="121" spans="1:35" ht="13" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="28"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
       <c r="H121" s="10"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
@@ -5599,12 +5599,12 @@
     </row>
     <row r="122" spans="1:35" ht="12" customHeight="1">
       <c r="A122" s="6"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
       <c r="H122" s="7"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -5636,12 +5636,12 @@
     </row>
     <row r="123" spans="1:35" ht="12" customHeight="1">
       <c r="A123" s="6"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
       <c r="H123" s="7"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -5673,12 +5673,12 @@
     </row>
     <row r="124" spans="1:35" ht="12" customHeight="1">
       <c r="A124" s="6"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
       <c r="H124" s="7"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -5710,12 +5710,12 @@
     </row>
     <row r="125" spans="1:35" ht="12" customHeight="1">
       <c r="A125" s="6"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
       <c r="H125" s="14"/>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
@@ -5747,12 +5747,12 @@
     </row>
     <row r="126" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A126" s="6"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
       <c r="H126" s="12"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
@@ -5785,11 +5785,11 @@
     <row r="127" spans="1:35" ht="13" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="28"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
       <c r="H127" s="10"/>
       <c r="I127" s="11"/>
       <c r="J127" s="11"/>
@@ -5821,12 +5821,12 @@
     </row>
     <row r="128" spans="1:35" ht="12" customHeight="1">
       <c r="A128" s="6"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
       <c r="H128" s="7"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -5858,12 +5858,12 @@
     </row>
     <row r="129" spans="1:35" ht="12" customHeight="1">
       <c r="A129" s="6"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
       <c r="H129" s="7"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -5895,12 +5895,12 @@
     </row>
     <row r="130" spans="1:35" ht="12" customHeight="1">
       <c r="A130" s="6"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
       <c r="H130" s="7"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -5932,12 +5932,12 @@
     </row>
     <row r="131" spans="1:35" ht="12" customHeight="1">
       <c r="A131" s="6"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
       <c r="H131" s="14"/>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
@@ -5969,12 +5969,12 @@
     </row>
     <row r="132" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A132" s="6"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
       <c r="H132" s="12"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
@@ -6007,11 +6007,11 @@
     <row r="133" spans="1:35" ht="13" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="28"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
       <c r="H133" s="10"/>
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
@@ -6043,12 +6043,12 @@
     </row>
     <row r="134" spans="1:35" ht="12" customHeight="1">
       <c r="A134" s="6"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
       <c r="H134" s="7"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -6080,12 +6080,12 @@
     </row>
     <row r="135" spans="1:35" ht="12" customHeight="1">
       <c r="A135" s="6"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
       <c r="H135" s="7"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -6117,12 +6117,12 @@
     </row>
     <row r="136" spans="1:35" ht="12" customHeight="1">
       <c r="A136" s="6"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
       <c r="H136" s="7"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -6154,12 +6154,12 @@
     </row>
     <row r="137" spans="1:35" ht="12" customHeight="1">
       <c r="A137" s="6"/>
-      <c r="B137" s="30"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
       <c r="H137" s="14"/>
       <c r="I137" s="15"/>
       <c r="J137" s="15"/>
@@ -6191,12 +6191,12 @@
     </row>
     <row r="138" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A138" s="6"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
       <c r="H138" s="12"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
@@ -6229,11 +6229,11 @@
     <row r="139" spans="1:35" ht="13" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="28"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
       <c r="H139" s="10"/>
       <c r="I139" s="11"/>
       <c r="J139" s="11"/>
@@ -6265,12 +6265,12 @@
     </row>
     <row r="140" spans="1:35" ht="12" customHeight="1">
       <c r="A140" s="6"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
       <c r="H140" s="7"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -6302,12 +6302,12 @@
     </row>
     <row r="141" spans="1:35" ht="12" customHeight="1">
       <c r="A141" s="6"/>
-      <c r="B141" s="30"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
       <c r="H141" s="7"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -6339,12 +6339,12 @@
     </row>
     <row r="142" spans="1:35" ht="12" customHeight="1">
       <c r="A142" s="6"/>
-      <c r="B142" s="30"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="31"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
       <c r="H142" s="7"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -6376,12 +6376,12 @@
     </row>
     <row r="143" spans="1:35" ht="12" customHeight="1">
       <c r="A143" s="6"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
       <c r="H143" s="14"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
@@ -6413,12 +6413,12 @@
     </row>
     <row r="144" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A144" s="6"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
       <c r="H144" s="12"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
@@ -6451,11 +6451,11 @@
     <row r="145" spans="1:35" ht="13" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="28"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
       <c r="H145" s="10"/>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
@@ -6487,12 +6487,12 @@
     </row>
     <row r="146" spans="1:35" ht="12" customHeight="1">
       <c r="A146" s="6"/>
-      <c r="B146" s="30"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
       <c r="H146" s="7"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -6524,12 +6524,12 @@
     </row>
     <row r="147" spans="1:35" ht="12" customHeight="1">
       <c r="A147" s="6"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
       <c r="H147" s="7"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -6561,12 +6561,12 @@
     </row>
     <row r="148" spans="1:35" ht="12" customHeight="1">
       <c r="A148" s="6"/>
-      <c r="B148" s="30"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
       <c r="H148" s="7"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -6598,12 +6598,12 @@
     </row>
     <row r="149" spans="1:35" ht="12" customHeight="1">
       <c r="A149" s="6"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
       <c r="H149" s="14"/>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
@@ -6635,12 +6635,12 @@
     </row>
     <row r="150" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A150" s="6"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
       <c r="H150" s="12"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
@@ -6673,11 +6673,11 @@
     <row r="151" spans="1:35" ht="13" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="28"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
       <c r="H151" s="10"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
@@ -6709,12 +6709,12 @@
     </row>
     <row r="152" spans="1:35" ht="12" customHeight="1">
       <c r="A152" s="6"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
       <c r="H152" s="7"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -6746,12 +6746,12 @@
     </row>
     <row r="153" spans="1:35" ht="12" customHeight="1">
       <c r="A153" s="6"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="31"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
       <c r="H153" s="7"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -6783,12 +6783,12 @@
     </row>
     <row r="154" spans="1:35" ht="12" customHeight="1">
       <c r="A154" s="6"/>
-      <c r="B154" s="30"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="31"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
       <c r="H154" s="7"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -6820,12 +6820,12 @@
     </row>
     <row r="155" spans="1:35" ht="12" customHeight="1">
       <c r="A155" s="6"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="31"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
       <c r="H155" s="14"/>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -6857,12 +6857,12 @@
     </row>
     <row r="156" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A156" s="6"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
       <c r="H156" s="12"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13"/>
@@ -6895,11 +6895,11 @@
     <row r="157" spans="1:35" ht="13" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="28"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
       <c r="H157" s="10"/>
       <c r="I157" s="11"/>
       <c r="J157" s="11"/>
@@ -6931,12 +6931,12 @@
     </row>
     <row r="158" spans="1:35" ht="12" customHeight="1">
       <c r="A158" s="6"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="31"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
       <c r="H158" s="7"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -6968,12 +6968,12 @@
     </row>
     <row r="159" spans="1:35" ht="12" customHeight="1">
       <c r="A159" s="6"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="31"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
       <c r="H159" s="7"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -7005,12 +7005,12 @@
     </row>
     <row r="160" spans="1:35" ht="12" customHeight="1">
       <c r="A160" s="6"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="31"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
       <c r="H160" s="7"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -7042,12 +7042,12 @@
     </row>
     <row r="161" spans="1:35" ht="12" customHeight="1">
       <c r="A161" s="6"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
       <c r="H161" s="14"/>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -7079,12 +7079,12 @@
     </row>
     <row r="162" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A162" s="6"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
       <c r="H162" s="12"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13"/>
@@ -7117,11 +7117,11 @@
     <row r="163" spans="1:35" ht="13" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="28"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
       <c r="H163" s="10"/>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
@@ -7153,12 +7153,12 @@
     </row>
     <row r="164" spans="1:35" ht="12" customHeight="1">
       <c r="A164" s="6"/>
-      <c r="B164" s="30"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="31"/>
-      <c r="F164" s="31"/>
-      <c r="G164" s="31"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
       <c r="H164" s="7"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -7190,12 +7190,12 @@
     </row>
     <row r="165" spans="1:35" ht="12" customHeight="1">
       <c r="A165" s="6"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="31"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
       <c r="H165" s="7"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -7227,12 +7227,12 @@
     </row>
     <row r="166" spans="1:35" ht="12" customHeight="1">
       <c r="A166" s="6"/>
-      <c r="B166" s="30"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="31"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
       <c r="H166" s="7"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -7264,12 +7264,12 @@
     </row>
     <row r="167" spans="1:35" ht="12" customHeight="1">
       <c r="A167" s="6"/>
-      <c r="B167" s="30"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
       <c r="H167" s="14"/>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
@@ -7301,12 +7301,12 @@
     </row>
     <row r="168" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A168" s="6"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
       <c r="H168" s="12"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13"/>
@@ -7339,11 +7339,11 @@
     <row r="169" spans="1:35" ht="13" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="28"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
       <c r="H169" s="10"/>
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
@@ -7375,12 +7375,12 @@
     </row>
     <row r="170" spans="1:35" ht="12" customHeight="1">
       <c r="A170" s="6"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
       <c r="H170" s="7"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -7412,12 +7412,12 @@
     </row>
     <row r="171" spans="1:35" ht="12" customHeight="1">
       <c r="A171" s="6"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="31"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
       <c r="H171" s="7"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -7449,12 +7449,12 @@
     </row>
     <row r="172" spans="1:35" ht="12" customHeight="1">
       <c r="A172" s="6"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="31"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
       <c r="H172" s="7"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -7486,12 +7486,12 @@
     </row>
     <row r="173" spans="1:35" ht="12" customHeight="1">
       <c r="A173" s="6"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="31"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
       <c r="H173" s="14"/>
       <c r="I173" s="15"/>
       <c r="J173" s="15"/>
@@ -7523,12 +7523,12 @@
     </row>
     <row r="174" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A174" s="6"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="33"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
       <c r="H174" s="12"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13"/>
@@ -7561,11 +7561,11 @@
     <row r="175" spans="1:35" ht="13" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="28"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="29"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
       <c r="H175" s="10"/>
       <c r="I175" s="11"/>
       <c r="J175" s="11"/>
@@ -7597,12 +7597,12 @@
     </row>
     <row r="176" spans="1:35" ht="12" customHeight="1">
       <c r="A176" s="6"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="31"/>
-      <c r="F176" s="31"/>
-      <c r="G176" s="31"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
       <c r="H176" s="7"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -7634,12 +7634,12 @@
     </row>
     <row r="177" spans="1:35" ht="12" customHeight="1">
       <c r="A177" s="6"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="31"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
       <c r="H177" s="7"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -7671,12 +7671,12 @@
     </row>
     <row r="178" spans="1:35" ht="12" customHeight="1">
       <c r="A178" s="6"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="31"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
       <c r="H178" s="7"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -7708,12 +7708,12 @@
     </row>
     <row r="179" spans="1:35" ht="12" customHeight="1">
       <c r="A179" s="6"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="31"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
       <c r="H179" s="14"/>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
@@ -7745,12 +7745,12 @@
     </row>
     <row r="180" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A180" s="6"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="33"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
       <c r="H180" s="12"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
@@ -7783,11 +7783,11 @@
     <row r="181" spans="1:35" ht="13" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="28"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="25"/>
       <c r="H181" s="10"/>
       <c r="I181" s="11"/>
       <c r="J181" s="11"/>
@@ -7819,12 +7819,12 @@
     </row>
     <row r="182" spans="1:35" ht="12" customHeight="1">
       <c r="A182" s="6"/>
-      <c r="B182" s="30"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="31"/>
-      <c r="F182" s="31"/>
-      <c r="G182" s="31"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
       <c r="H182" s="7"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -7856,12 +7856,12 @@
     </row>
     <row r="183" spans="1:35" ht="12" customHeight="1">
       <c r="A183" s="6"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31"/>
-      <c r="E183" s="31"/>
-      <c r="F183" s="31"/>
-      <c r="G183" s="31"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
       <c r="H183" s="7"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -7893,12 +7893,12 @@
     </row>
     <row r="184" spans="1:35" ht="12" customHeight="1">
       <c r="A184" s="6"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="31"/>
-      <c r="F184" s="31"/>
-      <c r="G184" s="31"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
       <c r="H184" s="7"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -7930,12 +7930,12 @@
     </row>
     <row r="185" spans="1:35" ht="12" customHeight="1">
       <c r="A185" s="6"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="31"/>
-      <c r="E185" s="31"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="31"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
       <c r="H185" s="14"/>
       <c r="I185" s="15"/>
       <c r="J185" s="15"/>
@@ -7967,12 +7967,12 @@
     </row>
     <row r="186" spans="1:35" ht="12" customHeight="1" thickBot="1">
       <c r="A186" s="6"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
       <c r="H186" s="12"/>
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
@@ -8041,21 +8041,44 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="E67:G72"/>
-    <mergeCell ref="E73:G78"/>
-    <mergeCell ref="E79:G84"/>
-    <mergeCell ref="E85:G90"/>
-    <mergeCell ref="E31:G36"/>
-    <mergeCell ref="E37:G42"/>
-    <mergeCell ref="E43:G48"/>
-    <mergeCell ref="E49:G54"/>
-    <mergeCell ref="E55:G60"/>
-    <mergeCell ref="E91:G96"/>
-    <mergeCell ref="E97:G102"/>
-    <mergeCell ref="E103:G108"/>
-    <mergeCell ref="E109:G114"/>
-    <mergeCell ref="E115:G120"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="B133:D138"/>
+    <mergeCell ref="B139:D144"/>
+    <mergeCell ref="B145:D150"/>
+    <mergeCell ref="B151:D156"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:R2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="B61:D66"/>
+    <mergeCell ref="B7:D12"/>
+    <mergeCell ref="B37:D42"/>
+    <mergeCell ref="B163:D168"/>
+    <mergeCell ref="B169:D174"/>
+    <mergeCell ref="B175:D180"/>
+    <mergeCell ref="B181:D186"/>
+    <mergeCell ref="B157:D162"/>
+    <mergeCell ref="E25:G30"/>
+    <mergeCell ref="B13:D18"/>
+    <mergeCell ref="B19:D24"/>
+    <mergeCell ref="B25:D30"/>
+    <mergeCell ref="B31:D36"/>
+    <mergeCell ref="B91:D96"/>
+    <mergeCell ref="B97:D102"/>
+    <mergeCell ref="B67:D72"/>
+    <mergeCell ref="B73:D78"/>
+    <mergeCell ref="B43:D48"/>
+    <mergeCell ref="B49:D54"/>
+    <mergeCell ref="B55:D60"/>
     <mergeCell ref="E181:G186"/>
     <mergeCell ref="B103:D108"/>
     <mergeCell ref="B109:D114"/>
@@ -8072,54 +8095,31 @@
     <mergeCell ref="E139:G144"/>
     <mergeCell ref="E145:G150"/>
     <mergeCell ref="B127:D132"/>
+    <mergeCell ref="E91:G96"/>
+    <mergeCell ref="E97:G102"/>
+    <mergeCell ref="E103:G108"/>
+    <mergeCell ref="E109:G114"/>
+    <mergeCell ref="E115:G120"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="E67:G72"/>
+    <mergeCell ref="E73:G78"/>
+    <mergeCell ref="E79:G84"/>
+    <mergeCell ref="E85:G90"/>
+    <mergeCell ref="E31:G36"/>
+    <mergeCell ref="E37:G42"/>
+    <mergeCell ref="E43:G48"/>
+    <mergeCell ref="E49:G54"/>
+    <mergeCell ref="E55:G60"/>
     <mergeCell ref="B79:D84"/>
     <mergeCell ref="B85:D90"/>
-    <mergeCell ref="B91:D96"/>
-    <mergeCell ref="B97:D102"/>
-    <mergeCell ref="B67:D72"/>
-    <mergeCell ref="B73:D78"/>
-    <mergeCell ref="B43:D48"/>
-    <mergeCell ref="B49:D54"/>
-    <mergeCell ref="B55:D60"/>
     <mergeCell ref="E61:G66"/>
     <mergeCell ref="E7:G12"/>
     <mergeCell ref="E13:G18"/>
     <mergeCell ref="E19:G24"/>
-    <mergeCell ref="E25:G30"/>
-    <mergeCell ref="B13:D18"/>
-    <mergeCell ref="B19:D24"/>
-    <mergeCell ref="B25:D30"/>
-    <mergeCell ref="B31:D36"/>
-    <mergeCell ref="B37:D42"/>
-    <mergeCell ref="B163:D168"/>
-    <mergeCell ref="B169:D174"/>
-    <mergeCell ref="B175:D180"/>
-    <mergeCell ref="B181:D186"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="B133:D138"/>
-    <mergeCell ref="B139:D144"/>
-    <mergeCell ref="B145:D150"/>
-    <mergeCell ref="B151:D156"/>
-    <mergeCell ref="B157:D162"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="J3:R4"/>
-    <mergeCell ref="B61:D66"/>
-    <mergeCell ref="B7:D12"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.16722222222222222" right="0.70000000000000007" top="0.2986111111111111" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="8" scale="64" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
